--- a/ParkYoungWoong/deep learning_kmeans_10clusters.xlsx
+++ b/ParkYoungWoong/deep learning_kmeans_10clusters.xlsx
@@ -28,64 +28,64 @@
     <t>top_15_topics</t>
   </si>
   <si>
-    <t>['Deep_White_Balance', 'source_separation', 'TorchFusion', 'wildcat.pytorch', 'InstanceSegmentation_Sentinel2', 'Deep_White_Balance', 'source_separation', 'TorchFusion', 'wildcat.pytorch', 'InstanceSegmentation_Sentinel2', 'Deep_White_Balance', 'source_separation', 'TorchFusion', 'wildcat.pytorch', 'InstanceSegmentation_Sentinel2', 'Deep_White_Balance', 'source_separation', 'TorchFusion', 'wildcat.pytorch', 'InstanceSegmentation_Sentinel2', 'Deep_White_Balance', 'source_separation', 'TorchFusion', 'wildcat.pytorch', 'InstanceSegmentation_Sentinel2', 'Deep_White_Balance', 'source_separation', 'TorchFusion', 'wildcat.pytorch', 'InstanceSegmentation_Sentinel2', 'Deep_White_Balance', 'source_separation', 'TorchFusion', 'wildcat.pytorch', 'InstanceSegmentation_Sentinel2', 'Deep_White_Balance', 'source_separation', 'TorchFusion', 'wildcat.pytorch', 'InstanceSegmentation_Sentinel2', 'Deep_White_Balance', 'source_separation', 'TorchFusion', 'wildcat.pytorch', 'InstanceSegmentation_Sentinel2', 'Deep_White_Balance', 'source_separation', 'TorchFusion', 'wildcat.pytorch', 'InstanceSegmentation_Sentinel2', 'Deep_White_Balance', 'source_separation', 'TorchFusion', 'wildcat.pytorch', 'InstanceSegmentation_Sentinel2', 'Deep_White_Balance', 'source_separation', 'TorchFusion', 'wildcat.pytorch', 'InstanceSegmentation_Sentinel2', 'Deep_White_Balance', 'source_separation', 'TorchFusion', 'wildcat.pytorch', 'InstanceSegmentation_Sentinel2', 'Deep_White_Balance', 'source_separation', 'TorchFusion', 'wildcat.pytorch', 'InstanceSegmentation_Sentinel2', 'Deep_White_Balance', 'source_separation', 'TorchFusion', 'wildcat.pytorch', 'InstanceSegmentation_Sentinel2', 'Deep_White_Balance', 'source_separation', 'TorchFusion', 'wildcat.pytorch', 'InstanceSegmentation_Sentinel2', 'Deep_White_Balance', 'source_separation', 'TorchFusion', 'wildcat.pytorch', 'InstanceSegmentation_Sentinel2', 'Deep_White_Balance', 'source_separation', 'TorchFusion', 'wildcat.pytorch', 'InstanceSegmentation_Sentinel2', 'Deep_White_Balance', 'source_separation', 'TorchFusion', 'wildcat.pytorch', 'InstanceSegmentation_Sentinel2', 'Deep_White_Balance', 'source_separation', 'TorchFusion', 'wildcat.pytorch', 'InstanceSegmentation_Sentinel2', 'Deep_White_Balance', 'source_separation', 'TorchFusion', 'wildcat.pytorch', 'InstanceSegmentation_Sentinel2', 'Deep_White_Balance', 'source_separation', 'TorchFusion', 'wildcat.pytorch', 'InstanceSegmentation_Sentinel2', 'Deep_White_Balance', 'source_separation', 'TorchFusion', 'wildcat.pytorch', 'InstanceSegmentation_Sentinel2', 'Deep_White_Balance', 'source_separation', 'TorchFusion', 'wildcat.pytorch', 'InstanceSegmentation_Sentinel2', 'Deep_White_Balance', 'source_separation', 'TorchFusion', 'wildcat.pytorch', 'InstanceSegmentation_Sentinel2', 'Deep_White_Balance', 'source_separation', 'TorchFusion', 'wildcat.pytorch', 'InstanceSegmentation_Sentinel2', 'Deep_White_Balance', 'source_separation', 'TorchFusion', 'wildcat.pytorch', 'InstanceSegmentation_Sentinel2', 'Deep_White_Balance', 'source_separation', 'TorchFusion', 'wildcat.pytorch', 'InstanceSegmentation_Sentinel2', 'Deep_White_Balance', 'source_separation', 'TorchFusion', 'wildcat.pytorch', 'InstanceSegmentation_Sentinel2', 'Deep_White_Balance', 'source_separation', 'TorchFusion', 'wildcat.pytorch', 'InstanceSegmentation_Sentinel2', 'Deep_White_Balance', 'source_separation', 'TorchFusion', 'wildcat.pytorch', 'InstanceSegmentation_Sentinel2', 'Deep_White_Balance', 'source_separation', 'TorchFusion', 'wildcat.pytorch', 'InstanceSegmentation_Sentinel2', 'Deep_White_Balance', 'source_separation', 'TorchFusion', 'wildcat.pytorch', 'InstanceSegmentation_Sentinel2', 'Deep_White_Balance', 'source_separation', 'TorchFusion', 'wildcat.pytorch', 'InstanceSegmentation_Sentinel2', 'Deep_White_Balance', 'source_separation', 'TorchFusion', 'wildcat.pytorch', 'InstanceSegmentation_Sentinel2', 'Deep_White_Balance', 'source_separation', 'TorchFusion', 'wildcat.pytorch', 'InstanceSegmentation_Sentinel2', 'Deep_White_Balance', 'source_separation', 'TorchFusion', 'wildcat.pytorch', 'InstanceSegmentation_Sentinel2', 'Deep_White_Balance', 'source_separation', 'TorchFusion', 'wildcat.pytorch', 'InstanceSegmentation_Sentinel2', 'Deep_White_Balance', 'source_separation', 'TorchFusion', 'wildcat.pytorch', 'InstanceSegmentation_Sentinel2', 'Deep_White_Balance', 'source_separation', 'TorchFusion', 'wildcat.pytorch', 'InstanceSegmentation_Sentinel2', 'Deep_White_Balance', 'source_separation', 'TorchFusion', 'wildcat.pytorch', 'InstanceSegmentation_Sentinel2', 'Deep_White_Balance', 'source_separation', 'TorchFusion', 'wildcat.pytorch', 'InstanceSegmentation_Sentinel2', 'Deep_White_Balance', 'source_separation', 'TorchFusion', 'wildcat.pytorch', 'InstanceSegmentation_Sentinel2', 'Deep_White_Balance', 'source_separation', 'TorchFusion', 'wildcat.pytorch', 'InstanceSegmentation_Sentinel2', 'Deep_White_Balance', 'source_separation', 'TorchFusion', 'wildcat.pytorch', 'InstanceSegmentation_Sentinel2', 'Deep_White_Balance', 'source_separation', 'TorchFusion', 'wildcat.pytorch', 'InstanceSegmentation_Sentinel2', 'Deep_White_Balance', 'source_separation', 'TorchFusion', 'wildcat.pytorch', 'InstanceSegmentation_Sentinel2', 'Deep_White_Balance', 'source_separation', 'TorchFusion', 'wildcat.pytorch', 'InstanceSegmentation_Sentinel2', 'Deep_White_Balance', 'source_separation', 'TorchFusion', 'wildcat.pytorch', 'InstanceSegmentation_Sentinel2', 'Deep_White_Balance', 'source_separation', 'TorchFusion', 'wildcat.pytorch', 'InstanceSegmentation_Sentinel2', 'Deep_White_Balance', 'source_separation', 'TorchFusion', 'wildcat.pytorch', 'InstanceSegmentation_Sentinel2', 'Deep_White_Balance', 'source_separation', 'TorchFusion', 'wildcat.pytorch', 'InstanceSegmentation_Sentinel2', 'Deep_White_Balance', 'source_separation', 'TorchFusion', 'wildcat.pytorch', 'InstanceSegmentation_Sentinel2', 'Deep_White_Balance', 'source_separation', 'TorchFusion', 'wildcat.pytorch', 'InstanceSegmentation_Sentinel2', 'Deep_White_Balance', 'source_separation', 'TorchFusion', 'wildcat.pytorch', 'InstanceSegmentation_Sentinel2', 'Deep_White_Balance', 'source_separation', 'TorchFusion', 'wildcat.pytorch', 'InstanceSegmentation_Sentinel2', 'Deep_White_Balance', 'source_separation', 'TorchFusion', 'wildcat.pytorch', 'InstanceSegmentation_Sentinel2', 'Deep_White_Balance', 'source_separation', 'TorchFusion', 'wildcat.pytorch', 'InstanceSegmentation_Sentinel2', 'Deep_White_Balance', 'source_separation', 'TorchFusion', 'wildcat.pytorch', 'InstanceSegmentation_Sentinel2', 'Deep_White_Balance', 'source_separation', 'TorchFusion', 'wildcat.pytorch', 'InstanceSegmentation_Sentinel2', 'Deep_White_Balance', 'source_separation', 'TorchFusion', 'wildcat.pytorch', 'InstanceSegmentation_Sentinel2', 'Deep_White_Balance', 'source_separation', 'TorchFusion', 'wildcat.pytorch', 'InstanceSegmentation_Sentinel2', 'Deep_White_Balance', 'source_separation', 'TorchFusion', 'wildcat.pytorch', 'InstanceSegmentation_Sentinel2', 'Deep_White_Balance', 'source_separation', 'TorchFusion', 'wildcat.pytorch', 'InstanceSegmentation_Sentinel2', 'Deep_White_Balance', 'source_separation', 'TorchFusion', 'wildcat.pytorch', 'InstanceSegmentation_Sentinel2', 'Deep_White_Balance', 'source_separation', 'TorchFusion', 'wildcat.pytorch', 'InstanceSegmentation_Sentinel2', 'Deep_White_Balance', 'source_separation', 'TorchFusion', 'wildcat.pytorch', 'InstanceSegmentation_Sentinel2', 'Deep_White_Balance', 'source_separation', 'TorchFusion', 'wildcat.pytorch', 'InstanceSegmentation_Sentinel2', 'Deep_White_Balance', 'source_separation', 'TorchFusion', 'wildcat.pytorch', 'InstanceSegmentation_Sentinel2', 'Deep_White_Balance', 'source_separation', 'TorchFusion', 'wildcat.pytorch', 'InstanceSegmentation_Sentinel2', 'Deep_White_Balance', 'source_separation', 'TorchFusion', 'wildcat.pytorch', 'InstanceSegmentation_Sentinel2', 'Deep_White_Balance', 'source_separation', 'TorchFusion', 'wildcat.pytorch', 'InstanceSegmentation_Sentinel2', 'Deep_White_Balance', 'source_separation', 'TorchFusion', 'wildcat.pytorch', 'InstanceSegmentation_Sentinel2', 'Deep_White_Balance', 'source_separation', 'TorchFusion', 'wildcat.pytorch', 'InstanceSegmentation_Sentinel2', 'Deep_White_Balance', 'source_separation', 'TorchFusion', 'wildcat.pytorch', 'InstanceSegmentation_Sentinel2', 'Deep_White_Balance', 'source_separation', 'TorchFusion', 'wildcat.pytorch', 'InstanceSegmentation_Sentinel2', 'Deep_White_Balance', 'source_separation', 'TorchFusion', 'wildcat.pytorch', 'InstanceSegmentation_Sentinel2', 'Deep_White_Balance', 'source_separation', 'TorchFusion', 'wildcat.pytorch', 'InstanceSegmentation_Sentinel2', 'Deep_White_Balance', 'source_separation', 'TorchFusion', 'wildcat.pytorch', 'InstanceSegmentation_Sentinel2', 'Deep_White_Balance', 'source_separation', 'TorchFusion', 'wildcat.pytorch', 'InstanceSegmentation_Sentinel2', 'Deep_White_Balance', 'source_separation', 'TorchFusion', 'wildcat.pytorch', 'InstanceSegmentation_Sentinel2', 'Deep_White_Balance', 'source_separation', 'TorchFusion', 'wildcat.pytorch', 'InstanceSegmentation_Sentinel2', 'Deep_White_Balance', 'source_separation', 'TorchFusion', 'wildcat.pytorch', 'InstanceSegmentation_Sentinel2', 'Deep_White_Balance', 'source_separation', 'TorchFusion', 'wildcat.pytorch', 'InstanceSegmentation_Sentinel2', 'Deep_White_Balance', 'source_separation', 'TorchFusion', 'wildcat.pytorch', 'InstanceSegmentation_Sentinel2', 'Deep_White_Balance', 'source_separation', 'TorchFusion', 'wildcat.pytorch', 'InstanceSegmentation_Sentinel2', 'Deep_White_Balance', 'source_separation', 'TorchFusion', 'wildcat.pytorch', 'InstanceSegmentation_Sentinel2', 'Deep_White_Balance', 'source_separation', 'TorchFusion', 'wildcat.pytorch', 'InstanceSegmentation_Sentinel2', 'Deep_White_Balance', 'source_separation', 'TorchFusion', 'wildcat.pytorch', 'InstanceSegmentation_Sentinel2', 'Deep_White_Balance', 'source_separation', 'TorchFusion', 'wildcat.pytorch', 'InstanceSegmentation_Sentinel2', 'Deep_White_Balance', 'source_separation', 'TorchFusion', 'wildcat.pytorch', 'InstanceSegmentation_Sentinel2']</t>
-  </si>
-  <si>
-    <t>['keras', 'caffe', 'Deep-Learning-Papers-Reading-Roadmap', 'handson-ml', 'awesome-deep-learning-papers', 'pytorch-tutorial', 'data-science-ipython-notebooks', 'fastai', 'ML-From-Scratch', 'incubator-mxnet', 'awesome-deep-learning', 'CNTK', 'Paddle', 'netron', 'Dive-into-DL-PyTorch', 'cheatsheets-ai', 'Qix', 'deeplearning4j', 'Deep-Learning-with-TensorFlow-book', 'tensor2tensor', 'Machine-Learning-Tutorials', 'd2l-en', 'ML-NLP', 'deep_learning_object_detection', 'stanford-tensorflow-tutorials', 'mit-deep-learning-book-pdf', 'nlp-tutorial', 'deep-learning-drizzle', 'tflearn', 'mit-deep-learning', 'dgl', 'caffe2', 'autokeras', 'ludwig', 'tvm', '500-AI-Machine-learning-Deep-learning-Computer-vision-NLP-Projects-with-code', 'text_classification', 'tensorlayer', 'awesome-object-detection', 'trax', 'DeepLearning', 'deep-learning-coursera', 'models', 'MNN', 'DeepLearningFlappyBird', 'deepo', 'DeepSpeed', 'Paddle-Lite', 'chainer', 'h2o-3', 'DeepCTR', 'annotated_deep_learning_paper_implementations', 'pytorch-Deep-Learning', 'DeepPavlov', 'MMdnn', 'tiny-dnn', 'TTS', 'TopDeepLearning', 'machine-learning-mindmap', 'deep-learning-for-image-processing', 'keras-rl', 'jetson-inference', 'stanford-cs-230-deep-learning', 'introtodeeplearning', 'ASRT_SpeechRecognition', 'pwnagotchi', 'Stock-Prediction-Models', 'TensorRT', 'DeepLearning.ai-Summary', 'mace', 'tensorspace', 'AidLearning-FrameWork', 'deep-learning-v2-pytorch', 'neurojs', 'Ai-Learn', 'DeepLearningProject', 'VisualDL', 'DeepLearningZeroToAll', 'deep-learning-roadmap', 't81_558_deep_learning', 'DIGITS', 'tianshou', 'deep-reinforcement-learning', 'DeepLearning', 'einops', 'neon', 'pytorch-metric-learning', 'd2l-pytorch', 'Hub', 'Deep-Learning-Interview-Book', 'DALI', 'deep-high-resolution-net.pytorch', 'pointnet', 'graph-based-deep-learning-literature', 'Dive-into-DL-TensorFlow2.0', 'tensorrtx', 'Production-Level-Deep-Learning', 'Reinforcement-Learning', 'deepchem', 'Deep_reinforcement_learning_Course', 'TNN', 'Deep-Learning-Roadmap', 'Deep-Learning-in-Production', 'deep-learning-papers', 'deep-person-reid', 'ArtLine', 'deep-learning-model-convertor', 'dlwpt-code', 'Artificial-Intelligence-Deep-Learning-Machine-Learning-Tutorials', 'DeepLearning', 'LiteratureDL4Graph', 'open_model_zoo', 'deep-learning-keras-tensorflow', 'TTS', 'DeepQA', 'catalyst', 'oneflow', 'kaolin', 'MachineLearningNotebooks', 'deepjazz', 'nlp-architect', 'deep-learning-book', 'euler', 'layout-parser', 'deep-text-recognition-benchmark', 'pytorch-a2c-ppo-acktr-gail', 'porcupine', 'DeepLabCut', 'Deep-Learning-for-Recommendation-Systems', 'awesome-deeplearning-resources', 'interactive-deep-colorization', 'awesome-satellite-imagery-datasets', 'thinc', 'luminoth', 'singa', 'imgclsmob', 'TensorFlow-and-DeepLearning-Tutorial', 'gluon-api', 'Girls-In-AI', 'deepdetect', 'awesome-deep-text-detection-recognition', 'code-of-learn-deep-learning-with-pytorch', 'DouZero', 'djl', 'awesome-deep-learning-music', 'pointnet2', 'DeepRL-Agents', 'tensorflow-speech-recognition', 'zhusuan', 'deep-learning-with-keras-notebooks', 'kcws', 'awesome-image-classification', 'ICCV2019-LearningToPaint', 'Deep-Learning-with-PyTorch-Tutorials', 'satellite-image-deep-learning', 'Deep-Learning-for-Tracking-and-Detection', 'turkce-yapay-zeka-kaynaklari', 'tensorflow_template_application', 'practical-machine-learning-with-python', 'benchm-ml', 'Deep-reinforcement-learning-with-pytorch', 'tensorflow-deep-learning', 'tinyflow', 'DeepLearningImplementations', 'Awesome-AutoDL', 'deepschool.io', 'DeepLearningForNLPInPytorch', 'DeepLearn', 'tensorflow-1.4-billion-password-analysis', 'ml-surveys', 'www.mlcompendium.com', 'NLP-Models-Tensorflow', 'DeepCTR-Torch', 'DeepRecommender', 'Papers-Literature-ML-DL-RL-AI', 'torch-points3d', 'bulbea', 'DeepLearning_tutorials', 'ios-learning-materials', 'deep-rl-tensorflow', 'determined', 'HyperLandmark', 'SparrowRecSys', 'BerryNet', 'deeptraffic', 'elephas', 'ML', 'CADL', 'delta', 'Awesome-Deep-Learning-Resources', 'chainercv', 'GDLnotes', 'Top-Deep-Learning', 'raster-vision', 'ElegantRL', 'grenade', 'Deep-Learning-for-Medical-Applications', 'deeplearning-mindmap', 'DeepAA', 'Knet.jl', 'Neural-Networks-on-Silicon', 'Deep-learning-with-cats', 'DeepMoji', 'AutoDL-Projects', 'deep-learning-time-series', 'dcgan-completion.tensorflow', 'petastorm', 'Getting-Things-Done-with-Pytorch', 'DLTK', 'Deep3DFaceReconstruction', 'distribution-is-all-you-need', 'Rainbow', 'noreward-rl', 'lectures-labs', 'dl-colab-notebooks', 'Interactive_Tools', 'torchio', 'AI-Chip', 'dl-visuals', 'deep-review', 'Personae', 'deep-head-pose', 'nlp_overview', 'Repo-2017', 'Advanced-Deep-Learning-with-Keras', 'fastai_deeplearn_part1', 'Deep-Tutorials-for-PyTorch', 'SoTA-Point-Cloud', 'Face-Mask-Detection', 'deep-q-learning', 'Research', 'DFace', 'Deep-Learning', 'fsdl-text-recognizer-project', 'DeepRec', 'awesome-DeepLearning', 'text_renderer', 'ILearnDeepLearning.py', 'DnCNN', 'chainerrl', 'tsai', 'Deep-Learning-Book-Chapter-Summaries', 'DeepAudioClassification', 'SLM-Lab', 'DLInterview', 'service-streamer', 'morph-net', 'awesome-ai-ml-dl', 'PyRetri', 'Deep-Learning-TensorFlow', 'yt-channels-DS-AI-ML-CS', 'DIG', 'pytorch-a3c', 'dl-4-tsc', 'AutoDL', 'ktrain', 'Deep-Reinforcement-Learning-for-Automated-Stock-Trading-Ensemble-Strategy-ICAIF-2020', 'variational-autoencoder', 'Deep-Learning-Experiments', 'DL-workshop-series', 'Arraymancer', 'neuropod', 'NYU-DLSP21', 'cogdl', 'hivemind', 'RecSys2019_DeepLearning_Evaluation', 'Andrew-Ng-Deep-Learning-notes', 'btgym', 'deep-motion-editing', 'DeepTables', 'gans-in-action', 'DeepRL-Tutorials', 'STT', 'DeepCamera', 'torchMoji', 'MedicalZooPytorch', 'AdderNet', 'labml', 'kur', 'Coloring-greyscale-images', 'Deep-Learning-Project-Template', 'cifar-10-cnn', 'BMW-TensorFlow-Training-GUI', 'decord', 'flow-forecast', 'swift-apis', 'Speech-Emotion-Analyzer', 'pytorch-rl', 'awesome-deep-trading', 'deep-ctr-prediction', 'deep_learning_and_the_game_of_go', 'PassGAN', 'awesome-tensor-compilers', 'HRNet-Facial-Landmark-Detection', 'Hyperparameter-Optimization-of-Machine-Learning-Algorithms', 'DeepLearning.scala', 'PyTorch-RL', 'tensorflow-tutorial', 'tensorflow-101', 'pysc2-examples', 'deepforge', 'deepxde', 'course-gitbook', 'intro-to-dl', 'Text-Classification-Pytorch', 'tez', '3D-convolutional-speaker-recognition', 'Deep_Metric', 'RLSeq2Seq', 'AI-Series', 'Deep-Learning-For-Hackers', 'Hands-On-Reinforcement-Learning-With-Python', 'DL-NLP-Readings', 'pytorch-widedeep', 'coursera-deep-learning-specialization', 'DSOD', 'KotlinDL', 'DeepJ', 'ufldl_tutorial', 'china-dictatorship', 'course20', 'deep-learning-guide', 'CS224n', 'food-101-keras', 'neoml', 'TonY', 'FfDL', 'deepmd-kit', 'dcscn-super-resolution', 'NeuralDialogPapers', 'RedisAI', 'bolt', 'interview-questions', 'elasticdl', 'Deep-Learning-with-PyTorch-Chinese', 'awesome-neural-ode', 'deep-trading-agent', 'dll', 'deep-learning-from-scratch', 'dist-keras', 'bdl-benchmarks', 'mario-ai', 'music-generation-with-DL', 'visual-pushing-grasping', 'webdataset', 'libxsmm', 'BMW-YOLOv4-Training-Automation', 'async_deep_reinforce', 'awesome-emdl', 'Emotion-detection', 'How-to-learn-Deep-Learning', 'CryptocurrencyPrediction', 'Trending-Deep-Learning', 'papers', 'VTuber_Unity', 'notebooks', 'SiamTrackers', 'cleanrl', 'faced', 'Awesome-Cybersecurity-Datasets', 'alfred', 'music_recommender', 'Learning-Deep-Learning', 'TF-Tutorials', 'deep-learning-book', 'dlwin', 'reaver', 'awesome_deep_learning_interpretability', 'Awsome-Deep-Learning-for-Video-Analysis', 'deepsvg', 'Practical-Deep-Learning-Book', 'autonomous-learning-library', 'chainer-chemistry', 'PaddleVideo', 'Deep-Metric-Learning-Baselines', 'T2F', 'deep-learning-bitcoin', 'Deep-Learning-In-Production', 'blitz-bayesian-deep-learning', 'UCR_Time_Series_Classification_Deep_Learning_Baseline', 'monk_v1', 'IRCNN', 'Awesome-Image-Colorization', 'deep-learning-resources', 'TASO', 'doctr', 'sktime-dl', 'SOD-CNNs-based-code-summary-', 'NeuralPDE.jl', 'DeepPurpose', 'Neuraxle', 'pytorch_tabular', 'Forward', 'rl-portfolio-management', 'Federated-Learning-PyTorch', 'reinforcement-learning-algorithms', 'Fast-SRGAN', 'torch-light', 'deep-learning-traffic-lights', 'DeepHash', 'Urban-Sound-Classification', 'Adlik', 'X2Paddle', 'Dataset_Synthesizer', 'hedwig', 'crypto-rl', 'PyTorch', 'DeepDarkFantasy', 'code_search', 'deer', 'torchdistill', 'deep-transfer-learning', 'Deep-Learning-Paper-Review-and-Practice', 'rhino', 'bayes-nn', 'deep-learning-from-scratch-3', 'deep-learning-wizard', 'ReID-Survey', 'awesome-very-deep-learning', 'Sequence-Semantic-Embedding', 'Daily-DeepLearning', 'deepstock', 'Deep-Learning-Machine-Learning-Stock', 'deepdow', 'octnet', 'NLP_Quickbook', 'pvcnn', 'nncase', 'Deep-Learning-NLP', '3D-Deepbox', 'Change-Detection-Review', 'Flappy-bird-deep-Q-learning-pytorch', 'Deep-learning-in-cloud', 'cheetah', 'Deep-Reinforcement-Learning-Survey', 'deep_learning_NLP', 'cn-deep-learning', 'DeepLearningProjectWorkflow', 'DeepPath', 'huskarl', 'OpenChem', 'FastAI.jl', 'DeepRL-TensorFlow2', 'dl_tutorials_10weeks', 'detection-2016-nipsws', 'interactive-machine-learning-list', 'fire-detection-cnn', 'bayesian-neural-network-blogpost', 'pytorch-rl', 'natural-language-processing', 'deep-learning-uncertainty', 'First-steps-towards-Deep-Learning', 'trading-bot', 'ConvNetSharp', 'pulp-dronet', 'spotty', 'DRBox', 'megvii-pku-dl-course', 'd3rlpy', 'ColossalAI', 'gdrl', 'deep-learning-localization-mapping', 'OpenLearning4DeepRecsys', 'deep_rl', 'useR-machine-learning-tutorial', 'Deep-Learning-Tricks', 'RMDL', 'Easy-deep-learning-with-Keras', 'DeepTraffic', 'Coursera-Deep-Learning-deeplearning.ai', 'deep-learning-nano-foundation', 'InnerEye-DeepLearning', 'pcam', '3D-Reconstruction-with-Deep-Learning-Methods', 'yoloface', 'irl-imitation', 'tf_chatbot_seq2seq_antilm', 'RL-Chatbot', 'tensorboard', 'Basic-Mathematics-for-Machine-Learning', 'DeepXi', 'onyx', 'Tetris-deep-Q-learning-pytorch', 'pycadl', 'deepsnap', 'magnet', 'SiaNet', 'torch-audiomentations', 'carefree-learn', 'Emotion', 'artificio', 'deep-active-learning', 'tflite_gles_app', 'Deep-Learning', 'flowpoints_ml', 'awesome-computer-vision-models', 'powerful-benchmarker', 'qkeras', 'Ensemble-Pytorch', 'pytorch-vsumm-reinforce', 'pytorch-nlp-notebooks', 'SODsurvey', 'rl4j', 'DeepReg', 'Audio-Classification', '300Days__MachineLearningDeepLearning', 'NLP101', 'PaddleHelix', 'jeelizAR', 'deepC', 'tensorflow-resources', 'hyperboard', 'DeepLearningNotes', 'CNTK-World', 'awesome-ehr-deeplearning', 'CodeFun', 'pyvarinf', 'torchsat', 'dlcampjeju', 'amazon-rekognition-video-analyzer', 'deep-diamond', 'deepkit-ml', 'CrowdNav', 'delft', 'models', 'dliss-tutorial', 'handful-of-trials', 'framework-determinism', 'vime', 'Depth-VO-Feat', 'DnCNN-tensorflow', 'keras-multiprocess-image-data-generator', 'norse', 'DeepHash-Papers', 'tensorflow-image-detection', 'Awesome-Distributed-Deep-Learning', 'Speech-enhancement', 'pytorch-dqn', 'sednn', 'EEG-DL', 'deep-learning-containers', 'BitcoinForecast', 'Xvision', 'BayesianDeepLearning-Survey', 'LanczosNetwork', 'uvadlc_notebooks', 'thinking-in-tensors-writing-in-pytorch', 'AgentNet', 'DeepPoseKit', 'awesome-deep-rl', 'deepnet', 'tensorflow-gpu-install-ubuntu-16.04', 'selene', 'elegy', 'deep-learning-nlp-rl-papers', 'Hands-On-Deep-Learning-Algorithms-with-Python', 'MyDeepLearning', 'rlgraph', 'Deep-Reinforcement-Learning-Algorithms', 'deep-rl', 'pytorch-DRL', 'MusicGenerator', 'DeepPiCar', 'Time-series---deep-learning---state-of-the-art', 'DeepLearningWithTF2.0', 'DREAMPlace', 'L2C', 'Jupyter', 'Car-Recognition', 'ChangeDetectionRepository', 'ros_robotics_projects', 'Deep-Learning-From-Scratch', 'GuitarLSTM', 'tensor', 'ChangeDetectionRepository', 'ros_robotics_projects', 'Deep-Learning-From-Scratch', 'GuitarLSTM', 'tensor', 'ChangeDetectionRepository', 'ros_robotics_projects', 'Deep-Learning-From-Scratch', 'GuitarLSTM', 'tensor', 'ChangeDetectionRepository', 'ros_robotics_projects', 'Deep-Learning-From-Scratch', 'GuitarLSTM', 'tensor', 'ChangeDetectionRepository', 'ros_robotics_projects', 'Deep-Learning-From-Scratch', 'GuitarLSTM', 'tensor', 'ChangeDetectionRepository', 'ros_robotics_projects', 'Deep-Learning-From-Scratch', 'GuitarLSTM', 'tensor', 'ChangeDetectionRepository', 'ros_robotics_projects', 'Deep-Learning-From-Scratch', 'GuitarLSTM', 'tensor', 'ChangeDetectionRepository', 'ros_robotics_projects', 'Deep-Learning-From-Scratch', 'GuitarLSTM', 'tensor', 'ChangeDetectionRepository', 'ros_robotics_projects', 'Deep-Learning-From-Scratch', 'GuitarLSTM', 'tensor', 'ChangeDetectionRepository', 'ros_robotics_projects', 'Deep-Learning-From-Scratch', 'GuitarLSTM', 'tensor', 'ChangeDetectionRepository', 'ros_robotics_projects', 'Deep-Learning-From-Scratch', 'GuitarLSTM', 'tensor', 'ChangeDetectionRepository', 'ros_robotics_projects', 'Deep-Learning-From-Scratch', 'GuitarLSTM', 'tensor', 'ChangeDetectionRepository', 'ros_robotics_projects', 'Deep-Learning-From-Scratch', 'GuitarLSTM', 'tensor', 'ChangeDetectionRepository', 'ros_robotics_projects', 'Deep-Learning-From-Scratch', 'GuitarLSTM', 'tensor', 'ChangeDetectionRepository', 'ros_robotics_projects', 'Deep-Learning-From-Scratch', 'GuitarLSTM', 'tensor', 'ChangeDetectionRepository', 'ros_robotics_projects', 'Deep-Learning-From-Scratch', 'GuitarLSTM', 'tensor', 'ChangeDetectionRepository', 'ros_robotics_projects', 'Deep-Learning-From-Scratch', 'GuitarLSTM', 'tensor', 'ChangeDetectionRepository', 'ros_robotics_projects', 'Deep-Learning-From-Scratch', 'GuitarLSTM', 'tensor', 'ChangeDetectionRepository', 'ros_robotics_projects', 'Deep-Learning-From-Scratch', 'GuitarLSTM', 'tensor', 'ChangeDetectionRepository', 'ros_robotics_projects', 'Deep-Learning-From-Scratch', 'GuitarLSTM', 'tensor', 'ChangeDetectionRepository', 'ros_robotics_projects', 'Deep-Learning-From-Scratch', 'GuitarLSTM', 'tensor', 'ChangeDetectionRepository', 'ros_robotics_projects', 'Deep-Learning-From-Scratch', 'GuitarLSTM', 'tensor', 'ChangeDetectionRepository', 'ros_robotics_projects', 'Deep-Learning-From-Scratch', 'GuitarLSTM', 'tensor', 'ChangeDetectionRepository', 'ros_robotics_projects', 'Deep-Learning-From-Scratch', 'GuitarLSTM', 'tensor', 'ChangeDetectionRepository', 'ros_robotics_projects', 'Deep-Learning-From-Scratch', 'GuitarLSTM', 'tensor', 'ChangeDetectionRepository', 'ros_robotics_projects', 'Deep-Learning-From-Scratch', 'GuitarLSTM', 'tensor', 'ChangeDetectionRepository', 'ros_robotics_projects', 'Deep-Learning-From-Scratch', 'GuitarLSTM', 'tensor', 'ChangeDetectionRepository', 'ros_robotics_projects', 'Deep-Learning-From-Scratch', 'GuitarLSTM', 'tensor', 'ChangeDetectionRepository', 'ros_robotics_projects', 'Deep-Learning-From-Scratch', 'GuitarLSTM', 'tensor', 'ChangeDetectionRepository', 'ros_robotics_projects', 'Deep-Learning-From-Scratch', 'GuitarLSTM', 'tensor', 'ChangeDetectionRepository', 'ros_robotics_projects', 'Deep-Learning-From-Scratch', 'GuitarLSTM', 'tensor', 'ChangeDetectionRepository', 'ros_robotics_projects', 'Deep-Learning-From-Scratch', 'GuitarLSTM', 'tensor', 'ChangeDetectionRepository', 'ros_robotics_projects', 'Deep-Learning-From-Scratch', 'GuitarLSTM', 'tensor', 'ChangeDetectionRepository', 'ros_robotics_projects', 'Deep-Learning-From-Scratch', 'GuitarLSTM', 'tensor', 'ChangeDetectionRepository', 'ros_robotics_projects', 'Deep-Learning-From-Scratch', 'GuitarLSTM', 'tensor', 'ChangeDetectionRepository', 'ros_robotics_projects', 'Deep-Learning-From-Scratch', 'GuitarLSTM', 'tensor', 'ChangeDetectionRepository', 'ros_robotics_projects', 'Deep-Learning-From-Scratch', 'GuitarLSTM', 'tensor', 'ChangeDetectionRepository', 'ros_robotics_projects', 'Deep-Learning-From-Scratch', 'GuitarLSTM', 'tensor', 'ChangeDetectionRepository', 'ros_robotics_projects', 'Deep-Learning-From-Scratch', 'GuitarLSTM', 'tensor', 'ChangeDetectionRepository', 'ros_robotics_projects', 'Deep-Learning-From-Scratch', 'GuitarLSTM', 'tensor', 'ChangeDetectionRepository', 'ros_robotics_projects', 'Deep-Learning-From-Scratch', 'GuitarLSTM', 'tensor', 'ChangeDetectionRepository', 'ros_robotics_projects', 'Deep-Learning-From-Scratch', 'GuitarLSTM', 'tensor', 'ChangeDetectionRepository', 'ros_robotics_projects', 'Deep-Learning-From-Scratch', 'GuitarLSTM', 'tensor', 'ChangeDetectionRepository', 'ros_robotics_projects', 'Deep-Learning-From-Scratch', 'GuitarLSTM', 'tensor', 'ChangeDetectionRepository', 'ros_robotics_projects', 'Deep-Learning-From-Scratch', 'GuitarLSTM', 'tensor', 'ChangeDetectionRepository', 'ros_robotics_projects', 'Deep-Learning-From-Scratch', 'GuitarLSTM', 'tensor', 'ChangeDetectionRepository', 'ros_robotics_projects', 'Deep-Learning-From-Scratch', 'GuitarLSTM', 'tensor', 'ChangeDetectionRepository', 'ros_robotics_projects', 'Deep-Learning-From-Scratch', 'GuitarLSTM', 'tensor', 'ChangeDetectionRepository', 'ros_robotics_projects', 'Deep-Learning-From-Scratch', 'GuitarLSTM', 'tensor', 'ChangeDetectionRepository', 'ros_robotics_projects', 'Deep-Learning-From-Scratch', 'GuitarLSTM', 'tensor', 'ChangeDetectionRepository', 'ros_robotics_projects', 'Deep-Learning-From-Scratch', 'GuitarLSTM', 'tensor', 'ChangeDetectionRepository', 'ros_robotics_projects', 'Deep-Learning-From-Scratch', 'GuitarLSTM', 'tensor', 'ChangeDetectionRepository', 'ros_robotics_projects', 'Deep-Learning-From-Scratch', 'GuitarLSTM', 'tensor', 'ChangeDetectionRepository', 'ros_robotics_projects', 'Deep-Learning-From-Scratch', 'GuitarLSTM', 'tensor', 'ChangeDetectionRepository', 'ros_robotics_projects', 'Deep-Learning-From-Scratch', 'GuitarLSTM', 'tensor', 'ChangeDetectionRepository', 'ros_robotics_projects', 'Deep-Learning-From-Scratch', 'GuitarLSTM', 'tensor', 'ChangeDetectionRepository', 'ros_robotics_projects', 'Deep-Learning-From-Scratch', 'GuitarLSTM', 'tensor', 'ChangeDetectionRepository', 'ros_robotics_projects', 'Deep-Learning-From-Scratch', 'GuitarLSTM', 'tensor', 'ChangeDetectionRepository', 'ros_robotics_projects', 'Deep-Learning-From-Scratch', 'GuitarLSTM', 'tensor', 'ChangeDetectionRepository', 'ros_robotics_projects', 'Deep-Learning-From-Scratch', 'GuitarLSTM', 'tensor', 'ChangeDetectionRepository', 'ros_robotics_projects', 'Deep-Learning-From-Scratch', 'GuitarLSTM', 'tensor', 'ChangeDetectionRepository', 'ros_robotics_projects', 'Deep-Learning-From-Scratch', 'GuitarLSTM', 'tensor', 'ChangeDetectionRepository', 'ros_robotics_projects', 'Deep-Learning-From-Scratch', 'GuitarLSTM', 'tensor', 'ChangeDetectionRepository', 'ros_robotics_projects', 'Deep-Learning-From-Scratch', 'GuitarLSTM', 'tensor', 'ChangeDetectionRepository', 'ros_robotics_projects', 'Deep-Learning-From-Scratch', 'GuitarLSTM', 'tensor', 'ChangeDetectionRepository', 'ros_robotics_projects', 'Deep-Learning-From-Scratch', 'GuitarLSTM', 'tensor', 'ChangeDetectionRepository', 'ros_robotics_projects', 'Deep-Learning-From-Scratch', 'GuitarLSTM', 'tensor', 'ChangeDetectionRepository', 'ros_robotics_projects', 'Deep-Learning-From-Scratch', 'GuitarLSTM', 'tensor', 'ChangeDetectionRepository', 'ros_robotics_projects', 'Deep-Learning-From-Scratch', 'GuitarLSTM', 'tensor', 'ChangeDetectionRepository', 'ros_robotics_projects', 'Deep-Learning-From-Scratch', 'GuitarLSTM', 'tensor', 'ChangeDetectionRepository', 'ros_robotics_projects', 'Deep-Learning-From-Scratch', 'GuitarLSTM', 'tensor', 'ChangeDetectionRepository', 'ros_robotics_projects', 'Deep-Learning-From-Scratch', 'GuitarLSTM', 'tensor', 'ChangeDetectionRepository', 'ros_robotics_projects', 'Deep-Learning-From-Scratch', 'GuitarLSTM', 'tensor', 'ChangeDetectionRepository', 'ros_robotics_projects', 'Deep-Learning-From-Scratch', 'GuitarLSTM', 'tensor', 'ChangeDetectionRepository', 'ros_robotics_projects', 'Deep-Learning-From-Scratch', 'GuitarLSTM', 'tensor', 'ChangeDetectionRepository', 'ros_robotics_projects', 'Deep-Learning-From-Scratch', 'GuitarLSTM', 'tensor', 'ChangeDetectionRepository', 'ros_robotics_projects', 'Deep-Learning-From-Scratch', 'GuitarLSTM', 'tensor', 'ChangeDetectionRepository', 'ros_robotics_projects', 'Deep-Learning-From-Scratch', 'GuitarLSTM', 'tensor', 'ChangeDetectionRepository', 'ros_robotics_projects', 'Deep-Learning-From-Scratch', 'GuitarLSTM', 'tensor', 'ChangeDetectionRepository', 'ros_robotics_projects', 'Deep-Learning-From-Scratch', 'GuitarLSTM', 'tensor', 'ChangeDetectionRepository', 'ros_robotics_projects', 'Deep-Learning-From-Scratch', 'GuitarLSTM', 'tensor', 'ChangeDetectionRepository', 'ros_robotics_projects', 'Deep-Learning-From-Scratch', 'GuitarLSTM', 'tensor', 'ChangeDetectionRepository', 'ros_robotics_projects', 'Deep-Learning-From-Scratch', 'GuitarLSTM', 'tensor', 'ChangeDetectionRepository', 'ros_robotics_projects', 'Deep-Learning-From-Scratch', 'GuitarLSTM', 'tensor', 'ChangeDetectionRepository', 'ros_robotics_projects', 'Deep-Learning-From-Scratch', 'GuitarLSTM', 'tensor', 'ChangeDetectionRepository', 'ros_robotics_projects', 'Deep-Learning-From-Scratch', 'GuitarLSTM', 'tensor', 'ChangeDetectionRepository', 'ros_robotics_projects', 'Deep-Learning-From-Scratch', 'GuitarLSTM', 'tensor', 'ChangeDetectionRepository', 'ros_robotics_projects', 'Deep-Learning-From-Scratch', 'GuitarLSTM', 'tensor', 'ChangeDetectionRepository', 'ros_robotics_projects', 'Deep-Learning-From-Scratch', 'GuitarLSTM', 'tensor', 'ChangeDetectionRepository', 'ros_robotics_projects', 'Deep-Learning-From-Scratch', 'GuitarLSTM', 'tensor', 'ChangeDetectionRepository', 'ros_robotics_projects', 'Deep-Learning-From-Scratch', 'GuitarLSTM', 'tensor']</t>
-  </si>
-  <si>
-    <t>['MIScnn', 'dawn-bench-entries', 'ravens', 'MatrixSlow', 'GeometricFlux.jl', 'LightNet', 'blueoil', 'PokerRL', 'MIScnn', 'dawn-bench-entries', 'ravens', 'MatrixSlow', 'GeometricFlux.jl', 'LightNet', 'blueoil', 'PokerRL', 'MIScnn', 'dawn-bench-entries', 'ravens', 'MatrixSlow', 'GeometricFlux.jl', 'LightNet', 'blueoil', 'PokerRL', 'MIScnn', 'dawn-bench-entries', 'ravens', 'MatrixSlow', 'GeometricFlux.jl', 'LightNet', 'blueoil', 'PokerRL', 'MIScnn', 'dawn-bench-entries', 'ravens', 'MatrixSlow', 'GeometricFlux.jl', 'LightNet', 'blueoil', 'PokerRL', 'GraphSAINT', 'MIScnn', 'dawn-bench-entries', 'ravens', 'MatrixSlow', 'GeometricFlux.jl', 'LightNet', 'blueoil', 'PokerRL', 'MIScnn', 'dawn-bench-entries', 'ravens', 'MatrixSlow', 'GeometricFlux.jl', 'LightNet', 'blueoil', 'PokerRL', 'MIScnn', 'dawn-bench-entries', 'ravens', 'MatrixSlow', 'GeometricFlux.jl', 'LightNet', 'blueoil', 'PokerRL', 'GraphSAINT', 'MIScnn', 'dawn-bench-entries', 'ravens', 'MatrixSlow', 'GeometricFlux.jl', 'LightNet', 'blueoil', 'PokerRL', 'MIScnn', 'dawn-bench-entries', 'ravens', 'MatrixSlow', 'GeometricFlux.jl', 'LightNet', 'blueoil', 'PokerRL', 'MIScnn', 'dawn-bench-entries', 'ravens', 'MatrixSlow', 'GeometricFlux.jl', 'LightNet', 'blueoil', 'PokerRL', 'MIScnn', 'dawn-bench-entries', 'ravens', 'MatrixSlow', 'GeometricFlux.jl', 'LightNet', 'blueoil', 'PokerRL', 'MIScnn', 'dawn-bench-entries', 'ravens', 'MatrixSlow', 'GeometricFlux.jl', 'LightNet', 'blueoil', 'PokerRL', 'MIScnn', 'dawn-bench-entries', 'ravens', 'MatrixSlow', 'GeometricFlux.jl', 'LightNet', 'blueoil', 'PokerRL', 'MIScnn', 'dawn-bench-entries', 'ravens', 'MatrixSlow', 'GeometricFlux.jl', 'LightNet', 'blueoil', 'PokerRL', 'GraphSAINT', 'MIScnn', 'dawn-bench-entries', 'ravens', 'MatrixSlow', 'GeometricFlux.jl', 'LightNet', 'blueoil', 'PokerRL', 'GraphSAINT', 'MIScnn', 'dawn-bench-entries', 'ravens', 'MatrixSlow', 'GeometricFlux.jl', 'LightNet', 'blueoil', 'PokerRL', 'GraphSAINT', 'MIScnn', 'dawn-bench-entries', 'ravens', 'MatrixSlow', 'GeometricFlux.jl', 'LightNet', 'blueoil', 'PokerRL', 'MIScnn', 'dawn-bench-entries', 'ravens', 'MatrixSlow', 'GeometricFlux.jl', 'LightNet', 'blueoil', 'PokerRL', 'GraphSAINT', 'MIScnn', 'dawn-bench-entries', 'ravens', 'MatrixSlow', 'GeometricFlux.jl', 'LightNet', 'blueoil', 'PokerRL', 'MIScnn', 'dawn-bench-entries', 'ravens', 'MatrixSlow', 'GeometricFlux.jl', 'LightNet', 'blueoil', 'PokerRL', 'GraphSAINT', 'MIScnn', 'dawn-bench-entries', 'ravens', 'MatrixSlow', 'GeometricFlux.jl', 'LightNet', 'blueoil', 'PokerRL', 'MIScnn', 'dawn-bench-entries', 'ravens', 'MatrixSlow', 'GeometricFlux.jl', 'LightNet', 'blueoil', 'PokerRL', 'GraphSAINT', 'MIScnn', 'dawn-bench-entries', 'ravens', 'MatrixSlow', 'GeometricFlux.jl', 'LightNet', 'blueoil', 'PokerRL', 'MIScnn', 'dawn-bench-entries', 'ravens', 'MatrixSlow', 'GeometricFlux.jl', 'LightNet', 'blueoil', 'PokerRL', 'MIScnn', 'dawn-bench-entries', 'ravens', 'MatrixSlow', 'GeometricFlux.jl', 'LightNet', 'blueoil', 'PokerRL', 'MIScnn', 'dawn-bench-entries', 'ravens', 'MatrixSlow', 'GeometricFlux.jl', 'LightNet', 'blueoil', 'PokerRL', 'MIScnn', 'dawn-bench-entries', 'ravens', 'MatrixSlow', 'GeometricFlux.jl', 'LightNet', 'blueoil', 'PokerRL', 'MIScnn', 'dawn-bench-entries', 'ravens', 'MatrixSlow', 'GeometricFlux.jl', 'LightNet', 'blueoil', 'PokerRL', 'MIScnn', 'dawn-bench-entries', 'ravens', 'MatrixSlow', 'GeometricFlux.jl', 'LightNet', 'blueoil', 'PokerRL', 'MIScnn', 'dawn-bench-entries', 'ravens', 'MatrixSlow', 'GeometricFlux.jl', 'LightNet', 'blueoil', 'PokerRL', 'GraphSAINT', 'MIScnn', 'dawn-bench-entries', 'ravens', 'MatrixSlow', 'GeometricFlux.jl', 'LightNet', 'blueoil', 'PokerRL', 'MIScnn', 'dawn-bench-entries', 'ravens', 'MatrixSlow', 'GeometricFlux.jl', 'LightNet', 'blueoil', 'PokerRL', 'MIScnn', 'dawn-bench-entries', 'ravens', 'MatrixSlow', 'GeometricFlux.jl', 'LightNet', 'blueoil', 'PokerRL', 'MIScnn', 'dawn-bench-entries', 'ravens', 'MatrixSlow', 'GeometricFlux.jl', 'LightNet', 'blueoil', 'PokerRL', 'MIScnn', 'dawn-bench-entries', 'ravens', 'MatrixSlow', 'GeometricFlux.jl', 'LightNet', 'blueoil', 'PokerRL', 'MIScnn', 'dawn-bench-entries', 'ravens', 'MatrixSlow', 'GeometricFlux.jl', 'LightNet', 'blueoil', 'PokerRL', 'MIScnn', 'dawn-bench-entries', 'ravens', 'MatrixSlow', 'GeometricFlux.jl', 'LightNet', 'blueoil', 'PokerRL', 'GraphSAINT', 'MIScnn', 'dawn-bench-entries', 'ravens', 'MatrixSlow', 'GeometricFlux.jl', 'LightNet', 'blueoil', 'PokerRL', 'MIScnn', 'dawn-bench-entries', 'ravens', 'MatrixSlow', 'GeometricFlux.jl', 'LightNet', 'blueoil', 'PokerRL', 'MIScnn', 'dawn-bench-entries', 'ravens', 'MatrixSlow', 'GeometricFlux.jl', 'LightNet', 'blueoil', 'PokerRL', 'MIScnn', 'dawn-bench-entries', 'ravens', 'MatrixSlow', 'GeometricFlux.jl', 'LightNet', 'blueoil', 'PokerRL', 'GraphSAINT', 'MIScnn', 'dawn-bench-entries', 'ravens', 'MatrixSlow', 'GeometricFlux.jl', 'LightNet', 'blueoil', 'PokerRL', 'MIScnn', 'dawn-bench-entries', 'ravens', 'MatrixSlow', 'GeometricFlux.jl', 'LightNet', 'blueoil', 'PokerRL', 'GraphSAINT', 'MIScnn', 'dawn-bench-entries', 'ravens', 'MatrixSlow', 'GeometricFlux.jl', 'LightNet', 'blueoil', 'PokerRL', 'MIScnn', 'dawn-bench-entries', 'ravens', 'MatrixSlow', 'GeometricFlux.jl', 'LightNet', 'blueoil', 'PokerRL', 'MIScnn', 'dawn-bench-entries', 'ravens', 'MatrixSlow', 'GeometricFlux.jl', 'LightNet', 'blueoil', 'PokerRL', 'GraphSAINT', 'MIScnn', 'dawn-bench-entries', 'ravens', 'MatrixSlow', 'GeometricFlux.jl', 'LightNet', 'blueoil', 'PokerRL', 'MIScnn', 'dawn-bench-entries', 'ravens', 'MatrixSlow', 'GeometricFlux.jl', 'LightNet', 'blueoil', 'PokerRL', 'MIScnn', 'dawn-bench-entries', 'ravens', 'MatrixSlow', 'GeometricFlux.jl', 'LightNet', 'blueoil', 'PokerRL', 'GraphSAINT', 'MIScnn', 'dawn-bench-entries', 'ravens', 'MatrixSlow', 'GeometricFlux.jl', 'LightNet', 'blueoil', 'PokerRL', 'MIScnn', 'dawn-bench-entries', 'ravens', 'MatrixSlow', 'GeometricFlux.jl', 'LightNet', 'blueoil', 'PokerRL', 'GraphSAINT', 'MIScnn', 'dawn-bench-entries', 'ravens', 'MatrixSlow', 'GeometricFlux.jl', 'LightNet', 'blueoil', 'PokerRL', 'MIScnn', 'dawn-bench-entries', 'ravens', 'MatrixSlow', 'GeometricFlux.jl', 'LightNet', 'blueoil', 'PokerRL', 'MIScnn', 'dawn-bench-entries', 'ravens', 'MatrixSlow', 'GeometricFlux.jl', 'LightNet', 'blueoil', 'PokerRL', 'MIScnn', 'dawn-bench-entries', 'ravens', 'MatrixSlow', 'GeometricFlux.jl', 'LightNet', 'blueoil', 'PokerRL', 'MIScnn', 'dawn-bench-entries', 'ravens', 'MatrixSlow', 'GeometricFlux.jl', 'LightNet', 'blueoil', 'PokerRL', 'MIScnn', 'dawn-bench-entries', 'ravens', 'MatrixSlow', 'GeometricFlux.jl', 'LightNet', 'blueoil', 'PokerRL', 'MIScnn', 'dawn-bench-entries', 'ravens', 'MatrixSlow', 'GeometricFlux.jl', 'LightNet', 'blueoil', 'PokerRL', 'MIScnn', 'dawn-bench-entries', 'ravens', 'MatrixSlow', 'GeometricFlux.jl', 'LightNet', 'blueoil', 'PokerRL', 'MIScnn', 'dawn-bench-entries', 'ravens', 'MatrixSlow', 'GeometricFlux.jl', 'LightNet', 'blueoil', 'PokerRL', 'MIScnn', 'dawn-bench-entries', 'ravens', 'MatrixSlow', 'GeometricFlux.jl', 'LightNet', 'blueoil', 'PokerRL', 'MIScnn', 'dawn-bench-entries', 'ravens', 'MatrixSlow', 'GeometricFlux.jl', 'LightNet', 'blueoil', 'PokerRL', 'MIScnn', 'dawn-bench-entries', 'ravens', 'MatrixSlow', 'GeometricFlux.jl', 'LightNet', 'blueoil', 'PokerRL', 'MIScnn', 'dawn-bench-entries', 'ravens', 'MatrixSlow', 'GeometricFlux.jl', 'LightNet', 'blueoil', 'PokerRL', 'MIScnn', 'dawn-bench-entries', 'ravens', 'MatrixSlow', 'GeometricFlux.jl', 'LightNet', 'blueoil', 'PokerRL', 'MIScnn', 'dawn-bench-entries', 'ravens', 'MatrixSlow', 'GeometricFlux.jl', 'LightNet', 'blueoil', 'PokerRL', 'MIScnn', 'dawn-bench-entries', 'ravens', 'MatrixSlow', 'GeometricFlux.jl', 'LightNet', 'blueoil', 'PokerRL', 'MIScnn', 'dawn-bench-entries', 'ravens', 'MatrixSlow', 'GeometricFlux.jl', 'LightNet', 'blueoil', 'PokerRL', 'MIScnn', 'dawn-bench-entries', 'ravens', 'MatrixSlow', 'GeometricFlux.jl', 'LightNet', 'blueoil', 'PokerRL', 'GraphSAINT', 'MIScnn', 'dawn-bench-entries', 'ravens', 'MatrixSlow', 'GeometricFlux.jl', 'LightNet', 'blueoil', 'PokerRL', 'MIScnn', 'dawn-bench-entries', 'ravens', 'MatrixSlow', 'GeometricFlux.jl', 'LightNet', 'blueoil', 'PokerRL', 'GraphSAINT', 'MIScnn', 'dawn-bench-entries', 'ravens', 'MatrixSlow', 'GeometricFlux.jl', 'LightNet', 'blueoil', 'PokerRL', 'MIScnn', 'dawn-bench-entries', 'ravens', 'MatrixSlow', 'GeometricFlux.jl', 'LightNet', 'blueoil', 'PokerRL', 'GraphSAINT', 'MIScnn', 'dawn-bench-entries', 'ravens', 'MatrixSlow', 'GeometricFlux.jl', 'LightNet', 'blueoil', 'PokerRL', 'MIScnn', 'dawn-bench-entries', 'ravens', 'MatrixSlow', 'GeometricFlux.jl', 'LightNet', 'blueoil', 'PokerRL', 'GraphSAINT', 'MIScnn', 'dawn-bench-entries', 'ravens', 'MatrixSlow', 'GeometricFlux.jl', 'LightNet', 'blueoil', 'PokerRL', 'GraphSAINT', 'MIScnn', 'dawn-bench-entries', 'ravens', 'MatrixSlow', 'GeometricFlux.jl', 'LightNet', 'blueoil', 'PokerRL', 'MIScnn', 'dawn-bench-entries', 'ravens', 'MatrixSlow', 'GeometricFlux.jl', 'LightNet', 'blueoil', 'PokerRL', 'MIScnn', 'dawn-bench-entries', 'ravens', 'MatrixSlow', 'GeometricFlux.jl', 'LightNet', 'blueoil', 'PokerRL', 'MIScnn', 'dawn-bench-entries', 'ravens', 'MatrixSlow', 'GeometricFlux.jl', 'LightNet', 'blueoil', 'PokerRL', 'GraphSAINT', 'MIScnn', 'dawn-bench-entries', 'ravens', 'MatrixSlow', 'GeometricFlux.jl', 'LightNet', 'blueoil', 'PokerRL', 'GraphSAINT', 'MIScnn', 'dawn-bench-entries', 'ravens', 'MatrixSlow', 'GeometricFlux.jl', 'LightNet', 'blueoil', 'PokerRL', 'MIScnn', 'dawn-bench-entries', 'ravens', 'MatrixSlow', 'GeometricFlux.jl', 'LightNet', 'blueoil', 'PokerRL', 'MIScnn', 'dawn-bench-entries', 'ravens', 'MatrixSlow', 'GeometricFlux.jl', 'LightNet', 'blueoil', 'PokerRL', 'GraphSAINT', 'MIScnn', 'dawn-bench-entries', 'ravens', 'MatrixSlow', 'GeometricFlux.jl', 'LightNet', 'blueoil', 'PokerRL', 'GraphSAINT', 'MIScnn', 'dawn-bench-entries', 'ravens', 'MatrixSlow', 'GeometricFlux.jl', 'LightNet', 'blueoil', 'PokerRL', 'MIScnn', 'dawn-bench-entries', 'ravens', 'MatrixSlow', 'GeometricFlux.jl', 'LightNet', 'blueoil', 'PokerRL', 'GraphSAINT', 'MIScnn', 'dawn-bench-entries', 'ravens', 'MatrixSlow', 'GeometricFlux.jl', 'LightNet', 'blueoil', 'PokerRL', 'GraphSAINT', 'MIScnn', 'dawn-bench-entries', 'ravens', 'MatrixSlow', 'GeometricFlux.jl', 'LightNet', 'blueoil', 'PokerRL', 'MIScnn', 'dawn-bench-entries', 'ravens', 'MatrixSlow', 'GeometricFlux.jl', 'LightNet', 'blueoil', 'PokerRL']</t>
-  </si>
-  <si>
-    <t>['atlas', 'Deep_learning_examples', 'DeepLearning-Challenges', 'gobbli', 'Good-Papers', 'seismic-deeplearning', 'DeCLUTR', 'atlas', 'Deep_learning_examples', 'DeepLearning-Challenges', 'gobbli', 'Good-Papers', 'seismic-deeplearning', 'DeCLUTR', 'atlas', 'Deep_learning_examples', 'DeepLearning-Challenges', 'gobbli', 'Good-Papers', 'seismic-deeplearning', 'DeCLUTR', 'atlas', 'Deep_learning_examples', 'DeepLearning-Challenges', 'gobbli', 'Good-Papers', 'seismic-deeplearning', 'DeCLUTR', 'atlas', 'Deep_learning_examples', 'DeepLearning-Challenges', 'gobbli', 'Good-Papers', 'seismic-deeplearning', 'DeCLUTR', 'atlas', 'Deep_learning_examples', 'DeepLearning-Challenges', 'gobbli', 'Good-Papers', 'seismic-deeplearning', 'DeCLUTR', 'atlas', 'Deep_learning_examples', 'DeepLearning-Challenges', 'gobbli', 'Good-Papers', 'seismic-deeplearning', 'DeCLUTR', 'atlas', 'Deep_learning_examples', 'DeepLearning-Challenges', 'gobbli', 'Good-Papers', 'seismic-deeplearning', 'DeCLUTR', 'atlas', 'Deep_learning_examples', 'DeepLearning-Challenges', 'gobbli', 'Good-Papers', 'seismic-deeplearning', 'DeCLUTR', 'atlas', 'Deep_learning_examples', 'DeepLearning-Challenges', 'gobbli', 'Good-Papers', 'seismic-deeplearning', 'DeCLUTR', 'atlas', 'Deep_learning_examples', 'DeepLearning-Challenges', 'gobbli', 'Good-Papers', 'seismic-deeplearning', 'DeCLUTR', 'atlas', 'Deep_learning_examples', 'DeepLearning-Challenges', 'gobbli', 'Good-Papers', 'seismic-deeplearning', 'DeCLUTR', 'atlas', 'Deep_learning_examples', 'DeepLearning-Challenges', 'gobbli', 'Good-Papers', 'seismic-deeplearning', 'DeCLUTR', 'atlas', 'Deep_learning_examples', 'DeepLearning-Challenges', 'gobbli', 'Good-Papers', 'seismic-deeplearning', 'DeCLUTR', 'atlas', 'Deep_learning_examples', 'DeepLearning-Challenges', 'gobbli', 'Good-Papers', 'seismic-deeplearning', 'DeCLUTR', 'atlas', 'Deep_learning_examples', 'DeepLearning-Challenges', 'gobbli', 'Good-Papers', 'seismic-deeplearning', 'DeCLUTR', 'atlas', 'Deep_learning_examples', 'DeepLearning-Challenges', 'gobbli', 'Good-Papers', 'seismic-deeplearning', 'DeCLUTR', 'atlas', 'Deep_learning_examples', 'DeepLearning-Challenges', 'gobbli', 'Good-Papers', 'seismic-deeplearning', 'DeCLUTR', 'atlas', 'Deep_learning_examples', 'DeepLearning-Challenges', 'gobbli', 'Good-Papers', 'seismic-deeplearning', 'DeCLUTR', 'atlas', 'Deep_learning_examples', 'DeepLearning-Challenges', 'gobbli', 'Good-Papers', 'seismic-deeplearning', 'DeCLUTR', 'atlas', 'Deep_learning_examples', 'DeepLearning-Challenges', 'gobbli', 'Good-Papers', 'seismic-deeplearning', 'DeCLUTR', 'atlas', 'Deep_learning_examples', 'DeepLearning-Challenges', 'gobbli', 'Good-Papers', 'seismic-deeplearning', 'DeCLUTR', 'atlas', 'Deep_learning_examples', 'DeepLearning-Challenges', 'gobbli', 'Good-Papers', 'seismic-deeplearning', 'DeCLUTR', 'atlas', 'Deep_learning_examples', 'DeepLearning-Challenges', 'gobbli', 'Good-Papers', 'seismic-deeplearning', 'DeCLUTR', 'atlas', 'Deep_learning_examples', 'DeepLearning-Challenges', 'gobbli', 'Good-Papers', 'seismic-deeplearning', 'DeCLUTR', 'atlas', 'Deep_learning_examples', 'DeepLearning-Challenges', 'gobbli', 'Good-Papers', 'seismic-deeplearning', 'DeCLUTR', 'atlas', 'Deep_learning_examples', 'DeepLearning-Challenges', 'gobbli', 'Good-Papers', 'seismic-deeplearning', 'DeCLUTR', 'atlas', 'Deep_learning_examples', 'DeepLearning-Challenges', 'gobbli', 'Good-Papers', 'seismic-deeplearning', 'DeCLUTR', 'atlas', 'Deep_learning_examples', 'DeepLearning-Challenges', 'gobbli', 'Good-Papers', 'seismic-deeplearning', 'DeCLUTR', 'atlas', 'Deep_learning_examples', 'DeepLearning-Challenges', 'gobbli', 'Good-Papers', 'seismic-deeplearning', 'DeCLUTR', 'atlas', 'Deep_learning_examples', 'DeepLearning-Challenges', 'gobbli', 'Good-Papers', 'seismic-deeplearning', 'DeCLUTR', 'atlas', 'Deep_learning_examples', 'DeepLearning-Challenges', 'gobbli', 'Good-Papers', 'seismic-deeplearning', 'DeCLUTR', 'atlas', 'Deep_learning_examples', 'DeepLearning-Challenges', 'gobbli', 'Good-Papers', 'seismic-deeplearning', 'DeCLUTR', 'atlas', 'Deep_learning_examples', 'DeepLearning-Challenges', 'gobbli', 'Good-Papers', 'seismic-deeplearning', 'DeCLUTR', 'atlas', 'Deep_learning_examples', 'DeepLearning-Challenges', 'gobbli', 'Good-Papers', 'seismic-deeplearning', 'DeCLUTR', 'atlas', 'Deep_learning_examples', 'DeepLearning-Challenges', 'gobbli', 'Good-Papers', 'seismic-deeplearning', 'DeCLUTR', 'atlas', 'Deep_learning_examples', 'DeepLearning-Challenges', 'gobbli', 'Good-Papers', 'seismic-deeplearning', 'DeCLUTR', 'atlas', 'Deep_learning_examples', 'DeepLearning-Challenges', 'gobbli', 'Good-Papers', 'seismic-deeplearning', 'DeCLUTR', 'atlas', 'Deep_learning_examples', 'DeepLearning-Challenges', 'gobbli', 'Good-Papers', 'seismic-deeplearning', 'DeCLUTR', 'atlas', 'Deep_learning_examples', 'DeepLearning-Challenges', 'gobbli', 'Good-Papers', 'seismic-deeplearning', 'DeCLUTR', 'atlas', 'Deep_learning_examples', 'DeepLearning-Challenges', 'gobbli', 'Good-Papers', 'seismic-deeplearning', 'DeCLUTR', 'atlas', 'Deep_learning_examples', 'DeepLearning-Challenges', 'gobbli', 'Good-Papers', 'seismic-deeplearning', 'DeCLUTR', 'atlas', 'Deep_learning_examples', 'DeepLearning-Challenges', 'gobbli', 'Good-Papers', 'seismic-deeplearning', 'DeCLUTR', 'atlas', 'Deep_learning_examples', 'DeepLearning-Challenges', 'gobbli', 'Good-Papers', 'seismic-deeplearning', 'DeCLUTR', 'atlas', 'Deep_learning_examples', 'DeepLearning-Challenges', 'gobbli', 'Good-Papers', 'seismic-deeplearning', 'DeCLUTR', 'atlas', 'Deep_learning_examples', 'DeepLearning-Challenges', 'gobbli', 'Good-Papers', 'seismic-deeplearning', 'DeCLUTR', 'atlas', 'Deep_learning_examples', 'DeepLearning-Challenges', 'gobbli', 'Good-Papers', 'seismic-deeplearning', 'DeCLUTR', 'atlas', 'Deep_learning_examples', 'DeepLearning-Challenges', 'gobbli', 'Good-Papers', 'seismic-deeplearning', 'DeCLUTR', 'atlas', 'Deep_learning_examples', 'DeepLearning-Challenges', 'gobbli', 'Good-Papers', 'seismic-deeplearning', 'DeCLUTR', 'atlas', 'Deep_learning_examples', 'DeepLearning-Challenges', 'gobbli', 'Good-Papers', 'seismic-deeplearning', 'DeCLUTR', 'atlas', 'Deep_learning_examples', 'DeepLearning-Challenges', 'gobbli', 'Good-Papers', 'seismic-deeplearning', 'DeCLUTR', 'atlas', 'Deep_learning_examples', 'DeepLearning-Challenges', 'gobbli', 'Good-Papers', 'seismic-deeplearning', 'DeCLUTR', 'atlas', 'Deep_learning_examples', 'DeepLearning-Challenges', 'gobbli', 'Good-Papers', 'seismic-deeplearning', 'DeCLUTR', 'atlas', 'Deep_learning_examples', 'DeepLearning-Challenges', 'gobbli', 'Good-Papers', 'seismic-deeplearning', 'DeCLUTR', 'atlas', 'Deep_learning_examples', 'DeepLearning-Challenges', 'gobbli', 'Good-Papers', 'seismic-deeplearning', 'DeCLUTR', 'atlas', 'Deep_learning_examples', 'DeepLearning-Challenges', 'gobbli', 'Good-Papers', 'seismic-deeplearning', 'DeCLUTR', 'atlas', 'Deep_learning_examples', 'DeepLearning-Challenges', 'gobbli', 'Good-Papers', 'seismic-deeplearning', 'DeCLUTR', 'atlas', 'Deep_learning_examples', 'DeepLearning-Challenges', 'gobbli', 'Good-Papers', 'seismic-deeplearning', 'DeCLUTR', 'atlas', 'Deep_learning_examples', 'DeepLearning-Challenges', 'gobbli', 'Good-Papers', 'seismic-deeplearning', 'DeCLUTR', 'atlas', 'Deep_learning_examples', 'DeepLearning-Challenges', 'gobbli', 'Good-Papers', 'seismic-deeplearning', 'DeCLUTR', 'atlas', 'Deep_learning_examples', 'DeepLearning-Challenges', 'gobbli', 'Good-Papers', 'seismic-deeplearning', 'DeCLUTR', 'atlas', 'Deep_learning_examples', 'DeepLearning-Challenges', 'gobbli', 'Good-Papers', 'seismic-deeplearning', 'DeCLUTR', 'atlas', 'Deep_learning_examples', 'DeepLearning-Challenges', 'gobbli', 'Good-Papers', 'seismic-deeplearning', 'DeCLUTR', 'atlas', 'Deep_learning_examples', 'DeepLearning-Challenges', 'gobbli', 'Good-Papers', 'seismic-deeplearning', 'DeCLUTR', 'atlas', 'Deep_learning_examples', 'DeepLearning-Challenges', 'gobbli', 'Good-Papers', 'seismic-deeplearning', 'DeCLUTR', 'atlas', 'Deep_learning_examples', 'DeepLearning-Challenges', 'gobbli', 'Good-Papers', 'seismic-deeplearning', 'DeCLUTR', 'atlas', 'Deep_learning_examples', 'DeepLearning-Challenges', 'gobbli', 'Good-Papers', 'seismic-deeplearning', 'DeCLUTR', 'atlas', 'Deep_learning_examples', 'DeepLearning-Challenges', 'gobbli', 'Good-Papers', 'seismic-deeplearning', 'DeCLUTR', 'atlas', 'Deep_learning_examples', 'DeepLearning-Challenges', 'gobbli', 'Good-Papers', 'seismic-deeplearning', 'DeCLUTR', 'atlas', 'Deep_learning_examples', 'DeepLearning-Challenges', 'gobbli', 'Good-Papers', 'seismic-deeplearning', 'DeCLUTR', 'atlas', 'Deep_learning_examples', 'DeepLearning-Challenges', 'gobbli', 'Good-Papers', 'seismic-deeplearning', 'DeCLUTR', 'atlas', 'Deep_learning_examples', 'DeepLearning-Challenges', 'gobbli', 'Good-Papers', 'seismic-deeplearning', 'DeCLUTR', 'atlas', 'Deep_learning_examples', 'DeepLearning-Challenges', 'gobbli', 'Good-Papers', 'seismic-deeplearning', 'DeCLUTR', 'atlas', 'Deep_learning_examples', 'DeepLearning-Challenges', 'gobbli', 'Good-Papers', 'seismic-deeplearning', 'DeCLUTR', 'atlas', 'Deep_learning_examples', 'DeepLearning-Challenges', 'gobbli', 'Good-Papers', 'seismic-deeplearning', 'DeCLUTR', 'atlas', 'Deep_learning_examples', 'DeepLearning-Challenges', 'gobbli', 'Good-Papers', 'seismic-deeplearning', 'DeCLUTR', 'atlas', 'Deep_learning_examples', 'DeepLearning-Challenges', 'gobbli', 'Good-Papers', 'seismic-deeplearning', 'DeCLUTR', 'atlas', 'Deep_learning_examples', 'DeepLearning-Challenges', 'gobbli', 'Good-Papers', 'seismic-deeplearning', 'DeCLUTR', 'atlas', 'Deep_learning_examples', 'DeepLearning-Challenges', 'gobbli', 'Good-Papers', 'seismic-deeplearning', 'DeCLUTR', 'atlas', 'Deep_learning_examples', 'DeepLearning-Challenges', 'gobbli', 'Good-Papers', 'seismic-deeplearning', 'DeCLUTR', 'atlas', 'Deep_learning_examples', 'DeepLearning-Challenges', 'gobbli', 'Good-Papers', 'seismic-deeplearning', 'DeCLUTR', 'atlas', 'Deep_learning_examples', 'DeepLearning-Challenges', 'gobbli', 'Good-Papers', 'seismic-deeplearning', 'DeCLUTR', 'atlas', 'Deep_learning_examples', 'DeepLearning-Challenges', 'gobbli', 'Good-Papers', 'seismic-deeplearning', 'DeCLUTR', 'atlas', 'Deep_learning_examples', 'DeepLearning-Challenges', 'gobbli', 'Good-Papers', 'seismic-deeplearning', 'DeCLUTR', 'atlas', 'Deep_learning_examples', 'DeepLearning-Challenges', 'gobbli', 'Good-Papers', 'seismic-deeplearning', 'DeCLUTR', 'atlas', 'Deep_learning_examples', 'DeepLearning-Challenges', 'gobbli', 'Good-Papers', 'seismic-deeplearning', 'DeCLUTR', 'atlas', 'Deep_learning_examples', 'DeepLearning-Challenges', 'gobbli', 'Good-Papers', 'seismic-deeplearning', 'DeCLUTR', 'atlas', 'Deep_learning_examples', 'DeepLearning-Challenges', 'gobbli', 'Good-Papers', 'seismic-deeplearning', 'DeCLUTR', 'atlas', 'Deep_learning_examples', 'DeepLearning-Challenges', 'gobbli', 'Good-Papers', 'seismic-deeplearning', 'DeCLUTR', 'atlas', 'Deep_learning_examples', 'DeepLearning-Challenges', 'gobbli', 'Good-Papers', 'seismic-deeplearning', 'DeCLUTR', 'atlas', 'Deep_learning_examples', 'DeepLearning-Challenges', 'gobbli', 'Good-Papers', 'seismic-deeplearning', 'DeCLUTR']</t>
-  </si>
-  <si>
-    <t>['mentornet', 'book_DeepLearning_in_PyTorch_Source', 'mlspace', 'DeepInfomaxPytorch', 'Deep-learning-with-Python', 'DeepResearch', 'remote-sensing-deep-learning', 'adaptdl', 'spikingjelly', 'mentornet', 'book_DeepLearning_in_PyTorch_Source', 'mlspace', 'DeepInfomaxPytorch', 'Deep-learning-with-Python', 'DeepResearch', 'remote-sensing-deep-learning', 'adaptdl', 'spikingjelly', 'mentornet', 'book_DeepLearning_in_PyTorch_Source', 'mlspace', 'DeepInfomaxPytorch', 'Deep-learning-with-Python', 'DeepResearch', 'remote-sensing-deep-learning', 'adaptdl', 'spikingjelly', 'mentornet', 'book_DeepLearning_in_PyTorch_Source', 'mlspace', 'DeepInfomaxPytorch', 'Deep-learning-with-Python', 'DeepResearch', 'remote-sensing-deep-learning', 'adaptdl', 'spikingjelly', 'mentornet', 'book_DeepLearning_in_PyTorch_Source', 'mlspace', 'DeepInfomaxPytorch', 'Deep-learning-with-Python', 'DeepResearch', 'remote-sensing-deep-learning', 'adaptdl', 'spikingjelly', 'mentornet', 'book_DeepLearning_in_PyTorch_Source', 'mlspace', 'DeepInfomaxPytorch', 'Deep-learning-with-Python', 'DeepResearch', 'remote-sensing-deep-learning', 'adaptdl', 'spikingjelly', 'mentornet', 'book_DeepLearning_in_PyTorch_Source', 'mlspace', 'DeepInfomaxPytorch', 'Deep-learning-with-Python', 'DeepResearch', 'remote-sensing-deep-learning', 'adaptdl', 'spikingjelly', 'mentornet', 'book_DeepLearning_in_PyTorch_Source', 'mlspace', 'DeepInfomaxPytorch', 'Deep-learning-with-Python', 'DeepResearch', 'adaptdl', 'spikingjelly', 'mentornet', 'book_DeepLearning_in_PyTorch_Source', 'mlspace', 'DeepInfomaxPytorch', 'Deep-learning-with-Python', 'DeepResearch', 'remote-sensing-deep-learning', 'adaptdl', 'spikingjelly', 'mentornet', 'book_DeepLearning_in_PyTorch_Source', 'mlspace', 'DeepInfomaxPytorch', 'Deep-learning-with-Python', 'DeepResearch', 'remote-sensing-deep-learning', 'adaptdl', 'spikingjelly', 'mentornet', 'book_DeepLearning_in_PyTorch_Source', 'mlspace', 'DeepInfomaxPytorch', 'Deep-learning-with-Python', 'DeepResearch', 'adaptdl', 'spikingjelly', 'mentornet', 'book_DeepLearning_in_PyTorch_Source', 'mlspace', 'DeepInfomaxPytorch', 'Deep-learning-with-Python', 'DeepResearch', 'remote-sensing-deep-learning', 'adaptdl', 'spikingjelly', 'mentornet', 'book_DeepLearning_in_PyTorch_Source', 'mlspace', 'DeepInfomaxPytorch', 'Deep-learning-with-Python', 'DeepResearch', 'adaptdl', 'spikingjelly', 'mentornet', 'book_DeepLearning_in_PyTorch_Source', 'mlspace', 'DeepInfomaxPytorch', 'Deep-learning-with-Python', 'DeepResearch', 'remote-sensing-deep-learning', 'adaptdl', 'spikingjelly', 'mentornet', 'book_DeepLearning_in_PyTorch_Source', 'mlspace', 'DeepInfomaxPytorch', 'Deep-learning-with-Python', 'DeepResearch', 'remote-sensing-deep-learning', 'adaptdl', 'spikingjelly', 'mentornet', 'book_DeepLearning_in_PyTorch_Source', 'mlspace', 'DeepInfomaxPytorch', 'Deep-learning-with-Python', 'DeepResearch', 'remote-sensing-deep-learning', 'adaptdl', 'spikingjelly', 'mentornet', 'book_DeepLearning_in_PyTorch_Source', 'mlspace', 'DeepInfomaxPytorch', 'Deep-learning-with-Python', 'DeepResearch', 'remote-sensing-deep-learning', 'adaptdl', 'spikingjelly', 'mentornet', 'book_DeepLearning_in_PyTorch_Source', 'mlspace', 'DeepInfomaxPytorch', 'Deep-learning-with-Python', 'DeepResearch', 'remote-sensing-deep-learning', 'adaptdl', 'spikingjelly', 'mentornet', 'book_DeepLearning_in_PyTorch_Source', 'mlspace', 'DeepInfomaxPytorch', 'Deep-learning-with-Python', 'DeepResearch', 'remote-sensing-deep-learning', 'adaptdl', 'spikingjelly', 'mentornet', 'book_DeepLearning_in_PyTorch_Source', 'mlspace', 'DeepInfomaxPytorch', 'Deep-learning-with-Python', 'DeepResearch', 'remote-sensing-deep-learning', 'adaptdl', 'spikingjelly', 'mentornet', 'book_DeepLearning_in_PyTorch_Source', 'mlspace', 'DeepInfomaxPytorch', 'Deep-learning-with-Python', 'DeepResearch', 'remote-sensing-deep-learning', 'adaptdl', 'spikingjelly', 'mentornet', 'book_DeepLearning_in_PyTorch_Source', 'mlspace', 'DeepInfomaxPytorch', 'Deep-learning-with-Python', 'DeepResearch', 'remote-sensing-deep-learning', 'adaptdl', 'spikingjelly', 'mentornet', 'book_DeepLearning_in_PyTorch_Source', 'mlspace', 'DeepInfomaxPytorch', 'Deep-learning-with-Python', 'DeepResearch', 'remote-sensing-deep-learning', 'adaptdl', 'spikingjelly', 'mentornet', 'book_DeepLearning_in_PyTorch_Source', 'mlspace', 'DeepInfomaxPytorch', 'Deep-learning-with-Python', 'DeepResearch', 'remote-sensing-deep-learning', 'adaptdl', 'spikingjelly', 'mentornet', 'book_DeepLearning_in_PyTorch_Source', 'mlspace', 'DeepInfomaxPytorch', 'Deep-learning-with-Python', 'DeepResearch', 'remote-sensing-deep-learning', 'adaptdl', 'spikingjelly', 'mentornet', 'book_DeepLearning_in_PyTorch_Source', 'mlspace', 'DeepInfomaxPytorch', 'Deep-learning-with-Python', 'DeepResearch', 'remote-sensing-deep-learning', 'adaptdl', 'spikingjelly', 'mentornet', 'book_DeepLearning_in_PyTorch_Source', 'mlspace', 'DeepInfomaxPytorch', 'Deep-learning-with-Python', 'DeepResearch', 'remote-sensing-deep-learning', 'adaptdl', 'spikingjelly', 'mentornet', 'book_DeepLearning_in_PyTorch_Source', 'mlspace', 'DeepInfomaxPytorch', 'Deep-learning-with-Python', 'DeepResearch', 'remote-sensing-deep-learning', 'adaptdl', 'spikingjelly', 'mentornet', 'book_DeepLearning_in_PyTorch_Source', 'mlspace', 'DeepInfomaxPytorch', 'Deep-learning-with-Python', 'DeepResearch', 'remote-sensing-deep-learning', 'adaptdl', 'spikingjelly', 'mentornet', 'book_DeepLearning_in_PyTorch_Source', 'mlspace', 'DeepInfomaxPytorch', 'Deep-learning-with-Python', 'DeepResearch', 'remote-sensing-deep-learning', 'adaptdl', 'spikingjelly', 'mentornet', 'book_DeepLearning_in_PyTorch_Source', 'mlspace', 'DeepInfomaxPytorch', 'Deep-learning-with-Python', 'DeepResearch', 'remote-sensing-deep-learning', 'adaptdl', 'spikingjelly', 'mentornet', 'book_DeepLearning_in_PyTorch_Source', 'mlspace', 'DeepInfomaxPytorch', 'Deep-learning-with-Python', 'DeepResearch', 'remote-sensing-deep-learning', 'adaptdl', 'spikingjelly', 'mentornet', 'book_DeepLearning_in_PyTorch_Source', 'mlspace', 'DeepInfomaxPytorch', 'Deep-learning-with-Python', 'DeepResearch', 'remote-sensing-deep-learning', 'adaptdl', 'spikingjelly', 'mentornet', 'book_DeepLearning_in_PyTorch_Source', 'mlspace', 'DeepInfomaxPytorch', 'Deep-learning-with-Python', 'DeepResearch', 'remote-sensing-deep-learning', 'adaptdl', 'spikingjelly', 'mentornet', 'book_DeepLearning_in_PyTorch_Source', 'mlspace', 'DeepInfomaxPytorch', 'Deep-learning-with-Python', 'DeepResearch', 'remote-sensing-deep-learning', 'adaptdl', 'spikingjelly', 'mentornet', 'book_DeepLearning_in_PyTorch_Source', 'mlspace', 'DeepInfomaxPytorch', 'Deep-learning-with-Python', 'DeepResearch', 'remote-sensing-deep-learning', 'adaptdl', 'spikingjelly', 'mentornet', 'book_DeepLearning_in_PyTorch_Source', 'mlspace', 'DeepInfomaxPytorch', 'Deep-learning-with-Python', 'DeepResearch', 'remote-sensing-deep-learning', 'adaptdl', 'spikingjelly', 'mentornet', 'book_DeepLearning_in_PyTorch_Source', 'mlspace', 'DeepInfomaxPytorch', 'Deep-learning-with-Python', 'DeepResearch', 'remote-sensing-deep-learning', 'adaptdl', 'spikingjelly', 'mentornet', 'book_DeepLearning_in_PyTorch_Source', 'mlspace', 'DeepInfomaxPytorch', 'Deep-learning-with-Python', 'DeepResearch', 'remote-sensing-deep-learning', 'adaptdl', 'spikingjelly', 'mentornet', 'book_DeepLearning_in_PyTorch_Source', 'mlspace', 'DeepInfomaxPytorch', 'Deep-learning-with-Python', 'DeepResearch', 'remote-sensing-deep-learning', 'adaptdl', 'spikingjelly', 'mentornet', 'book_DeepLearning_in_PyTorch_Source', 'mlspace', 'DeepInfomaxPytorch', 'Deep-learning-with-Python', 'DeepResearch', 'remote-sensing-deep-learning', 'adaptdl', 'spikingjelly', 'mentornet', 'book_DeepLearning_in_PyTorch_Source', 'mlspace', 'DeepInfomaxPytorch', 'Deep-learning-with-Python', 'DeepResearch', 'remote-sensing-deep-learning', 'adaptdl', 'spikingjelly', 'mentornet', 'book_DeepLearning_in_PyTorch_Source', 'mlspace', 'DeepInfomaxPytorch', 'Deep-learning-with-Python', 'DeepResearch', 'remote-sensing-deep-learning', 'adaptdl', 'spikingjelly', 'mentornet', 'book_DeepLearning_in_PyTorch_Source', 'mlspace', 'DeepInfomaxPytorch', 'Deep-learning-with-Python', 'DeepResearch', 'remote-sensing-deep-learning', 'adaptdl', 'spikingjelly', 'mentornet', 'book_DeepLearning_in_PyTorch_Source', 'mlspace', 'DeepInfomaxPytorch', 'Deep-learning-with-Python', 'DeepResearch', 'remote-sensing-deep-learning', 'adaptdl', 'spikingjelly', 'mentornet', 'book_DeepLearning_in_PyTorch_Source', 'mlspace', 'DeepInfomaxPytorch', 'Deep-learning-with-Python', 'DeepResearch', 'remote-sensing-deep-learning', 'adaptdl', 'spikingjelly', 'mentornet', 'book_DeepLearning_in_PyTorch_Source', 'mlspace', 'DeepInfomaxPytorch', 'Deep-learning-with-Python', 'DeepResearch', 'remote-sensing-deep-learning', 'adaptdl', 'spikingjelly', 'mentornet', 'book_DeepLearning_in_PyTorch_Source', 'mlspace', 'DeepInfomaxPytorch', 'Deep-learning-with-Python', 'DeepResearch', 'remote-sensing-deep-learning', 'adaptdl', 'spikingjelly', 'mentornet', 'book_DeepLearning_in_PyTorch_Source', 'mlspace', 'DeepInfomaxPytorch', 'Deep-learning-with-Python', 'DeepResearch', 'remote-sensing-deep-learning', 'adaptdl', 'spikingjelly', 'mentornet', 'book_DeepLearning_in_PyTorch_Source', 'mlspace', 'DeepInfomaxPytorch', 'Deep-learning-with-Python', 'DeepResearch', 'remote-sensing-deep-learning', 'adaptdl', 'spikingjelly', 'mentornet', 'book_DeepLearning_in_PyTorch_Source', 'mlspace', 'DeepInfomaxPytorch', 'Deep-learning-with-Python', 'DeepResearch', 'remote-sensing-deep-learning', 'adaptdl', 'spikingjelly', 'mentornet', 'book_DeepLearning_in_PyTorch_Source', 'mlspace', 'DeepInfomaxPytorch', 'Deep-learning-with-Python', 'DeepResearch', 'remote-sensing-deep-learning', 'adaptdl', 'spikingjelly', 'mentornet', 'book_DeepLearning_in_PyTorch_Source', 'mlspace', 'DeepInfomaxPytorch', 'Deep-learning-with-Python', 'DeepResearch', 'remote-sensing-deep-learning', 'adaptdl', 'spikingjelly', 'mentornet', 'book_DeepLearning_in_PyTorch_Source', 'mlspace', 'DeepInfomaxPytorch', 'Deep-learning-with-Python', 'DeepResearch', 'remote-sensing-deep-learning', 'adaptdl', 'spikingjelly', 'mentornet', 'book_DeepLearning_in_PyTorch_Source', 'mlspace', 'DeepInfomaxPytorch', 'Deep-learning-with-Python', 'DeepResearch', 'remote-sensing-deep-learning', 'adaptdl', 'spikingjelly', 'mentornet', 'book_DeepLearning_in_PyTorch_Source', 'mlspace', 'DeepInfomaxPytorch', 'Deep-learning-with-Python', 'DeepResearch', 'remote-sensing-deep-learning', 'adaptdl', 'spikingjelly', 'mentornet', 'book_DeepLearning_in_PyTorch_Source', 'mlspace', 'DeepInfomaxPytorch', 'Deep-learning-with-Python', 'DeepResearch', 'remote-sensing-deep-learning', 'adaptdl', 'spikingjelly', 'mentornet', 'book_DeepLearning_in_PyTorch_Source', 'mlspace', 'DeepInfomaxPytorch', 'Deep-learning-with-Python', 'DeepResearch', 'remote-sensing-deep-learning', 'adaptdl', 'spikingjelly', 'mentornet', 'book_DeepLearning_in_PyTorch_Source', 'mlspace', 'DeepInfomaxPytorch', 'Deep-learning-with-Python', 'DeepResearch', 'remote-sensing-deep-learning', 'adaptdl', 'spikingjelly', 'mentornet', 'book_DeepLearning_in_PyTorch_Source', 'mlspace', 'DeepInfomaxPytorch', 'Deep-learning-with-Python', 'DeepResearch', 'remote-sensing-deep-learning', 'adaptdl', 'spikingjelly', 'mentornet', 'book_DeepLearning_in_PyTorch_Source', 'mlspace', 'DeepInfomaxPytorch', 'Deep-learning-with-Python', 'DeepResearch', 'remote-sensing-deep-learning', 'adaptdl', 'spikingjelly', 'mentornet', 'book_DeepLearning_in_PyTorch_Source', 'mlspace', 'DeepInfomaxPytorch', 'Deep-learning-with-Python', 'DeepResearch', 'remote-sensing-deep-learning', 'adaptdl', 'spikingjelly', 'mentornet', 'book_DeepLearning_in_PyTorch_Source', 'mlspace', 'DeepInfomaxPytorch', 'Deep-learning-with-Python', 'DeepResearch', 'adaptdl', 'spikingjelly', 'mentornet', 'book_DeepLearning_in_PyTorch_Source', 'mlspace', 'DeepInfomaxPytorch', 'Deep-learning-with-Python', 'DeepResearch', 'remote-sensing-deep-learning', 'adaptdl', 'spikingjelly', 'mentornet', 'book_DeepLearning_in_PyTorch_Source', 'mlspace', 'DeepInfomaxPytorch', 'Deep-learning-with-Python', 'DeepResearch', 'remote-sensing-deep-learning', 'adaptdl', 'spikingjelly', 'mentornet', 'book_DeepLearning_in_PyTorch_Source', 'mlspace', 'DeepInfomaxPytorch', 'Deep-learning-with-Python', 'DeepResearch', 'remote-sensing-deep-learning', 'adaptdl', 'spikingjelly', 'mentornet', 'book_DeepLearning_in_PyTorch_Source', 'mlspace', 'DeepInfomaxPytorch', 'Deep-learning-with-Python', 'DeepResearch', 'remote-sensing-deep-learning', 'adaptdl', 'spikingjelly', 'mentornet', 'book_DeepLearning_in_PyTorch_Source', 'mlspace', 'DeepInfomaxPytorch', 'Deep-learning-with-Python', 'DeepResearch', 'remote-sensing-deep-learning', 'adaptdl', 'spikingjelly', 'mentornet', 'book_DeepLearning_in_PyTorch_Source', 'mlspace', 'DeepInfomaxPytorch', 'Deep-learning-with-Python', 'DeepResearch', 'remote-sensing-deep-learning', 'adaptdl', 'spikingjelly', 'mentornet', 'book_DeepLearning_in_PyTorch_Source', 'mlspace', 'DeepInfomaxPytorch', 'Deep-learning-with-Python', 'DeepResearch', 'remote-sensing-deep-learning', 'adaptdl', 'spikingjelly', 'mentornet', 'book_DeepLearning_in_PyTorch_Source', 'mlspace', 'DeepInfomaxPytorch', 'Deep-learning-with-Python', 'DeepResearch', 'remote-sensing-deep-learning', 'adaptdl', 'spikingjelly', 'mentornet', 'book_DeepLearning_in_PyTorch_Source', 'mlspace', 'DeepInfomaxPytorch', 'Deep-learning-with-Python', 'DeepResearch', 'remote-sensing-deep-learning', 'adaptdl', 'spikingjelly', 'mentornet', 'book_DeepLearning_in_PyTorch_Source', 'mlspace', 'DeepInfomaxPytorch', 'Deep-learning-with-Python', 'DeepResearch', 'remote-sensing-deep-learning', 'adaptdl', 'spikingjelly', 'mentornet', 'book_DeepLearning_in_PyTorch_Source', 'mlspace', 'DeepInfomaxPytorch', 'Deep-learning-with-Python', 'DeepResearch', 'remote-sensing-deep-learning', 'adaptdl', 'spikingjelly', 'mentornet', 'book_DeepLearning_in_PyTorch_Source', 'mlspace', 'DeepInfomaxPytorch', 'Deep-learning-with-Python', 'DeepResearch', 'remote-sensing-deep-learning', 'adaptdl', 'spikingjelly', 'mentornet', 'book_DeepLearning_in_PyTorch_Source', 'mlspace', 'DeepInfomaxPytorch', 'Deep-learning-with-Python', 'DeepResearch', 'remote-sensing-deep-learning', 'adaptdl', 'spikingjelly', 'mentornet', 'book_DeepLearning_in_PyTorch_Source', 'mlspace', 'DeepInfomaxPytorch', 'Deep-learning-with-Python', 'DeepResearch', 'remote-sensing-deep-learning', 'adaptdl', 'spikingjelly', 'mentornet', 'book_DeepLearning_in_PyTorch_Source', 'mlspace', 'DeepInfomaxPytorch', 'Deep-learning-with-Python', 'DeepResearch', 'remote-sensing-deep-learning', 'adaptdl', 'spikingjelly', 'mentornet', 'book_DeepLearning_in_PyTorch_Source', 'mlspace', 'DeepInfomaxPytorch', 'Deep-learning-with-Python', 'DeepResearch', 'remote-sensing-deep-learning', 'adaptdl', 'spikingjelly', 'mentornet', 'book_DeepLearning_in_PyTorch_Source', 'mlspace', 'DeepInfomaxPytorch', 'Deep-learning-with-Python', 'DeepResearch', 'remote-sensing-deep-learning', 'adaptdl', 'spikingjelly', 'mentornet', 'book_DeepLearning_in_PyTorch_Source', 'mlspace', 'DeepInfomaxPytorch', 'Deep-learning-with-Python', 'DeepResearch', 'remote-sensing-deep-learning', 'adaptdl', 'spikingjelly', 'mentornet', 'book_DeepLearning_in_PyTorch_Source', 'mlspace', 'DeepInfomaxPytorch', 'Deep-learning-with-Python', 'DeepResearch', 'remote-sensing-deep-learning', 'adaptdl', 'spikingjelly', 'mentornet', 'book_DeepLearning_in_PyTorch_Source', 'mlspace', 'DeepInfomaxPytorch', 'Deep-learning-with-Python', 'DeepResearch', 'remote-sensing-deep-learning', 'adaptdl', 'spikingjelly', 'mentornet', 'book_DeepLearning_in_PyTorch_Source', 'mlspace', 'DeepInfomaxPytorch', 'Deep-learning-with-Python', 'DeepResearch', 'remote-sensing-deep-learning', 'adaptdl', 'spikingjelly', 'mentornet', 'book_DeepLearning_in_PyTorch_Source', 'mlspace', 'DeepInfomaxPytorch', 'Deep-learning-with-Python', 'DeepResearch', 'remote-sensing-deep-learning', 'adaptdl', 'spikingjelly', 'mentornet', 'book_DeepLearning_in_PyTorch_Source', 'mlspace', 'DeepInfomaxPytorch', 'Deep-learning-with-Python', 'DeepResearch', 'remote-sensing-deep-learning', 'adaptdl', 'spikingjelly', 'mentornet', 'book_DeepLearning_in_PyTorch_Source', 'mlspace', 'DeepInfomaxPytorch', 'Deep-learning-with-Python', 'DeepResearch', 'adaptdl', 'spikingjelly', 'mentornet', 'book_DeepLearning_in_PyTorch_Source', 'mlspace', 'DeepInfomaxPytorch', 'Deep-learning-with-Python', 'DeepResearch', 'remote-sensing-deep-learning', 'adaptdl', 'spikingjelly', 'mentornet', 'book_DeepLearning_in_PyTorch_Source', 'mlspace', 'DeepInfomaxPytorch', 'Deep-learning-with-Python', 'DeepResearch', 'remote-sensing-deep-learning', 'adaptdl', 'spikingjelly', 'mentornet', 'book_DeepLearning_in_PyTorch_Source', 'mlspace', 'DeepInfomaxPytorch', 'Deep-learning-with-Python', 'DeepResearch', 'remote-sensing-deep-learning', 'adaptdl', 'spikingjelly', 'mentornet', 'book_DeepLearning_in_PyTorch_Source', 'mlspace', 'DeepInfomaxPytorch', 'Deep-learning-with-Python', 'DeepResearch', 'remote-sensing-deep-learning', 'adaptdl', 'spikingjelly']</t>
-  </si>
-  <si>
-    <t>['DRL_based_SelfDrivingCarControl', 'RoboLeague', 'wide_deep', 'ladder', 'DRL_based_SelfDrivingCarControl', 'RoboLeague', 'wide_deep', 'ladder', 'DRL_based_SelfDrivingCarControl', 'RoboLeague', 'wide_deep', 'ladder', 'DRL_based_SelfDrivingCarControl', 'RoboLeague', 'wide_deep', 'ladder', 'DRL_based_SelfDrivingCarControl', 'RoboLeague', 'wide_deep', 'ladder', 'DRL_based_SelfDrivingCarControl', 'RoboLeague', 'wide_deep', 'ladder', 'DRL_based_SelfDrivingCarControl', 'RoboLeague', 'wide_deep', 'ladder', 'DRL_based_SelfDrivingCarControl', 'RoboLeague', 'wide_deep', 'ladder', 'DRL_based_SelfDrivingCarControl', 'RoboLeague', 'wide_deep', 'ladder', 'DRL_based_SelfDrivingCarControl', 'RoboLeague', 'wide_deep', 'ladder', 'DRL_based_SelfDrivingCarControl', 'RoboLeague', 'wide_deep', 'ladder', 'DRL_based_SelfDrivingCarControl', 'RoboLeague', 'wide_deep', 'ladder', 'DRL_based_SelfDrivingCarControl', 'RoboLeague', 'wide_deep', 'ladder', 'DRL_based_SelfDrivingCarControl', 'RoboLeague', 'wide_deep', 'ladder', 'DRL_based_SelfDrivingCarControl', 'RoboLeague', 'wide_deep', 'ladder', 'DRL_based_SelfDrivingCarControl', 'RoboLeague', 'wide_deep', 'ladder', 'DRL_based_SelfDrivingCarControl', 'RoboLeague', 'wide_deep', 'ladder', 'DRL_based_SelfDrivingCarControl', 'RoboLeague', 'wide_deep', 'ladder', 'DRL_based_SelfDrivingCarControl', 'RoboLeague', 'wide_deep', 'ladder', 'DRL_based_SelfDrivingCarControl', 'RoboLeague', 'wide_deep', 'ladder', 'DRL_based_SelfDrivingCarControl', 'RoboLeague', 'wide_deep', 'ladder', 'DRL_based_SelfDrivingCarControl', 'RoboLeague', 'wide_deep', 'ladder', 'DRL_based_SelfDrivingCarControl', 'RoboLeague', 'wide_deep', 'ladder', 'DRL_based_SelfDrivingCarControl', 'RoboLeague', 'wide_deep', 'ladder', 'DRL_based_SelfDrivingCarControl', 'RoboLeague', 'wide_deep', 'ladder', 'DRL_based_SelfDrivingCarControl', 'RoboLeague', 'wide_deep', 'ladder', 'DRL_based_SelfDrivingCarControl', 'RoboLeague', 'wide_deep', 'ladder', 'DRL_based_SelfDrivingCarControl', 'RoboLeague', 'wide_deep', 'ladder', 'DRL_based_SelfDrivingCarControl', 'RoboLeague', 'wide_deep', 'ladder', 'DRL_based_SelfDrivingCarControl', 'RoboLeague', 'wide_deep', 'ladder', 'DRL_based_SelfDrivingCarControl', 'RoboLeague', 'wide_deep', 'ladder', 'DRL_based_SelfDrivingCarControl', 'RoboLeague', 'wide_deep', 'ladder', 'DRL_based_SelfDrivingCarControl', 'RoboLeague', 'wide_deep', 'ladder', 'DRL_based_SelfDrivingCarControl', 'RoboLeague', 'wide_deep', 'ladder', 'DRL_based_SelfDrivingCarControl', 'RoboLeague', 'wide_deep', 'ladder', 'DRL_based_SelfDrivingCarControl', 'RoboLeague', 'wide_deep', 'ladder', 'DRL_based_SelfDrivingCarControl', 'RoboLeague', 'wide_deep', 'ladder', 'DRL_based_SelfDrivingCarControl', 'RoboLeague', 'wide_deep', 'ladder', 'DRL_based_SelfDrivingCarControl', 'RoboLeague', 'wide_deep', 'ladder', 'DRL_based_SelfDrivingCarControl', 'RoboLeague', 'wide_deep', 'ladder', 'DRL_based_SelfDrivingCarControl', 'RoboLeague', 'wide_deep', 'ladder', 'DRL_based_SelfDrivingCarControl', 'RoboLeague', 'wide_deep', 'ladder', 'DRL_based_SelfDrivingCarControl', 'RoboLeague', 'wide_deep', 'ladder', 'DRL_based_SelfDrivingCarControl', 'RoboLeague', 'wide_deep', 'ladder', 'DRL_based_SelfDrivingCarControl', 'RoboLeague', 'wide_deep', 'ladder', 'DRL_based_SelfDrivingCarControl', 'RoboLeague', 'wide_deep', 'ladder', 'DRL_based_SelfDrivingCarControl', 'RoboLeague', 'wide_deep', 'ladder', 'DRL_based_SelfDrivingCarControl', 'RoboLeague', 'wide_deep', 'ladder', 'DRL_based_SelfDrivingCarControl', 'RoboLeague', 'wide_deep', 'ladder', 'DRL_based_SelfDrivingCarControl', 'RoboLeague', 'wide_deep', 'ladder', 'DRL_based_SelfDrivingCarControl', 'RoboLeague', 'wide_deep', 'ladder', 'DRL_based_SelfDrivingCarControl', 'RoboLeague', 'wide_deep', 'ladder', 'DRL_based_SelfDrivingCarControl', 'RoboLeague', 'wide_deep', 'ladder', 'DRL_based_SelfDrivingCarControl', 'RoboLeague', 'wide_deep', 'ladder', 'DRL_based_SelfDrivingCarControl', 'RoboLeague', 'wide_deep', 'ladder', 'DRL_based_SelfDrivingCarControl', 'RoboLeague', 'wide_deep', 'ladder', 'DRL_based_SelfDrivingCarControl', 'RoboLeague', 'wide_deep', 'ladder', 'DRL_based_SelfDrivingCarControl', 'RoboLeague', 'wide_deep', 'ladder', 'DRL_based_SelfDrivingCarControl', 'RoboLeague', 'wide_deep', 'ladder', 'DRL_based_SelfDrivingCarControl', 'RoboLeague', 'wide_deep', 'ladder', 'DRL_based_SelfDrivingCarControl', 'RoboLeague', 'wide_deep', 'ladder', 'DRL_based_SelfDrivingCarControl', 'RoboLeague', 'wide_deep', 'ladder', 'DRL_based_SelfDrivingCarControl', 'RoboLeague', 'wide_deep', 'ladder', 'DRL_based_SelfDrivingCarControl', 'RoboLeague', 'wide_deep', 'ladder', 'DRL_based_SelfDrivingCarControl', 'RoboLeague', 'wide_deep', 'ladder', 'DRL_based_SelfDrivingCarControl', 'RoboLeague', 'wide_deep', 'ladder', 'DRL_based_SelfDrivingCarControl', 'RoboLeague', 'wide_deep', 'ladder', 'DRL_based_SelfDrivingCarControl', 'RoboLeague', 'wide_deep', 'ladder', 'DRL_based_SelfDrivingCarControl', 'RoboLeague', 'wide_deep', 'ladder', 'DRL_based_SelfDrivingCarControl', 'RoboLeague', 'wide_deep', 'ladder', 'DRL_based_SelfDrivingCarControl', 'RoboLeague', 'wide_deep', 'ladder', 'DRL_based_SelfDrivingCarControl', 'RoboLeague', 'wide_deep', 'ladder', 'DRL_based_SelfDrivingCarControl', 'RoboLeague', 'wide_deep', 'ladder', 'DRL_based_SelfDrivingCarControl', 'RoboLeague', 'wide_deep', 'ladder', 'DRL_based_SelfDrivingCarControl', 'RoboLeague', 'wide_deep', 'ladder', 'DRL_based_SelfDrivingCarControl', 'RoboLeague', 'wide_deep', 'ladder', 'DRL_based_SelfDrivingCarControl', 'RoboLeague', 'wide_deep', 'ladder', 'DRL_based_SelfDrivingCarControl', 'RoboLeague', 'wide_deep', 'ladder', 'DRL_based_SelfDrivingCarControl', 'RoboLeague', 'wide_deep', 'ladder', 'DRL_based_SelfDrivingCarControl', 'RoboLeague', 'wide_deep', 'ladder', 'DRL_based_SelfDrivingCarControl', 'RoboLeague', 'wide_deep', 'ladder', 'DRL_based_SelfDrivingCarControl', 'RoboLeague', 'wide_deep', 'ladder', 'DRL_based_SelfDrivingCarControl', 'RoboLeague', 'wide_deep', 'ladder', 'DRL_based_SelfDrivingCarControl', 'RoboLeague', 'wide_deep', 'ladder', 'DRL_based_SelfDrivingCarControl', 'RoboLeague', 'wide_deep', 'ladder', 'DRL_based_SelfDrivingCarControl', 'RoboLeague', 'wide_deep', 'ladder', 'DRL_based_SelfDrivingCarControl', 'RoboLeague', 'wide_deep', 'ladder', 'DRL_based_SelfDrivingCarControl', 'RoboLeague', 'wide_deep', 'ladder', 'DRL_based_SelfDrivingCarControl', 'RoboLeague', 'wide_deep', 'ladder', 'DRL_based_SelfDrivingCarControl', 'RoboLeague', 'wide_deep', 'ladder', 'DRL_based_SelfDrivingCarControl', 'RoboLeague', 'wide_deep', 'ladder']</t>
-  </si>
-  <si>
-    <t>['vel', 'xshinnosuke', 'deeplearning-cfn', 'masif', 'Clustering-with-Deep-learning', 'arc-robot-vision', 'nexus', 'vel', 'xshinnosuke', 'deeplearning-cfn', 'masif', 'Clustering-with-Deep-learning', 'arc-robot-vision', 'nexus', 'vel', 'xshinnosuke', 'deeplearning-cfn', 'masif', 'Clustering-with-Deep-learning', 'arc-robot-vision', 'nexus', 'vel', 'xshinnosuke', 'deeplearning-cfn', 'masif', 'Clustering-with-Deep-learning', 'arc-robot-vision', 'nexus', 'vel', 'xshinnosuke', 'deeplearning-cfn', 'masif', 'Clustering-with-Deep-learning', 'arc-robot-vision', 'nexus', 'vel', 'xshinnosuke', 'deeplearning-cfn', 'masif', 'Clustering-with-Deep-learning', 'arc-robot-vision', 'nexus', 'vel', 'xshinnosuke', 'deeplearning-cfn', 'masif', 'Clustering-with-Deep-learning', 'arc-robot-vision', 'nexus', 'vel', 'xshinnosuke', 'deeplearning-cfn', 'masif', 'Clustering-with-Deep-learning', 'arc-robot-vision', 'nexus', 'vel', 'xshinnosuke', 'deeplearning-cfn', 'masif', 'Clustering-with-Deep-learning', 'arc-robot-vision', 'nexus', 'vel', 'xshinnosuke', 'deeplearning-cfn', 'masif', 'Clustering-with-Deep-learning', 'arc-robot-vision', 'nexus', 'vel', 'xshinnosuke', 'deeplearning-cfn', 'masif', 'Clustering-with-Deep-learning', 'arc-robot-vision', 'nexus', 'vel', 'xshinnosuke', 'deeplearning-cfn', 'masif', 'Clustering-with-Deep-learning', 'arc-robot-vision', 'nexus', 'vel', 'xshinnosuke', 'deeplearning-cfn', 'masif', 'Clustering-with-Deep-learning', 'arc-robot-vision', 'nexus', 'vel', 'xshinnosuke', 'deeplearning-cfn', 'masif', 'Clustering-with-Deep-learning', 'arc-robot-vision', 'nexus', 'vel', 'xshinnosuke', 'deeplearning-cfn', 'masif', 'Clustering-with-Deep-learning', 'arc-robot-vision', 'nexus', 'vel', 'xshinnosuke', 'deeplearning-cfn', 'masif', 'Clustering-with-Deep-learning', 'arc-robot-vision', 'nexus', 'vel', 'xshinnosuke', 'deeplearning-cfn', 'masif', 'Clustering-with-Deep-learning', 'arc-robot-vision', 'nexus', 'vel', 'xshinnosuke', 'deeplearning-cfn', 'masif', 'Clustering-with-Deep-learning', 'arc-robot-vision', 'nexus', 'vel', 'xshinnosuke', 'deeplearning-cfn', 'masif', 'Clustering-with-Deep-learning', 'arc-robot-vision', 'nexus', 'vel', 'xshinnosuke', 'deeplearning-cfn', 'masif', 'Clustering-with-Deep-learning', 'arc-robot-vision', 'nexus', 'vel', 'xshinnosuke', 'deeplearning-cfn', 'masif', 'Clustering-with-Deep-learning', 'arc-robot-vision', 'nexus', 'vel', 'xshinnosuke', 'deeplearning-cfn', 'masif', 'Clustering-with-Deep-learning', 'arc-robot-vision', 'nexus', 'vel', 'xshinnosuke', 'deeplearning-cfn', 'masif', 'Clustering-with-Deep-learning', 'arc-robot-vision', 'nexus', 'vel', 'xshinnosuke', 'deeplearning-cfn', 'masif', 'Clustering-with-Deep-learning', 'arc-robot-vision', 'nexus', 'vel', 'xshinnosuke', 'deeplearning-cfn', 'masif', 'Clustering-with-Deep-learning', 'arc-robot-vision', 'nexus', 'vel', 'xshinnosuke', 'deeplearning-cfn', 'masif', 'Clustering-with-Deep-learning', 'arc-robot-vision', 'nexus', 'vel', 'xshinnosuke', 'deeplearning-cfn', 'masif', 'Clustering-with-Deep-learning', 'arc-robot-vision', 'nexus', 'vel', 'xshinnosuke', 'deeplearning-cfn', 'masif', 'Clustering-with-Deep-learning', 'arc-robot-vision', 'nexus', 'vel', 'xshinnosuke', 'deeplearning-cfn', 'masif', 'Clustering-with-Deep-learning', 'arc-robot-vision', 'nexus', 'vel', 'xshinnosuke', 'deeplearning-cfn', 'masif', 'Clustering-with-Deep-learning', 'arc-robot-vision', 'nexus', 'vel', 'xshinnosuke', 'deeplearning-cfn', 'masif', 'Clustering-with-Deep-learning', 'arc-robot-vision', 'nexus', 'vel', 'xshinnosuke', 'deeplearning-cfn', 'masif', 'Clustering-with-Deep-learning', 'arc-robot-vision', 'nexus', 'vel', 'xshinnosuke', 'deeplearning-cfn', 'masif', 'Clustering-with-Deep-learning', 'arc-robot-vision', 'nexus', 'vel', 'xshinnosuke', 'deeplearning-cfn', 'masif', 'Clustering-with-Deep-learning', 'arc-robot-vision', 'nexus', 'vel', 'xshinnosuke', 'deeplearning-cfn', 'masif', 'Clustering-with-Deep-learning', 'arc-robot-vision', 'nexus', 'vel', 'xshinnosuke', 'deeplearning-cfn', 'masif', 'Clustering-with-Deep-learning', 'arc-robot-vision', 'nexus', 'vel', 'xshinnosuke', 'deeplearning-cfn', 'masif', 'Clustering-with-Deep-learning', 'arc-robot-vision', 'nexus', 'vel', 'xshinnosuke', 'deeplearning-cfn', 'masif', 'Clustering-with-Deep-learning', 'arc-robot-vision', 'nexus', 'vel', 'xshinnosuke', 'deeplearning-cfn', 'masif', 'Clustering-with-Deep-learning', 'arc-robot-vision', 'nexus', 'vel', 'xshinnosuke', 'deeplearning-cfn', 'masif', 'Clustering-with-Deep-learning', 'arc-robot-vision', 'nexus', 'vel', 'xshinnosuke', 'deeplearning-cfn', 'masif', 'Clustering-with-Deep-learning', 'arc-robot-vision', 'nexus', 'vel', 'xshinnosuke', 'deeplearning-cfn', 'masif', 'Clustering-with-Deep-learning', 'arc-robot-vision', 'nexus', 'vel', 'xshinnosuke', 'deeplearning-cfn', 'masif', 'Clustering-with-Deep-learning', 'arc-robot-vision', 'nexus', 'vel', 'xshinnosuke', 'deeplearning-cfn', 'masif', 'Clustering-with-Deep-learning', 'arc-robot-vision', 'nexus', 'vel', 'xshinnosuke', 'deeplearning-cfn', 'masif', 'Clustering-with-Deep-learning', 'arc-robot-vision', 'nexus', 'vel', 'xshinnosuke', 'deeplearning-cfn', 'masif', 'Clustering-with-Deep-learning', 'arc-robot-vision', 'nexus', 'vel', 'xshinnosuke', 'deeplearning-cfn', 'masif', 'Clustering-with-Deep-learning', 'arc-robot-vision', 'nexus', 'vel', 'xshinnosuke', 'deeplearning-cfn', 'masif', 'Clustering-with-Deep-learning', 'arc-robot-vision', 'nexus', 'vel', 'xshinnosuke', 'deeplearning-cfn', 'masif', 'Clustering-with-Deep-learning', 'arc-robot-vision', 'nexus', 'vel', 'xshinnosuke', 'deeplearning-cfn', 'masif', 'Clustering-with-Deep-learning', 'arc-robot-vision', 'nexus', 'vel', 'xshinnosuke', 'deeplearning-cfn', 'masif', 'Clustering-with-Deep-learning', 'arc-robot-vision', 'nexus', 'vel', 'xshinnosuke', 'deeplearning-cfn', 'masif', 'Clustering-with-Deep-learning', 'arc-robot-vision', 'nexus', 'vel', 'xshinnosuke', 'deeplearning-cfn', 'masif', 'Clustering-with-Deep-learning', 'arc-robot-vision', 'nexus', 'vel', 'xshinnosuke', 'deeplearning-cfn', 'masif', 'Clustering-with-Deep-learning', 'arc-robot-vision', 'nexus', 'vel', 'xshinnosuke', 'deeplearning-cfn', 'masif', 'Clustering-with-Deep-learning', 'arc-robot-vision', 'nexus', 'vel', 'xshinnosuke', 'deeplearning-cfn', 'masif', 'Clustering-with-Deep-learning', 'arc-robot-vision', 'nexus', 'vel', 'xshinnosuke', 'deeplearning-cfn', 'masif', 'Clustering-with-Deep-learning', 'arc-robot-vision', 'nexus', 'vel', 'xshinnosuke', 'deeplearning-cfn', 'masif', 'Clustering-with-Deep-learning', 'arc-robot-vision', 'nexus', 'vel', 'xshinnosuke', 'deeplearning-cfn', 'masif', 'Clustering-with-Deep-learning', 'arc-robot-vision', 'nexus', 'vel', 'xshinnosuke', 'deeplearning-cfn', 'masif', 'Clustering-with-Deep-learning', 'arc-robot-vision', 'nexus', 'vel', 'xshinnosuke', 'deeplearning-cfn', 'masif', 'Clustering-with-Deep-learning', 'arc-robot-vision', 'nexus', 'vel', 'xshinnosuke', 'deeplearning-cfn', 'masif', 'Clustering-with-Deep-learning', 'arc-robot-vision', 'nexus', 'vel', 'xshinnosuke', 'deeplearning-cfn', 'masif', 'Clustering-with-Deep-learning', 'arc-robot-vision', 'nexus', 'vel', 'xshinnosuke', 'deeplearning-cfn', 'masif', 'Clustering-with-Deep-learning', 'arc-robot-vision', 'nexus', 'vel', 'xshinnosuke', 'deeplearning-cfn', 'masif', 'Clustering-with-Deep-learning', 'arc-robot-vision', 'nexus', 'vel', 'xshinnosuke', 'deeplearning-cfn', 'masif', 'Clustering-with-Deep-learning', 'arc-robot-vision', 'nexus', 'vel', 'xshinnosuke', 'deeplearning-cfn', 'masif', 'Clustering-with-Deep-learning', 'arc-robot-vision', 'nexus', 'vel', 'xshinnosuke', 'deeplearning-cfn', 'masif', 'Clustering-with-Deep-learning', 'arc-robot-vision', 'nexus', 'vel', 'xshinnosuke', 'deeplearning-cfn', 'masif', 'Clustering-with-Deep-learning', 'arc-robot-vision', 'nexus', 'vel', 'xshinnosuke', 'deeplearning-cfn', 'masif', 'Clustering-with-Deep-learning', 'arc-robot-vision', 'nexus', 'vel', 'xshinnosuke', 'deeplearning-cfn', 'masif', 'Clustering-with-Deep-learning', 'arc-robot-vision', 'nexus', 'vel', 'xshinnosuke', 'deeplearning-cfn', 'masif', 'Clustering-with-Deep-learning', 'arc-robot-vision', 'nexus', 'vel', 'xshinnosuke', 'deeplearning-cfn', 'masif', 'Clustering-with-Deep-learning', 'arc-robot-vision', 'nexus', 'vel', 'xshinnosuke', 'deeplearning-cfn', 'masif', 'Clustering-with-Deep-learning', 'arc-robot-vision', 'nexus', 'vel', 'xshinnosuke', 'deeplearning-cfn', 'masif', 'Clustering-with-Deep-learning', 'arc-robot-vision', 'nexus', 'vel', 'xshinnosuke', 'deeplearning-cfn', 'masif', 'Clustering-with-Deep-learning', 'arc-robot-vision', 'nexus', 'vel', 'xshinnosuke', 'deeplearning-cfn', 'masif', 'Clustering-with-Deep-learning', 'arc-robot-vision', 'nexus', 'vel', 'xshinnosuke', 'deeplearning-cfn', 'masif', 'Clustering-with-Deep-learning', 'arc-robot-vision', 'nexus', 'vel', 'xshinnosuke', 'deeplearning-cfn', 'masif', 'Clustering-with-Deep-learning', 'arc-robot-vision', 'nexus', 'vel', 'xshinnosuke', 'deeplearning-cfn', 'masif', 'Clustering-with-Deep-learning', 'arc-robot-vision', 'nexus', 'vel', 'xshinnosuke', 'deeplearning-cfn', 'masif', 'Clustering-with-Deep-learning', 'arc-robot-vision', 'nexus', 'vel', 'xshinnosuke', 'deeplearning-cfn', 'masif', 'Clustering-with-Deep-learning', 'arc-robot-vision', 'nexus', 'vel', 'xshinnosuke', 'deeplearning-cfn', 'masif', 'Clustering-with-Deep-learning', 'arc-robot-vision', 'nexus', 'vel', 'xshinnosuke', 'deeplearning-cfn', 'masif', 'Clustering-with-Deep-learning', 'arc-robot-vision', 'nexus', 'vel', 'xshinnosuke', 'deeplearning-cfn', 'masif', 'Clustering-with-Deep-learning', 'arc-robot-vision', 'nexus', 'vel', 'xshinnosuke', 'deeplearning-cfn', 'masif', 'Clustering-with-Deep-learning', 'arc-robot-vision', 'nexus', 'vel', 'xshinnosuke', 'deeplearning-cfn', 'masif', 'Clustering-with-Deep-learning', 'arc-robot-vision', 'nexus', 'vel', 'xshinnosuke', 'deeplearning-cfn', 'masif', 'Clustering-with-Deep-learning', 'arc-robot-vision', 'nexus', 'vel', 'xshinnosuke', 'deeplearning-cfn', 'masif', 'Clustering-with-Deep-learning', 'arc-robot-vision', 'nexus', 'vel', 'xshinnosuke', 'deeplearning-cfn', 'masif', 'Clustering-with-Deep-learning', 'arc-robot-vision', 'nexus', 'vel', 'xshinnosuke', 'deeplearning-cfn', 'masif', 'Clustering-with-Deep-learning', 'arc-robot-vision', 'nexus']</t>
-  </si>
-  <si>
-    <t>['Awesome-Deep-Learning-Papers-for-Search-Recommendation-Advertising', 'ultimateALPR-SDK', 'DeepPruner', 'end2end-all-conv', 'learning-to-communicate-pytorch', 'windy-afternoon', 'osumapper', 'gnina', 'neural-compressor', 'ultimateALPR-SDK', 'DeepPruner', 'end2end-all-conv', 'learning-to-communicate-pytorch', 'windy-afternoon', 'osumapper', 'gnina', 'neural-compressor', 'ultimateALPR-SDK', 'DeepPruner', 'end2end-all-conv', 'learning-to-communicate-pytorch', 'windy-afternoon', 'osumapper', 'gnina', 'neural-compressor', 'ultimateALPR-SDK', 'DeepPruner', 'end2end-all-conv', 'learning-to-communicate-pytorch', 'windy-afternoon', 'osumapper', 'gnina', 'neural-compressor', 'ultimateALPR-SDK', 'DeepPruner', 'end2end-all-conv', 'learning-to-communicate-pytorch', 'windy-afternoon', 'osumapper', 'gnina', 'neural-compressor', 'ultimateALPR-SDK', 'DeepPruner', 'end2end-all-conv', 'learning-to-communicate-pytorch', 'windy-afternoon', 'osumapper', 'gnina', 'neural-compressor', 'ultimateALPR-SDK', 'DeepPruner', 'end2end-all-conv', 'learning-to-communicate-pytorch', 'windy-afternoon', 'osumapper', 'gnina', 'neural-compressor', 'ultimateALPR-SDK', 'DeepPruner', 'end2end-all-conv', 'learning-to-communicate-pytorch', 'windy-afternoon', 'osumapper', 'gnina', 'remote-sensing-deep-learning', 'neural-compressor', 'ultimateALPR-SDK', 'DeepPruner', 'end2end-all-conv', 'learning-to-communicate-pytorch', 'windy-afternoon', 'osumapper', 'gnina', 'neural-compressor', 'ultimateALPR-SDK', 'DeepPruner', 'end2end-all-conv', 'learning-to-communicate-pytorch', 'windy-afternoon', 'osumapper', 'gnina', 'neural-compressor', 'ultimateALPR-SDK', 'DeepPruner', 'end2end-all-conv', 'learning-to-communicate-pytorch', 'windy-afternoon', 'osumapper', 'gnina', 'remote-sensing-deep-learning', 'neural-compressor', 'ultimateALPR-SDK', 'DeepPruner', 'end2end-all-conv', 'learning-to-communicate-pytorch', 'windy-afternoon', 'osumapper', 'gnina', 'neural-compressor', 'ultimateALPR-SDK', 'DeepPruner', 'end2end-all-conv', 'learning-to-communicate-pytorch', 'windy-afternoon', 'osumapper', 'gnina', 'remote-sensing-deep-learning', 'neural-compressor', 'ultimateALPR-SDK', 'DeepPruner', 'end2end-all-conv', 'learning-to-communicate-pytorch', 'windy-afternoon', 'osumapper', 'gnina', 'neural-compressor', 'ultimateALPR-SDK', 'DeepPruner', 'end2end-all-conv', 'learning-to-communicate-pytorch', 'windy-afternoon', 'osumapper', 'gnina', 'neural-compressor', 'ultimateALPR-SDK', 'DeepPruner', 'end2end-all-conv', 'learning-to-communicate-pytorch', 'windy-afternoon', 'osumapper', 'gnina', 'neural-compressor', 'ultimateALPR-SDK', 'DeepPruner', 'end2end-all-conv', 'learning-to-communicate-pytorch', 'windy-afternoon', 'osumapper', 'gnina', 'neural-compressor', 'ultimateALPR-SDK', 'DeepPruner', 'end2end-all-conv', 'learning-to-communicate-pytorch', 'windy-afternoon', 'osumapper', 'gnina', 'neural-compressor', 'ultimateALPR-SDK', 'DeepPruner', 'end2end-all-conv', 'learning-to-communicate-pytorch', 'windy-afternoon', 'osumapper', 'gnina', 'neural-compressor', 'ultimateALPR-SDK', 'DeepPruner', 'end2end-all-conv', 'learning-to-communicate-pytorch', 'windy-afternoon', 'osumapper', 'gnina', 'neural-compressor', 'ultimateALPR-SDK', 'DeepPruner', 'end2end-all-conv', 'learning-to-communicate-pytorch', 'windy-afternoon', 'osumapper', 'gnina', 'neural-compressor', 'ultimateALPR-SDK', 'DeepPruner', 'end2end-all-conv', 'learning-to-communicate-pytorch', 'windy-afternoon', 'osumapper', 'gnina', 'neural-compressor', 'ultimateALPR-SDK', 'DeepPruner', 'end2end-all-conv', 'learning-to-communicate-pytorch', 'windy-afternoon', 'osumapper', 'gnina', 'neural-compressor', 'ultimateALPR-SDK', 'DeepPruner', 'end2end-all-conv', 'learning-to-communicate-pytorch', 'windy-afternoon', 'osumapper', 'gnina', 'neural-compressor', 'ultimateALPR-SDK', 'DeepPruner', 'end2end-all-conv', 'learning-to-communicate-pytorch', 'windy-afternoon', 'osumapper', 'gnina', 'neural-compressor', 'ultimateALPR-SDK', 'DeepPruner', 'end2end-all-conv', 'learning-to-communicate-pytorch', 'windy-afternoon', 'osumapper', 'gnina', 'neural-compressor', 'ultimateALPR-SDK', 'DeepPruner', 'end2end-all-conv', 'learning-to-communicate-pytorch', 'windy-afternoon', 'osumapper', 'gnina', 'neural-compressor', 'ultimateALPR-SDK', 'DeepPruner', 'end2end-all-conv', 'learning-to-communicate-pytorch', 'windy-afternoon', 'osumapper', 'gnina', 'neural-compressor', 'ultimateALPR-SDK', 'DeepPruner', 'end2end-all-conv', 'learning-to-communicate-pytorch', 'windy-afternoon', 'osumapper', 'gnina', 'neural-compressor', 'ultimateALPR-SDK', 'DeepPruner', 'end2end-all-conv', 'learning-to-communicate-pytorch', 'windy-afternoon', 'osumapper', 'gnina', 'neural-compressor', 'ultimateALPR-SDK', 'DeepPruner', 'end2end-all-conv', 'learning-to-communicate-pytorch', 'windy-afternoon', 'osumapper', 'gnina', 'neural-compressor', 'ultimateALPR-SDK', 'DeepPruner', 'end2end-all-conv', 'learning-to-communicate-pytorch', 'windy-afternoon', 'osumapper', 'gnina', 'neural-compressor', 'ultimateALPR-SDK', 'DeepPruner', 'end2end-all-conv', 'learning-to-communicate-pytorch', 'windy-afternoon', 'osumapper', 'gnina', 'neural-compressor', 'ultimateALPR-SDK', 'DeepPruner', 'end2end-all-conv', 'learning-to-communicate-pytorch', 'windy-afternoon', 'osumapper', 'gnina', 'neural-compressor', 'ultimateALPR-SDK', 'DeepPruner', 'end2end-all-conv', 'learning-to-communicate-pytorch', 'windy-afternoon', 'osumapper', 'gnina', 'neural-compressor', 'ultimateALPR-SDK', 'DeepPruner', 'end2end-all-conv', 'learning-to-communicate-pytorch', 'windy-afternoon', 'osumapper', 'gnina', 'neural-compressor', 'ultimateALPR-SDK', 'DeepPruner', 'end2end-all-conv', 'learning-to-communicate-pytorch', 'windy-afternoon', 'osumapper', 'gnina', 'neural-compressor', 'ultimateALPR-SDK', 'DeepPruner', 'end2end-all-conv', 'learning-to-communicate-pytorch', 'windy-afternoon', 'osumapper', 'gnina', 'neural-compressor', 'ultimateALPR-SDK', 'DeepPruner', 'end2end-all-conv', 'learning-to-communicate-pytorch', 'windy-afternoon', 'osumapper', 'gnina', 'neural-compressor', 'ultimateALPR-SDK', 'DeepPruner', 'end2end-all-conv', 'learning-to-communicate-pytorch', 'windy-afternoon', 'osumapper', 'gnina', 'neural-compressor', 'ultimateALPR-SDK', 'DeepPruner', 'end2end-all-conv', 'learning-to-communicate-pytorch', 'windy-afternoon', 'osumapper', 'gnina', 'neural-compressor', 'ultimateALPR-SDK', 'DeepPruner', 'end2end-all-conv', 'learning-to-communicate-pytorch', 'windy-afternoon', 'osumapper', 'gnina', 'neural-compressor', 'ultimateALPR-SDK', 'DeepPruner', 'end2end-all-conv', 'learning-to-communicate-pytorch', 'windy-afternoon', 'osumapper', 'gnina', 'neural-compressor', 'ultimateALPR-SDK', 'DeepPruner', 'end2end-all-conv', 'learning-to-communicate-pytorch', 'windy-afternoon', 'osumapper', 'gnina', 'neural-compressor', 'ultimateALPR-SDK', 'DeepPruner', 'end2end-all-conv', 'learning-to-communicate-pytorch', 'windy-afternoon', 'osumapper', 'gnina', 'neural-compressor', 'ultimateALPR-SDK', 'DeepPruner', 'end2end-all-conv', 'learning-to-communicate-pytorch', 'windy-afternoon', 'osumapper', 'gnina', 'neural-compressor', 'ultimateALPR-SDK', 'DeepPruner', 'end2end-all-conv', 'learning-to-communicate-pytorch', 'windy-afternoon', 'osumapper', 'gnina', 'neural-compressor', 'ultimateALPR-SDK', 'DeepPruner', 'end2end-all-conv', 'learning-to-communicate-pytorch', 'windy-afternoon', 'osumapper', 'gnina', 'neural-compressor', 'ultimateALPR-SDK', 'DeepPruner', 'end2end-all-conv', 'learning-to-communicate-pytorch', 'windy-afternoon', 'osumapper', 'gnina', 'neural-compressor', 'ultimateALPR-SDK', 'DeepPruner', 'end2end-all-conv', 'learning-to-communicate-pytorch', 'windy-afternoon', 'osumapper', 'gnina', 'neural-compressor', 'ultimateALPR-SDK', 'DeepPruner', 'end2end-all-conv', 'learning-to-communicate-pytorch', 'windy-afternoon', 'osumapper', 'gnina', 'neural-compressor', 'ultimateALPR-SDK', 'DeepPruner', 'end2end-all-conv', 'learning-to-communicate-pytorch', 'windy-afternoon', 'osumapper', 'gnina', 'neural-compressor', 'ultimateALPR-SDK', 'DeepPruner', 'end2end-all-conv', 'learning-to-communicate-pytorch', 'windy-afternoon', 'osumapper', 'gnina', 'neural-compressor', 'ultimateALPR-SDK', 'DeepPruner', 'end2end-all-conv', 'learning-to-communicate-pytorch', 'windy-afternoon', 'osumapper', 'gnina', 'neural-compressor', 'ultimateALPR-SDK', 'DeepPruner', 'end2end-all-conv', 'learning-to-communicate-pytorch', 'windy-afternoon', 'osumapper', 'gnina', 'neural-compressor', 'ultimateALPR-SDK', 'DeepPruner', 'end2end-all-conv', 'learning-to-communicate-pytorch', 'windy-afternoon', 'osumapper', 'gnina', 'neural-compressor', 'ultimateALPR-SDK', 'DeepPruner', 'end2end-all-conv', 'learning-to-communicate-pytorch', 'windy-afternoon', 'osumapper', 'gnina', 'neural-compressor', 'ultimateALPR-SDK', 'DeepPruner', 'end2end-all-conv', 'learning-to-communicate-pytorch', 'windy-afternoon', 'osumapper', 'gnina', 'neural-compressor', 'ultimateALPR-SDK', 'DeepPruner', 'end2end-all-conv', 'learning-to-communicate-pytorch', 'windy-afternoon', 'osumapper', 'gnina', 'neural-compressor', 'ultimateALPR-SDK', 'DeepPruner', 'end2end-all-conv', 'learning-to-communicate-pytorch', 'windy-afternoon', 'osumapper', 'gnina', 'neural-compressor', 'ultimateALPR-SDK', 'DeepPruner', 'end2end-all-conv', 'learning-to-communicate-pytorch', 'windy-afternoon', 'osumapper', 'gnina', 'neural-compressor', 'ultimateALPR-SDK', 'DeepPruner', 'end2end-all-conv', 'learning-to-communicate-pytorch', 'windy-afternoon', 'osumapper', 'gnina', 'neural-compressor', 'ultimateALPR-SDK', 'DeepPruner', 'end2end-all-conv', 'learning-to-communicate-pytorch', 'windy-afternoon', 'osumapper', 'gnina', 'remote-sensing-deep-learning', 'neural-compressor', 'ultimateALPR-SDK', 'DeepPruner', 'end2end-all-conv', 'learning-to-communicate-pytorch', 'windy-afternoon', 'osumapper', 'gnina', 'neural-compressor', 'ultimateALPR-SDK', 'DeepPruner', 'end2end-all-conv', 'learning-to-communicate-pytorch', 'windy-afternoon', 'osumapper', 'gnina', 'neural-compressor', 'ultimateALPR-SDK', 'DeepPruner', 'end2end-all-conv', 'learning-to-communicate-pytorch', 'windy-afternoon', 'osumapper', 'gnina', 'neural-compressor', 'ultimateALPR-SDK', 'DeepPruner', 'end2end-all-conv', 'learning-to-communicate-pytorch', 'windy-afternoon', 'osumapper', 'gnina', 'neural-compressor', 'ultimateALPR-SDK', 'DeepPruner', 'end2end-all-conv', 'learning-to-communicate-pytorch', 'windy-afternoon', 'osumapper', 'gnina', 'neural-compressor', 'ultimateALPR-SDK', 'DeepPruner', 'end2end-all-conv', 'learning-to-communicate-pytorch', 'windy-afternoon', 'osumapper', 'gnina', 'neural-compressor', 'ultimateALPR-SDK', 'DeepPruner', 'end2end-all-conv', 'learning-to-communicate-pytorch', 'windy-afternoon', 'osumapper', 'gnina', 'neural-compressor', 'ultimateALPR-SDK', 'DeepPruner', 'end2end-all-conv', 'learning-to-communicate-pytorch', 'windy-afternoon', 'osumapper', 'gnina', 'neural-compressor', 'ultimateALPR-SDK', 'DeepPruner', 'end2end-all-conv', 'learning-to-communicate-pytorch', 'windy-afternoon', 'osumapper', 'gnina', 'neural-compressor', 'ultimateALPR-SDK', 'DeepPruner', 'end2end-all-conv', 'learning-to-communicate-pytorch', 'windy-afternoon', 'osumapper', 'gnina', 'neural-compressor', 'ultimateALPR-SDK', 'DeepPruner', 'end2end-all-conv', 'learning-to-communicate-pytorch', 'windy-afternoon', 'osumapper', 'gnina', 'neural-compressor', 'ultimateALPR-SDK', 'DeepPruner', 'end2end-all-conv', 'learning-to-communicate-pytorch', 'windy-afternoon', 'osumapper', 'gnina', 'neural-compressor', 'ultimateALPR-SDK', 'DeepPruner', 'end2end-all-conv', 'learning-to-communicate-pytorch', 'windy-afternoon', 'osumapper', 'gnina', 'neural-compressor', 'ultimateALPR-SDK', 'DeepPruner', 'end2end-all-conv', 'learning-to-communicate-pytorch', 'windy-afternoon', 'osumapper', 'gnina', 'neural-compressor', 'ultimateALPR-SDK', 'DeepPruner', 'end2end-all-conv', 'learning-to-communicate-pytorch', 'windy-afternoon', 'osumapper', 'gnina', 'neural-compressor', 'ultimateALPR-SDK', 'DeepPruner', 'end2end-all-conv', 'learning-to-communicate-pytorch', 'windy-afternoon', 'osumapper', 'gnina', 'neural-compressor', 'ultimateALPR-SDK', 'DeepPruner', 'end2end-all-conv', 'learning-to-communicate-pytorch', 'windy-afternoon', 'osumapper', 'gnina', 'neural-compressor', 'ultimateALPR-SDK', 'DeepPruner', 'end2end-all-conv', 'learning-to-communicate-pytorch', 'windy-afternoon', 'osumapper', 'gnina', 'neural-compressor', 'ultimateALPR-SDK', 'DeepPruner', 'end2end-all-conv', 'learning-to-communicate-pytorch', 'windy-afternoon', 'osumapper', 'gnina', 'neural-compressor', 'ultimateALPR-SDK', 'DeepPruner', 'end2end-all-conv', 'learning-to-communicate-pytorch', 'windy-afternoon', 'osumapper', 'gnina', 'neural-compressor', 'ultimateALPR-SDK', 'DeepPruner', 'end2end-all-conv', 'learning-to-communicate-pytorch', 'windy-afternoon', 'osumapper', 'gnina', 'neural-compressor', 'ultimateALPR-SDK', 'DeepPruner', 'end2end-all-conv', 'learning-to-communicate-pytorch', 'windy-afternoon', 'osumapper', 'gnina', 'neural-compressor', 'ultimateALPR-SDK', 'DeepPruner', 'end2end-all-conv', 'learning-to-communicate-pytorch', 'windy-afternoon', 'osumapper', 'gnina', 'neural-compressor', 'ultimateALPR-SDK', 'DeepPruner', 'end2end-all-conv', 'learning-to-communicate-pytorch', 'windy-afternoon', 'osumapper', 'gnina', 'remote-sensing-deep-learning', 'neural-compressor', 'ultimateALPR-SDK', 'DeepPruner', 'end2end-all-conv', 'learning-to-communicate-pytorch', 'windy-afternoon', 'osumapper', 'gnina', 'neural-compressor', 'ultimateALPR-SDK', 'DeepPruner', 'end2end-all-conv', 'learning-to-communicate-pytorch', 'windy-afternoon', 'osumapper', 'gnina', 'neural-compressor', 'ultimateALPR-SDK', 'DeepPruner', 'end2end-all-conv', 'learning-to-communicate-pytorch', 'windy-afternoon', 'osumapper', 'gnina', 'neural-compressor', 'ultimateALPR-SDK', 'DeepPruner', 'end2end-all-conv', 'learning-to-communicate-pytorch', 'windy-afternoon', 'osumapper', 'gnina', 'neural-compressor']</t>
-  </si>
-  <si>
-    <t>['deeplearning.ai-notes', 'GraphSAINT', 'LearningX', 'Revisiting_Deep_Metric_Learning_PyTorch', 'aleph_star', 'dl_tutorial', 'DeepLearningCourseCodes', 'Deep-Learning-Tinder', 'gordon_cnn', 'deeplearning.ai-notes', 'GraphSAINT', 'LearningX', 'Revisiting_Deep_Metric_Learning_PyTorch', 'aleph_star', 'dl_tutorial', 'DeepLearningCourseCodes', 'Deep-Learning-Tinder', 'gordon_cnn', 'deeplearning.ai-notes', 'GraphSAINT', 'LearningX', 'Revisiting_Deep_Metric_Learning_PyTorch', 'aleph_star', 'dl_tutorial', 'DeepLearningCourseCodes', 'Deep-Learning-Tinder', 'gordon_cnn', 'deeplearning.ai-notes', 'GraphSAINT', 'LearningX', 'Revisiting_Deep_Metric_Learning_PyTorch', 'aleph_star', 'dl_tutorial', 'DeepLearningCourseCodes', 'Deep-Learning-Tinder', 'gordon_cnn', 'deeplearning.ai-notes', 'GraphSAINT', 'LearningX', 'Revisiting_Deep_Metric_Learning_PyTorch', 'aleph_star', 'dl_tutorial', 'DeepLearningCourseCodes', 'Deep-Learning-Tinder', 'gordon_cnn', 'deeplearning.ai-notes', 'LearningX', 'Revisiting_Deep_Metric_Learning_PyTorch', 'aleph_star', 'dl_tutorial', 'DeepLearningCourseCodes', 'Deep-Learning-Tinder', 'gordon_cnn', 'deeplearning.ai-notes', 'GraphSAINT', 'LearningX', 'Revisiting_Deep_Metric_Learning_PyTorch', 'aleph_star', 'dl_tutorial', 'DeepLearningCourseCodes', 'Deep-Learning-Tinder', 'gordon_cnn', 'deeplearning.ai-notes', 'GraphSAINT', 'LearningX', 'Revisiting_Deep_Metric_Learning_PyTorch', 'aleph_star', 'dl_tutorial', 'DeepLearningCourseCodes', 'Deep-Learning-Tinder', 'gordon_cnn', 'deeplearning.ai-notes', 'LearningX', 'Revisiting_Deep_Metric_Learning_PyTorch', 'aleph_star', 'dl_tutorial', 'DeepLearningCourseCodes', 'Deep-Learning-Tinder', 'gordon_cnn', 'deeplearning.ai-notes', 'GraphSAINT', 'LearningX', 'Revisiting_Deep_Metric_Learning_PyTorch', 'aleph_star', 'dl_tutorial', 'DeepLearningCourseCodes', 'Deep-Learning-Tinder', 'gordon_cnn', 'deeplearning.ai-notes', 'GraphSAINT', 'LearningX', 'Revisiting_Deep_Metric_Learning_PyTorch', 'aleph_star', 'dl_tutorial', 'DeepLearningCourseCodes', 'Deep-Learning-Tinder', 'gordon_cnn', 'deeplearning.ai-notes', 'GraphSAINT', 'LearningX', 'Revisiting_Deep_Metric_Learning_PyTorch', 'aleph_star', 'dl_tutorial', 'DeepLearningCourseCodes', 'Deep-Learning-Tinder', 'gordon_cnn', 'deeplearning.ai-notes', 'GraphSAINT', 'LearningX', 'Revisiting_Deep_Metric_Learning_PyTorch', 'aleph_star', 'dl_tutorial', 'DeepLearningCourseCodes', 'Deep-Learning-Tinder', 'gordon_cnn', 'deeplearning.ai-notes', 'GraphSAINT', 'LearningX', 'Revisiting_Deep_Metric_Learning_PyTorch', 'aleph_star', 'dl_tutorial', 'DeepLearningCourseCodes', 'Deep-Learning-Tinder', 'gordon_cnn', 'deeplearning.ai-notes', 'GraphSAINT', 'LearningX', 'Revisiting_Deep_Metric_Learning_PyTorch', 'aleph_star', 'dl_tutorial', 'DeepLearningCourseCodes', 'Deep-Learning-Tinder', 'gordon_cnn', 'deeplearning.ai-notes', 'LearningX', 'Revisiting_Deep_Metric_Learning_PyTorch', 'aleph_star', 'dl_tutorial', 'DeepLearningCourseCodes', 'Deep-Learning-Tinder', 'gordon_cnn', 'deeplearning.ai-notes', 'LearningX', 'Revisiting_Deep_Metric_Learning_PyTorch', 'aleph_star', 'dl_tutorial', 'DeepLearningCourseCodes', 'Deep-Learning-Tinder', 'gordon_cnn', 'deeplearning.ai-notes', 'LearningX', 'Revisiting_Deep_Metric_Learning_PyTorch', 'aleph_star', 'dl_tutorial', 'DeepLearningCourseCodes', 'Deep-Learning-Tinder', 'gordon_cnn', 'deeplearning.ai-notes', 'GraphSAINT', 'LearningX', 'Revisiting_Deep_Metric_Learning_PyTorch', 'aleph_star', 'dl_tutorial', 'DeepLearningCourseCodes', 'Deep-Learning-Tinder', 'gordon_cnn', 'deeplearning.ai-notes', 'LearningX', 'Revisiting_Deep_Metric_Learning_PyTorch', 'aleph_star', 'dl_tutorial', 'DeepLearningCourseCodes', 'Deep-Learning-Tinder', 'gordon_cnn', 'deeplearning.ai-notes', 'GraphSAINT', 'LearningX', 'Revisiting_Deep_Metric_Learning_PyTorch', 'aleph_star', 'dl_tutorial', 'DeepLearningCourseCodes', 'Deep-Learning-Tinder', 'gordon_cnn', 'deeplearning.ai-notes', 'LearningX', 'Revisiting_Deep_Metric_Learning_PyTorch', 'aleph_star', 'dl_tutorial', 'DeepLearningCourseCodes', 'Deep-Learning-Tinder', 'gordon_cnn', 'deeplearning.ai-notes', 'GraphSAINT', 'LearningX', 'Revisiting_Deep_Metric_Learning_PyTorch', 'aleph_star', 'dl_tutorial', 'DeepLearningCourseCodes', 'Deep-Learning-Tinder', 'gordon_cnn', 'deeplearning.ai-notes', 'LearningX', 'Revisiting_Deep_Metric_Learning_PyTorch', 'aleph_star', 'dl_tutorial', 'DeepLearningCourseCodes', 'Deep-Learning-Tinder', 'gordon_cnn', 'deeplearning.ai-notes', 'GraphSAINT', 'LearningX', 'Revisiting_Deep_Metric_Learning_PyTorch', 'aleph_star', 'dl_tutorial', 'DeepLearningCourseCodes', 'Deep-Learning-Tinder', 'gordon_cnn', 'deeplearning.ai-notes', 'GraphSAINT', 'LearningX', 'Revisiting_Deep_Metric_Learning_PyTorch', 'aleph_star', 'dl_tutorial', 'DeepLearningCourseCodes', 'Deep-Learning-Tinder', 'gordon_cnn', 'deeplearning.ai-notes', 'GraphSAINT', 'LearningX', 'Revisiting_Deep_Metric_Learning_PyTorch', 'aleph_star', 'dl_tutorial', 'DeepLearningCourseCodes', 'Deep-Learning-Tinder', 'gordon_cnn', 'deeplearning.ai-notes', 'GraphSAINT', 'LearningX', 'Revisiting_Deep_Metric_Learning_PyTorch', 'aleph_star', 'dl_tutorial', 'DeepLearningCourseCodes', 'Deep-Learning-Tinder', 'gordon_cnn', 'deeplearning.ai-notes', 'GraphSAINT', 'LearningX', 'Revisiting_Deep_Metric_Learning_PyTorch', 'aleph_star', 'dl_tutorial', 'DeepLearningCourseCodes', 'Deep-Learning-Tinder', 'gordon_cnn', 'deeplearning.ai-notes', 'GraphSAINT', 'LearningX', 'Revisiting_Deep_Metric_Learning_PyTorch', 'aleph_star', 'dl_tutorial', 'DeepLearningCourseCodes', 'Deep-Learning-Tinder', 'gordon_cnn', 'deeplearning.ai-notes', 'GraphSAINT', 'LearningX', 'Revisiting_Deep_Metric_Learning_PyTorch', 'aleph_star', 'dl_tutorial', 'DeepLearningCourseCodes', 'Deep-Learning-Tinder', 'gordon_cnn', 'deeplearning.ai-notes', 'LearningX', 'Revisiting_Deep_Metric_Learning_PyTorch', 'aleph_star', 'dl_tutorial', 'DeepLearningCourseCodes', 'Deep-Learning-Tinder', 'gordon_cnn', 'deeplearning.ai-notes', 'GraphSAINT', 'LearningX', 'Revisiting_Deep_Metric_Learning_PyTorch', 'aleph_star', 'dl_tutorial', 'DeepLearningCourseCodes', 'Deep-Learning-Tinder', 'gordon_cnn', 'deeplearning.ai-notes', 'GraphSAINT', 'LearningX', 'Revisiting_Deep_Metric_Learning_PyTorch', 'aleph_star', 'dl_tutorial', 'DeepLearningCourseCodes', 'Deep-Learning-Tinder', 'gordon_cnn', 'deeplearning.ai-notes', 'GraphSAINT', 'LearningX', 'Revisiting_Deep_Metric_Learning_PyTorch', 'aleph_star', 'dl_tutorial', 'DeepLearningCourseCodes', 'Deep-Learning-Tinder', 'gordon_cnn', 'deeplearning.ai-notes', 'GraphSAINT', 'LearningX', 'Revisiting_Deep_Metric_Learning_PyTorch', 'aleph_star', 'dl_tutorial', 'DeepLearningCourseCodes', 'Deep-Learning-Tinder', 'gordon_cnn', 'deeplearning.ai-notes', 'GraphSAINT', 'LearningX', 'Revisiting_Deep_Metric_Learning_PyTorch', 'aleph_star', 'dl_tutorial', 'DeepLearningCourseCodes', 'Deep-Learning-Tinder', 'gordon_cnn', 'deeplearning.ai-notes', 'GraphSAINT', 'LearningX', 'Revisiting_Deep_Metric_Learning_PyTorch', 'aleph_star', 'dl_tutorial', 'DeepLearningCourseCodes', 'Deep-Learning-Tinder', 'gordon_cnn', 'deeplearning.ai-notes', 'LearningX', 'Revisiting_Deep_Metric_Learning_PyTorch', 'aleph_star', 'dl_tutorial', 'DeepLearningCourseCodes', 'Deep-Learning-Tinder', 'gordon_cnn', 'deeplearning.ai-notes', 'GraphSAINT', 'LearningX', 'Revisiting_Deep_Metric_Learning_PyTorch', 'aleph_star', 'dl_tutorial', 'DeepLearningCourseCodes', 'Deep-Learning-Tinder', 'gordon_cnn', 'deeplearning.ai-notes', 'GraphSAINT', 'LearningX', 'Revisiting_Deep_Metric_Learning_PyTorch', 'aleph_star', 'dl_tutorial', 'DeepLearningCourseCodes', 'Deep-Learning-Tinder', 'gordon_cnn', 'deeplearning.ai-notes', 'GraphSAINT', 'LearningX', 'Revisiting_Deep_Metric_Learning_PyTorch', 'aleph_star', 'dl_tutorial', 'DeepLearningCourseCodes', 'Deep-Learning-Tinder', 'gordon_cnn', 'deeplearning.ai-notes', 'LearningX', 'Revisiting_Deep_Metric_Learning_PyTorch', 'aleph_star', 'dl_tutorial', 'DeepLearningCourseCodes', 'Deep-Learning-Tinder', 'gordon_cnn', 'deeplearning.ai-notes', 'GraphSAINT', 'LearningX', 'Revisiting_Deep_Metric_Learning_PyTorch', 'aleph_star', 'dl_tutorial', 'DeepLearningCourseCodes', 'Deep-Learning-Tinder', 'gordon_cnn', 'deeplearning.ai-notes', 'LearningX', 'Revisiting_Deep_Metric_Learning_PyTorch', 'aleph_star', 'dl_tutorial', 'DeepLearningCourseCodes', 'Deep-Learning-Tinder', 'gordon_cnn', 'deeplearning.ai-notes', 'GraphSAINT', 'LearningX', 'Revisiting_Deep_Metric_Learning_PyTorch', 'aleph_star', 'dl_tutorial', 'DeepLearningCourseCodes', 'Deep-Learning-Tinder', 'gordon_cnn', 'deeplearning.ai-notes', 'GraphSAINT', 'LearningX', 'Revisiting_Deep_Metric_Learning_PyTorch', 'aleph_star', 'dl_tutorial', 'DeepLearningCourseCodes', 'Deep-Learning-Tinder', 'gordon_cnn', 'deeplearning.ai-notes', 'LearningX', 'Revisiting_Deep_Metric_Learning_PyTorch', 'aleph_star', 'dl_tutorial', 'DeepLearningCourseCodes', 'Deep-Learning-Tinder', 'gordon_cnn', 'deeplearning.ai-notes', 'GraphSAINT', 'LearningX', 'Revisiting_Deep_Metric_Learning_PyTorch', 'aleph_star', 'dl_tutorial', 'DeepLearningCourseCodes', 'Deep-Learning-Tinder', 'gordon_cnn', 'deeplearning.ai-notes', 'GraphSAINT', 'LearningX', 'Revisiting_Deep_Metric_Learning_PyTorch', 'aleph_star', 'dl_tutorial', 'DeepLearningCourseCodes', 'Deep-Learning-Tinder', 'gordon_cnn', 'deeplearning.ai-notes', 'LearningX', 'Revisiting_Deep_Metric_Learning_PyTorch', 'aleph_star', 'dl_tutorial', 'DeepLearningCourseCodes', 'Deep-Learning-Tinder', 'gordon_cnn', 'deeplearning.ai-notes', 'GraphSAINT', 'LearningX', 'Revisiting_Deep_Metric_Learning_PyTorch', 'aleph_star', 'dl_tutorial', 'DeepLearningCourseCodes', 'Deep-Learning-Tinder', 'gordon_cnn', 'deeplearning.ai-notes', 'LearningX', 'Revisiting_Deep_Metric_Learning_PyTorch', 'aleph_star', 'dl_tutorial', 'DeepLearningCourseCodes', 'Deep-Learning-Tinder', 'gordon_cnn', 'deeplearning.ai-notes', 'GraphSAINT', 'LearningX', 'Revisiting_Deep_Metric_Learning_PyTorch', 'aleph_star', 'dl_tutorial', 'DeepLearningCourseCodes', 'Deep-Learning-Tinder', 'gordon_cnn', 'deeplearning.ai-notes', 'GraphSAINT', 'LearningX', 'Revisiting_Deep_Metric_Learning_PyTorch', 'aleph_star', 'dl_tutorial', 'DeepLearningCourseCodes', 'Deep-Learning-Tinder', 'gordon_cnn', 'deeplearning.ai-notes', 'GraphSAINT', 'LearningX', 'Revisiting_Deep_Metric_Learning_PyTorch', 'aleph_star', 'dl_tutorial', 'DeepLearningCourseCodes', 'Deep-Learning-Tinder', 'gordon_cnn', 'deeplearning.ai-notes', 'GraphSAINT', 'LearningX', 'Revisiting_Deep_Metric_Learning_PyTorch', 'aleph_star', 'dl_tutorial', 'DeepLearningCourseCodes', 'Deep-Learning-Tinder', 'gordon_cnn', 'deeplearning.ai-notes', 'GraphSAINT', 'LearningX', 'Revisiting_Deep_Metric_Learning_PyTorch', 'aleph_star', 'dl_tutorial', 'DeepLearningCourseCodes', 'Deep-Learning-Tinder', 'gordon_cnn', 'deeplearning.ai-notes', 'GraphSAINT', 'LearningX', 'Revisiting_Deep_Metric_Learning_PyTorch', 'aleph_star', 'dl_tutorial', 'DeepLearningCourseCodes', 'Deep-Learning-Tinder', 'gordon_cnn', 'deeplearning.ai-notes', 'GraphSAINT', 'LearningX', 'Revisiting_Deep_Metric_Learning_PyTorch', 'aleph_star', 'dl_tutorial', 'DeepLearningCourseCodes', 'Deep-Learning-Tinder', 'gordon_cnn', 'deeplearning.ai-notes', 'GraphSAINT', 'LearningX', 'Revisiting_Deep_Metric_Learning_PyTorch', 'aleph_star', 'dl_tutorial', 'DeepLearningCourseCodes', 'Deep-Learning-Tinder', 'gordon_cnn', 'deeplearning.ai-notes', 'GraphSAINT', 'LearningX', 'Revisiting_Deep_Metric_Learning_PyTorch', 'aleph_star', 'dl_tutorial', 'DeepLearningCourseCodes', 'Deep-Learning-Tinder', 'gordon_cnn', 'deeplearning.ai-notes', 'GraphSAINT', 'LearningX', 'Revisiting_Deep_Metric_Learning_PyTorch', 'aleph_star', 'dl_tutorial', 'DeepLearningCourseCodes', 'Deep-Learning-Tinder', 'gordon_cnn', 'deeplearning.ai-notes', 'GraphSAINT', 'LearningX', 'Revisiting_Deep_Metric_Learning_PyTorch', 'aleph_star', 'dl_tutorial', 'DeepLearningCourseCodes', 'Deep-Learning-Tinder', 'gordon_cnn', 'deeplearning.ai-notes', 'GraphSAINT', 'LearningX', 'Revisiting_Deep_Metric_Learning_PyTorch', 'aleph_star', 'dl_tutorial', 'DeepLearningCourseCodes', 'Deep-Learning-Tinder', 'gordon_cnn', 'deeplearning.ai-notes', 'GraphSAINT', 'LearningX', 'Revisiting_Deep_Metric_Learning_PyTorch', 'aleph_star', 'dl_tutorial', 'DeepLearningCourseCodes', 'Deep-Learning-Tinder', 'gordon_cnn', 'deeplearning.ai-notes', 'GraphSAINT', 'LearningX', 'Revisiting_Deep_Metric_Learning_PyTorch', 'aleph_star', 'dl_tutorial', 'DeepLearningCourseCodes', 'Deep-Learning-Tinder', 'gordon_cnn', 'deeplearning.ai-notes', 'GraphSAINT', 'LearningX', 'Revisiting_Deep_Metric_Learning_PyTorch', 'aleph_star', 'dl_tutorial', 'DeepLearningCourseCodes', 'Deep-Learning-Tinder', 'gordon_cnn', 'deeplearning.ai-notes', 'GraphSAINT', 'LearningX', 'Revisiting_Deep_Metric_Learning_PyTorch', 'aleph_star', 'dl_tutorial', 'DeepLearningCourseCodes', 'Deep-Learning-Tinder', 'gordon_cnn', 'deeplearning.ai-notes', 'GraphSAINT', 'LearningX', 'Revisiting_Deep_Metric_Learning_PyTorch', 'aleph_star', 'dl_tutorial', 'DeepLearningCourseCodes', 'Deep-Learning-Tinder', 'gordon_cnn', 'deeplearning.ai-notes', 'LearningX', 'Revisiting_Deep_Metric_Learning_PyTorch', 'aleph_star', 'dl_tutorial', 'DeepLearningCourseCodes', 'Deep-Learning-Tinder', 'gordon_cnn', 'deeplearning.ai-notes', 'GraphSAINT', 'LearningX', 'Revisiting_Deep_Metric_Learning_PyTorch', 'aleph_star', 'dl_tutorial', 'DeepLearningCourseCodes', 'Deep-Learning-Tinder', 'gordon_cnn', 'deeplearning.ai-notes', 'LearningX', 'Revisiting_Deep_Metric_Learning_PyTorch', 'aleph_star', 'dl_tutorial', 'DeepLearningCourseCodes', 'Deep-Learning-Tinder', 'gordon_cnn', 'deeplearning.ai-notes', 'GraphSAINT', 'LearningX', 'Revisiting_Deep_Metric_Learning_PyTorch', 'aleph_star', 'dl_tutorial', 'DeepLearningCourseCodes', 'Deep-Learning-Tinder', 'gordon_cnn', 'deeplearning.ai-notes', 'LearningX', 'Revisiting_Deep_Metric_Learning_PyTorch', 'aleph_star', 'dl_tutorial', 'DeepLearningCourseCodes', 'Deep-Learning-Tinder', 'gordon_cnn', 'deeplearning.ai-notes', 'GraphSAINT', 'LearningX', 'Revisiting_Deep_Metric_Learning_PyTorch', 'aleph_star', 'dl_tutorial', 'DeepLearningCourseCodes', 'Deep-Learning-Tinder', 'gordon_cnn', 'deeplearning.ai-notes', 'LearningX', 'Revisiting_Deep_Metric_Learning_PyTorch', 'aleph_star', 'dl_tutorial', 'DeepLearningCourseCodes', 'Deep-Learning-Tinder', 'gordon_cnn', 'deeplearning.ai-notes', 'LearningX', 'Revisiting_Deep_Metric_Learning_PyTorch', 'aleph_star', 'dl_tutorial', 'DeepLearningCourseCodes', 'Deep-Learning-Tinder', 'gordon_cnn', 'deeplearning.ai-notes', 'GraphSAINT', 'LearningX', 'Revisiting_Deep_Metric_Learning_PyTorch', 'aleph_star', 'dl_tutorial', 'DeepLearningCourseCodes', 'Deep-Learning-Tinder', 'gordon_cnn', 'deeplearning.ai-notes', 'GraphSAINT', 'LearningX', 'Revisiting_Deep_Metric_Learning_PyTorch', 'aleph_star', 'dl_tutorial', 'DeepLearningCourseCodes', 'Deep-Learning-Tinder', 'gordon_cnn', 'deeplearning.ai-notes', 'GraphSAINT', 'LearningX', 'Revisiting_Deep_Metric_Learning_PyTorch', 'aleph_star', 'dl_tutorial', 'DeepLearningCourseCodes', 'Deep-Learning-Tinder', 'gordon_cnn', 'deeplearning.ai-notes', 'LearningX', 'Revisiting_Deep_Metric_Learning_PyTorch', 'aleph_star', 'dl_tutorial', 'DeepLearningCourseCodes', 'Deep-Learning-Tinder', 'gordon_cnn', 'deeplearning.ai-notes', 'LearningX', 'Revisiting_Deep_Metric_Learning_PyTorch', 'aleph_star', 'dl_tutorial', 'DeepLearningCourseCodes', 'Deep-Learning-Tinder', 'gordon_cnn', 'deeplearning.ai-notes', 'GraphSAINT', 'LearningX', 'Revisiting_Deep_Metric_Learning_PyTorch', 'aleph_star', 'dl_tutorial', 'DeepLearningCourseCodes', 'Deep-Learning-Tinder', 'gordon_cnn', 'deeplearning.ai-notes', 'GraphSAINT', 'LearningX', 'Revisiting_Deep_Metric_Learning_PyTorch', 'aleph_star', 'dl_tutorial', 'DeepLearningCourseCodes', 'Deep-Learning-Tinder', 'gordon_cnn', 'deeplearning.ai-notes', 'LearningX', 'Revisiting_Deep_Metric_Learning_PyTorch', 'aleph_star', 'dl_tutorial', 'DeepLearningCourseCodes', 'Deep-Learning-Tinder', 'gordon_cnn', 'deeplearning.ai-notes', 'LearningX', 'Revisiting_Deep_Metric_Learning_PyTorch', 'aleph_star', 'dl_tutorial', 'DeepLearningCourseCodes', 'Deep-Learning-Tinder', 'gordon_cnn', 'deeplearning.ai-notes', 'GraphSAINT', 'LearningX', 'Revisiting_Deep_Metric_Learning_PyTorch', 'aleph_star', 'dl_tutorial', 'DeepLearningCourseCodes', 'Deep-Learning-Tinder', 'gordon_cnn', 'deeplearning.ai-notes', 'LearningX', 'Revisiting_Deep_Metric_Learning_PyTorch', 'aleph_star', 'dl_tutorial', 'DeepLearningCourseCodes', 'Deep-Learning-Tinder', 'gordon_cnn', 'deeplearning.ai-notes', 'LearningX', 'Revisiting_Deep_Metric_Learning_PyTorch', 'aleph_star', 'dl_tutorial', 'DeepLearningCourseCodes', 'Deep-Learning-Tinder', 'gordon_cnn', 'deeplearning.ai-notes', 'GraphSAINT', 'LearningX', 'Revisiting_Deep_Metric_Learning_PyTorch', 'aleph_star', 'dl_tutorial', 'DeepLearningCourseCodes', 'Deep-Learning-Tinder', 'gordon_cnn']</t>
-  </si>
-  <si>
-    <t>['deep-RL-trading', 'Caffe-HRT', 'Deep-Learning-Papers-for-Fish', 'PyTorch-Deep-Learning-Template', 'ksql-udf-deep-learning-mqtt-iot', 'keras-sharp', 'Awsome_Deep_Geometry_Learning', 'deep-RL-trading', 'Caffe-HRT', 'Deep-Learning-Papers-for-Fish', 'PyTorch-Deep-Learning-Template', 'ksql-udf-deep-learning-mqtt-iot', 'keras-sharp', 'Awsome_Deep_Geometry_Learning', 'deep-RL-trading', 'Caffe-HRT', 'Deep-Learning-Papers-for-Fish', 'PyTorch-Deep-Learning-Template', 'ksql-udf-deep-learning-mqtt-iot', 'keras-sharp', 'Awsome_Deep_Geometry_Learning', 'deep-RL-trading', 'Caffe-HRT', 'Deep-Learning-Papers-for-Fish', 'PyTorch-Deep-Learning-Template', 'ksql-udf-deep-learning-mqtt-iot', 'keras-sharp', 'Awsome_Deep_Geometry_Learning', 'deep-RL-trading', 'Caffe-HRT', 'Deep-Learning-Papers-for-Fish', 'PyTorch-Deep-Learning-Template', 'ksql-udf-deep-learning-mqtt-iot', 'keras-sharp', 'Awsome_Deep_Geometry_Learning', 'deep-RL-trading', 'Caffe-HRT', 'Deep-Learning-Papers-for-Fish', 'PyTorch-Deep-Learning-Template', 'ksql-udf-deep-learning-mqtt-iot', 'keras-sharp', 'Awsome_Deep_Geometry_Learning', 'deep-RL-trading', 'Caffe-HRT', 'Deep-Learning-Papers-for-Fish', 'PyTorch-Deep-Learning-Template', 'ksql-udf-deep-learning-mqtt-iot', 'keras-sharp', 'Awsome_Deep_Geometry_Learning', 'deep-RL-trading', 'Caffe-HRT', 'Deep-Learning-Papers-for-Fish', 'PyTorch-Deep-Learning-Template', 'ksql-udf-deep-learning-mqtt-iot', 'keras-sharp', 'Awsome_Deep_Geometry_Learning', 'deep-RL-trading', 'Caffe-HRT', 'Deep-Learning-Papers-for-Fish', 'PyTorch-Deep-Learning-Template', 'ksql-udf-deep-learning-mqtt-iot', 'keras-sharp', 'Awsome_Deep_Geometry_Learning', 'deep-RL-trading', 'Caffe-HRT', 'Deep-Learning-Papers-for-Fish', 'PyTorch-Deep-Learning-Template', 'ksql-udf-deep-learning-mqtt-iot', 'keras-sharp', 'Awsome_Deep_Geometry_Learning', 'deep-RL-trading', 'Caffe-HRT', 'Deep-Learning-Papers-for-Fish', 'PyTorch-Deep-Learning-Template', 'ksql-udf-deep-learning-mqtt-iot', 'keras-sharp', 'Awsome_Deep_Geometry_Learning', 'deep-RL-trading', 'Caffe-HRT', 'Deep-Learning-Papers-for-Fish', 'PyTorch-Deep-Learning-Template', 'ksql-udf-deep-learning-mqtt-iot', 'keras-sharp', 'Awsome_Deep_Geometry_Learning', 'deep-RL-trading', 'Caffe-HRT', 'Deep-Learning-Papers-for-Fish', 'PyTorch-Deep-Learning-Template', 'ksql-udf-deep-learning-mqtt-iot', 'keras-sharp', 'Awsome_Deep_Geometry_Learning', 'deep-RL-trading', 'Caffe-HRT', 'Deep-Learning-Papers-for-Fish', 'PyTorch-Deep-Learning-Template', 'ksql-udf-deep-learning-mqtt-iot', 'keras-sharp', 'Awsome_Deep_Geometry_Learning', 'deep-RL-trading', 'Caffe-HRT', 'Deep-Learning-Papers-for-Fish', 'PyTorch-Deep-Learning-Template', 'ksql-udf-deep-learning-mqtt-iot', 'keras-sharp', 'Awsome_Deep_Geometry_Learning', 'deep-RL-trading', 'Caffe-HRT', 'Deep-Learning-Papers-for-Fish', 'PyTorch-Deep-Learning-Template', 'ksql-udf-deep-learning-mqtt-iot', 'keras-sharp', 'Awsome_Deep_Geometry_Learning', 'deep-RL-trading', 'Caffe-HRT', 'Deep-Learning-Papers-for-Fish', 'PyTorch-Deep-Learning-Template', 'ksql-udf-deep-learning-mqtt-iot', 'keras-sharp', 'Awsome_Deep_Geometry_Learning', 'deep-RL-trading', 'Caffe-HRT', 'Deep-Learning-Papers-for-Fish', 'PyTorch-Deep-Learning-Template', 'ksql-udf-deep-learning-mqtt-iot', 'keras-sharp', 'Awsome_Deep_Geometry_Learning', 'deep-RL-trading', 'Caffe-HRT', 'Deep-Learning-Papers-for-Fish', 'PyTorch-Deep-Learning-Template', 'ksql-udf-deep-learning-mqtt-iot', 'keras-sharp', 'Awsome_Deep_Geometry_Learning', 'deep-RL-trading', 'Caffe-HRT', 'Deep-Learning-Papers-for-Fish', 'PyTorch-Deep-Learning-Template', 'ksql-udf-deep-learning-mqtt-iot', 'keras-sharp', 'Awsome_Deep_Geometry_Learning', 'deep-RL-trading', 'Caffe-HRT', 'Deep-Learning-Papers-for-Fish', 'PyTorch-Deep-Learning-Template', 'ksql-udf-deep-learning-mqtt-iot', 'keras-sharp', 'Awsome_Deep_Geometry_Learning', 'deep-RL-trading', 'Caffe-HRT', 'Deep-Learning-Papers-for-Fish', 'PyTorch-Deep-Learning-Template', 'ksql-udf-deep-learning-mqtt-iot', 'keras-sharp', 'Awsome_Deep_Geometry_Learning', 'deep-RL-trading', 'Caffe-HRT', 'Deep-Learning-Papers-for-Fish', 'PyTorch-Deep-Learning-Template', 'ksql-udf-deep-learning-mqtt-iot', 'keras-sharp', 'Awsome_Deep_Geometry_Learning', 'deep-RL-trading', 'Caffe-HRT', 'Deep-Learning-Papers-for-Fish', 'PyTorch-Deep-Learning-Template', 'ksql-udf-deep-learning-mqtt-iot', 'keras-sharp', 'Awsome_Deep_Geometry_Learning', 'deep-RL-trading', 'Caffe-HRT', 'Deep-Learning-Papers-for-Fish', 'PyTorch-Deep-Learning-Template', 'ksql-udf-deep-learning-mqtt-iot', 'keras-sharp', 'Awsome_Deep_Geometry_Learning', 'deep-RL-trading', 'Caffe-HRT', 'Deep-Learning-Papers-for-Fish', 'PyTorch-Deep-Learning-Template', 'ksql-udf-deep-learning-mqtt-iot', 'keras-sharp', 'Awsome_Deep_Geometry_Learning', 'deep-RL-trading', 'Caffe-HRT', 'Deep-Learning-Papers-for-Fish', 'PyTorch-Deep-Learning-Template', 'ksql-udf-deep-learning-mqtt-iot', 'keras-sharp', 'Awsome_Deep_Geometry_Learning', 'deep-RL-trading', 'Caffe-HRT', 'Deep-Learning-Papers-for-Fish', 'PyTorch-Deep-Learning-Template', 'ksql-udf-deep-learning-mqtt-iot', 'keras-sharp', 'Awsome_Deep_Geometry_Learning', 'deep-RL-trading', 'Caffe-HRT', 'Deep-Learning-Papers-for-Fish', 'PyTorch-Deep-Learning-Template', 'ksql-udf-deep-learning-mqtt-iot', 'keras-sharp', 'Awsome_Deep_Geometry_Learning', 'deep-RL-trading', 'Caffe-HRT', 'Deep-Learning-Papers-for-Fish', 'PyTorch-Deep-Learning-Template', 'ksql-udf-deep-learning-mqtt-iot', 'keras-sharp', 'Awsome_Deep_Geometry_Learning', 'deep-RL-trading', 'Caffe-HRT', 'Deep-Learning-Papers-for-Fish', 'PyTorch-Deep-Learning-Template', 'ksql-udf-deep-learning-mqtt-iot', 'keras-sharp', 'Awsome_Deep_Geometry_Learning', 'deep-RL-trading', 'Caffe-HRT', 'Deep-Learning-Papers-for-Fish', 'PyTorch-Deep-Learning-Template', 'ksql-udf-deep-learning-mqtt-iot', 'keras-sharp', 'Awsome_Deep_Geometry_Learning', 'deep-RL-trading', 'Caffe-HRT', 'Deep-Learning-Papers-for-Fish', 'PyTorch-Deep-Learning-Template', 'ksql-udf-deep-learning-mqtt-iot', 'keras-sharp', 'Awsome_Deep_Geometry_Learning', 'deep-RL-trading', 'Caffe-HRT', 'Deep-Learning-Papers-for-Fish', 'PyTorch-Deep-Learning-Template', 'ksql-udf-deep-learning-mqtt-iot', 'keras-sharp', 'Awsome_Deep_Geometry_Learning', 'deep-RL-trading', 'Caffe-HRT', 'Deep-Learning-Papers-for-Fish', 'PyTorch-Deep-Learning-Template', 'ksql-udf-deep-learning-mqtt-iot', 'keras-sharp', 'Awsome_Deep_Geometry_Learning', 'deep-RL-trading', 'Caffe-HRT', 'Deep-Learning-Papers-for-Fish', 'PyTorch-Deep-Learning-Template', 'ksql-udf-deep-learning-mqtt-iot', 'keras-sharp', 'Awsome_Deep_Geometry_Learning', 'deep-RL-trading', 'Caffe-HRT', 'Deep-Learning-Papers-for-Fish', 'PyTorch-Deep-Learning-Template', 'ksql-udf-deep-learning-mqtt-iot', 'keras-sharp', 'Awsome_Deep_Geometry_Learning', 'deep-RL-trading', 'Caffe-HRT', 'Deep-Learning-Papers-for-Fish', 'PyTorch-Deep-Learning-Template', 'ksql-udf-deep-learning-mqtt-iot', 'keras-sharp', 'Awsome_Deep_Geometry_Learning', 'deep-RL-trading', 'Caffe-HRT', 'Deep-Learning-Papers-for-Fish', 'PyTorch-Deep-Learning-Template', 'ksql-udf-deep-learning-mqtt-iot', 'keras-sharp', 'Awsome_Deep_Geometry_Learning', 'deep-RL-trading', 'Caffe-HRT', 'Deep-Learning-Papers-for-Fish', 'PyTorch-Deep-Learning-Template', 'ksql-udf-deep-learning-mqtt-iot', 'keras-sharp', 'Awsome_Deep_Geometry_Learning', 'deep-RL-trading', 'Caffe-HRT', 'Deep-Learning-Papers-for-Fish', 'PyTorch-Deep-Learning-Template', 'ksql-udf-deep-learning-mqtt-iot', 'keras-sharp', 'Awsome_Deep_Geometry_Learning', 'deep-RL-trading', 'Caffe-HRT', 'Deep-Learning-Papers-for-Fish', 'PyTorch-Deep-Learning-Template', 'ksql-udf-deep-learning-mqtt-iot', 'keras-sharp', 'Awsome_Deep_Geometry_Learning', 'deep-RL-trading', 'Caffe-HRT', 'Deep-Learning-Papers-for-Fish', 'PyTorch-Deep-Learning-Template', 'ksql-udf-deep-learning-mqtt-iot', 'keras-sharp', 'Awsome_Deep_Geometry_Learning', 'deep-RL-trading', 'Caffe-HRT', 'Deep-Learning-Papers-for-Fish', 'PyTorch-Deep-Learning-Template', 'ksql-udf-deep-learning-mqtt-iot', 'keras-sharp', 'Awsome_Deep_Geometry_Learning', 'deep-RL-trading', 'Caffe-HRT', 'Deep-Learning-Papers-for-Fish', 'PyTorch-Deep-Learning-Template', 'ksql-udf-deep-learning-mqtt-iot', 'keras-sharp', 'Awsome_Deep_Geometry_Learning', 'deep-RL-trading', 'Caffe-HRT', 'Deep-Learning-Papers-for-Fish', 'PyTorch-Deep-Learning-Template', 'ksql-udf-deep-learning-mqtt-iot', 'keras-sharp', 'Awsome_Deep_Geometry_Learning', 'deep-RL-trading', 'Caffe-HRT', 'Deep-Learning-Papers-for-Fish', 'PyTorch-Deep-Learning-Template', 'ksql-udf-deep-learning-mqtt-iot', 'keras-sharp', 'Awsome_Deep_Geometry_Learning', 'deep-RL-trading', 'Caffe-HRT', 'Deep-Learning-Papers-for-Fish', 'PyTorch-Deep-Learning-Template', 'ksql-udf-deep-learning-mqtt-iot', 'keras-sharp', 'Awsome_Deep_Geometry_Learning', 'deep-RL-trading', 'Caffe-HRT', 'Deep-Learning-Papers-for-Fish', 'PyTorch-Deep-Learning-Template', 'ksql-udf-deep-learning-mqtt-iot', 'keras-sharp', 'Awsome_Deep_Geometry_Learning', 'deep-RL-trading', 'Caffe-HRT', 'Deep-Learning-Papers-for-Fish', 'PyTorch-Deep-Learning-Template', 'ksql-udf-deep-learning-mqtt-iot', 'keras-sharp', 'Awsome_Deep_Geometry_Learning', 'deep-RL-trading', 'Caffe-HRT', 'Deep-Learning-Papers-for-Fish', 'PyTorch-Deep-Learning-Template', 'ksql-udf-deep-learning-mqtt-iot', 'keras-sharp', 'Awsome_Deep_Geometry_Learning', 'deep-RL-trading', 'Caffe-HRT', 'Deep-Learning-Papers-for-Fish', 'PyTorch-Deep-Learning-Template', 'ksql-udf-deep-learning-mqtt-iot', 'keras-sharp', 'Awsome_Deep_Geometry_Learning', 'deep-RL-trading', 'Caffe-HRT', 'Deep-Learning-Papers-for-Fish', 'PyTorch-Deep-Learning-Template', 'ksql-udf-deep-learning-mqtt-iot', 'keras-sharp', 'Awsome_Deep_Geometry_Learning', 'deep-RL-trading', 'Caffe-HRT', 'Deep-Learning-Papers-for-Fish', 'PyTorch-Deep-Learning-Template', 'ksql-udf-deep-learning-mqtt-iot', 'keras-sharp', 'Awsome_Deep_Geometry_Learning', 'deep-RL-trading', 'Caffe-HRT', 'Deep-Learning-Papers-for-Fish', 'PyTorch-Deep-Learning-Template', 'ksql-udf-deep-learning-mqtt-iot', 'keras-sharp', 'Awsome_Deep_Geometry_Learning', 'deep-RL-trading', 'Caffe-HRT', 'Deep-Learning-Papers-for-Fish', 'PyTorch-Deep-Learning-Template', 'ksql-udf-deep-learning-mqtt-iot', 'keras-sharp', 'Awsome_Deep_Geometry_Learning', 'deep-RL-trading', 'Caffe-HRT', 'Deep-Learning-Papers-for-Fish', 'PyTorch-Deep-Learning-Template', 'ksql-udf-deep-learning-mqtt-iot', 'keras-sharp', 'Awsome_Deep_Geometry_Learning', 'deep-RL-trading', 'Caffe-HRT', 'Deep-Learning-Papers-for-Fish', 'PyTorch-Deep-Learning-Template', 'ksql-udf-deep-learning-mqtt-iot', 'keras-sharp', 'Awsome_Deep_Geometry_Learning', 'deep-RL-trading', 'Caffe-HRT', 'Deep-Learning-Papers-for-Fish', 'PyTorch-Deep-Learning-Template', 'ksql-udf-deep-learning-mqtt-iot', 'keras-sharp', 'Awsome_Deep_Geometry_Learning', 'deep-RL-trading', 'Caffe-HRT', 'Deep-Learning-Papers-for-Fish', 'PyTorch-Deep-Learning-Template', 'ksql-udf-deep-learning-mqtt-iot', 'keras-sharp', 'Awsome_Deep_Geometry_Learning', 'deep-RL-trading', 'Caffe-HRT', 'Deep-Learning-Papers-for-Fish', 'PyTorch-Deep-Learning-Template', 'ksql-udf-deep-learning-mqtt-iot', 'keras-sharp', 'Awsome_Deep_Geometry_Learning', 'deep-RL-trading', 'Caffe-HRT', 'Deep-Learning-Papers-for-Fish', 'PyTorch-Deep-Learning-Template', 'ksql-udf-deep-learning-mqtt-iot', 'keras-sharp', 'Awsome_Deep_Geometry_Learning', 'deep-RL-trading', 'Caffe-HRT', 'Deep-Learning-Papers-for-Fish', 'PyTorch-Deep-Learning-Template', 'ksql-udf-deep-learning-mqtt-iot', 'keras-sharp', 'Awsome_Deep_Geometry_Learning', 'deep-RL-trading', 'Caffe-HRT', 'Deep-Learning-Papers-for-Fish', 'PyTorch-Deep-Learning-Template', 'ksql-udf-deep-learning-mqtt-iot', 'keras-sharp', 'Awsome_Deep_Geometry_Learning', 'deep-RL-trading', 'Caffe-HRT', 'Deep-Learning-Papers-for-Fish', 'PyTorch-Deep-Learning-Template', 'ksql-udf-deep-learning-mqtt-iot', 'keras-sharp', 'Awsome_Deep_Geometry_Learning', 'deep-RL-trading', 'Caffe-HRT', 'Deep-Learning-Papers-for-Fish', 'PyTorch-Deep-Learning-Template', 'ksql-udf-deep-learning-mqtt-iot', 'keras-sharp', 'Awsome_Deep_Geometry_Learning', 'deep-RL-trading', 'Caffe-HRT', 'Deep-Learning-Papers-for-Fish', 'PyTorch-Deep-Learning-Template', 'ksql-udf-deep-learning-mqtt-iot', 'keras-sharp', 'Awsome_Deep_Geometry_Learning', 'deep-RL-trading', 'Caffe-HRT', 'Deep-Learning-Papers-for-Fish', 'PyTorch-Deep-Learning-Template', 'ksql-udf-deep-learning-mqtt-iot', 'keras-sharp', 'Awsome_Deep_Geometry_Learning', 'deep-RL-trading', 'Caffe-HRT', 'Deep-Learning-Papers-for-Fish', 'PyTorch-Deep-Learning-Template', 'ksql-udf-deep-learning-mqtt-iot', 'keras-sharp', 'Awsome_Deep_Geometry_Learning', 'deep-RL-trading', 'Caffe-HRT', 'Deep-Learning-Papers-for-Fish', 'PyTorch-Deep-Learning-Template', 'ksql-udf-deep-learning-mqtt-iot', 'keras-sharp', 'Awsome_Deep_Geometry_Learning', 'deep-RL-trading', 'Caffe-HRT', 'Deep-Learning-Papers-for-Fish', 'PyTorch-Deep-Learning-Template', 'ksql-udf-deep-learning-mqtt-iot', 'keras-sharp', 'Awsome_Deep_Geometry_Learning', 'deep-RL-trading', 'Caffe-HRT', 'Deep-Learning-Papers-for-Fish', 'PyTorch-Deep-Learning-Template', 'ksql-udf-deep-learning-mqtt-iot', 'keras-sharp', 'Awsome_Deep_Geometry_Learning', 'deep-RL-trading', 'Caffe-HRT', 'Deep-Learning-Papers-for-Fish', 'PyTorch-Deep-Learning-Template', 'ksql-udf-deep-learning-mqtt-iot', 'keras-sharp', 'Awsome_Deep_Geometry_Learning', 'deep-RL-trading', 'Caffe-HRT', 'Deep-Learning-Papers-for-Fish', 'PyTorch-Deep-Learning-Template', 'ksql-udf-deep-learning-mqtt-iot', 'keras-sharp', 'Awsome_Deep_Geometry_Learning', 'deep-RL-trading', 'Caffe-HRT', 'Deep-Learning-Papers-for-Fish', 'PyTorch-Deep-Learning-Template', 'ksql-udf-deep-learning-mqtt-iot', 'keras-sharp', 'Awsome_Deep_Geometry_Learning', 'deep-RL-trading', 'Caffe-HRT', 'Deep-Learning-Papers-for-Fish', 'PyTorch-Deep-Learning-Template', 'ksql-udf-deep-learning-mqtt-iot', 'keras-sharp', 'Awsome_Deep_Geometry_Learning', 'deep-RL-trading', 'Caffe-HRT', 'Deep-Learning-Papers-for-Fish', 'PyTorch-Deep-Learning-Template', 'ksql-udf-deep-learning-mqtt-iot', 'keras-sharp', 'Awsome_Deep_Geometry_Learning', 'deep-RL-trading', 'Caffe-HRT', 'Deep-Learning-Papers-for-Fish', 'PyTorch-Deep-Learning-Template', 'ksql-udf-deep-learning-mqtt-iot', 'keras-sharp', 'Awsome_Deep_Geometry_Learning', 'deep-RL-trading', 'Caffe-HRT', 'Deep-Learning-Papers-for-Fish', 'PyTorch-Deep-Learning-Template', 'ksql-udf-deep-learning-mqtt-iot', 'keras-sharp', 'Awsome_Deep_Geometry_Learning', 'deep-RL-trading', 'Caffe-HRT', 'Deep-Learning-Papers-for-Fish', 'PyTorch-Deep-Learning-Template', 'ksql-udf-deep-learning-mqtt-iot', 'keras-sharp', 'Awsome_Deep_Geometry_Learning', 'deep-RL-trading', 'Caffe-HRT', 'Deep-Learning-Papers-for-Fish', 'PyTorch-Deep-Learning-Template', 'ksql-udf-deep-learning-mqtt-iot', 'keras-sharp', 'Awsome_Deep_Geometry_Learning', 'deep-RL-trading', 'Caffe-HRT', 'Deep-Learning-Papers-for-Fish', 'PyTorch-Deep-Learning-Template', 'ksql-udf-deep-learning-mqtt-iot', 'keras-sharp', 'Awsome_Deep_Geometry_Learning', 'deep-RL-trading', 'Caffe-HRT', 'Deep-Learning-Papers-for-Fish', 'PyTorch-Deep-Learning-Template', 'ksql-udf-deep-learning-mqtt-iot', 'keras-sharp', 'Awsome_Deep_Geometry_Learning', 'deep-RL-trading', 'Caffe-HRT', 'Deep-Learning-Papers-for-Fish', 'PyTorch-Deep-Learning-Template', 'ksql-udf-deep-learning-mqtt-iot', 'keras-sharp', 'Awsome_Deep_Geometry_Learning', 'deep-RL-trading', 'Caffe-HRT', 'Deep-Learning-Papers-for-Fish', 'PyTorch-Deep-Learning-Template', 'ksql-udf-deep-learning-mqtt-iot', 'keras-sharp', 'Awsome_Deep_Geometry_Learning', 'deep-RL-trading', 'Caffe-HRT', 'Deep-Learning-Papers-for-Fish', 'PyTorch-Deep-Learning-Template', 'ksql-udf-deep-learning-mqtt-iot', 'keras-sharp', 'Awsome_Deep_Geometry_Learning', 'deep-RL-trading', 'Caffe-HRT', 'Deep-Learning-Papers-for-Fish', 'PyTorch-Deep-Learning-Template', 'ksql-udf-deep-learning-mqtt-iot', 'keras-sharp', 'Awsome_Deep_Geometry_Learning', 'deep-RL-trading', 'Caffe-HRT', 'Deep-Learning-Papers-for-Fish', 'PyTorch-Deep-Learning-Template', 'ksql-udf-deep-learning-mqtt-iot', 'keras-sharp', 'Awsome_Deep_Geometry_Learning', 'deep-RL-trading', 'Caffe-HRT', 'Deep-Learning-Papers-for-Fish', 'PyTorch-Deep-Learning-Template', 'ksql-udf-deep-learning-mqtt-iot', 'keras-sharp', 'Awsome_Deep_Geometry_Learning', 'deep-RL-trading', 'Caffe-HRT', 'Deep-Learning-Papers-for-Fish', 'PyTorch-Deep-Learning-Template', 'ksql-udf-deep-learning-mqtt-iot', 'keras-sharp', 'Awsome_Deep_Geometry_Learning', 'deep-RL-trading', 'Caffe-HRT', 'Deep-Learning-Papers-for-Fish', 'PyTorch-Deep-Learning-Template', 'ksql-udf-deep-learning-mqtt-iot', 'keras-sharp', 'Awsome_Deep_Geometry_Learning']</t>
-  </si>
-  <si>
-    <t>[('deep-learning', 455), ('pytorch', 273), ('auto-encoder', 91), ('auto-white-balance', 91), ('autoencoder', 91), ('color-constancy', 91), ('color-correction', 91), ('color-enhancement', 91), ('color-manipulation', 91), ('color-processing', 91), ('computational-photography', 91), ('cvpr-2020', 91), ('cvpr20', 91), ('cvpr2020', 91), ('deep-white-balance', 91)]</t>
-  </si>
-  <si>
-    <t>[('deep-learning', 913), ('machinelearning', 431), ('tensorflow', 252), ('python', 208), ('neural', 179), ('pytorch', 163), ('learning', 101), ('hacktoberfest', 100), ('deep', 97), ('system', 96), ('image', 96), ('keras-tensorflow', 96), ('remote-sensing', 96), ('robotics', 95), ('tracking', 94)]</t>
-  </si>
-  <si>
-    <t>[('deep-learning', 728), ('framework', 273), ('computer-vision', 182), ('neural', 182), ('tensorflow', 182), ('reinforcement-learning', 182), ('python', 182), ('machinelearning', 182), ('clinical-decision-support', 91), ('convolutional-neural-networks', 91), ('healthcare-imaging', 91), ('medical-image-analysis', 91), ('medical-image-processing', 91), ('medical-image-segmentation', 91), ('medical-imaging', 91)]</t>
-  </si>
-  <si>
-    <t>[('deep-learning', 546), ('machinelearning', 364), ('computer-vision', 273), ('neural', 273), ('nlp', 273), ('python', 182), ('representation-learning', 182), ('ai', 91), ('artificial-intelligence', 91), ('data', 91), ('gpu', 91), ('model-management', 91), ('bioinformatics', 91), ('docker', 91), ('convolutional-networks', 91)]</t>
-  </si>
-  <si>
-    <t>[('deep-learning', 723), ('machinelearning', 455), ('pytorch', 364), ('detection', 263), ('computer-vision', 182), ('keras', 182), ('google', 91), ('label', 91), ('noisy', 91), ('noisy-data', 91), ('cnn-for-visual-recognition', 91), ('gans', 91), ('rnn-pytorch', 91), ('word2vec', 91), ('code-server', 91)]</t>
-  </si>
-  <si>
-    <t>[('deep-learning', 182), ('dqn', 91), ('drl', 91), ('self-driving-car', 91), ('vehicle-simulator', 91), ('car-physics', 91), ('mlagent', 91), ('mlagents', 91), ('reinforcement-learning', 91), ('reinforcement-learning-environments', 91), ('rocket-league', 91), ('rocketleague', 91), ('unity', 91), ('unity-ml', 91), ('unity-ml-agents', 91)]</t>
-  </si>
-  <si>
-    <t>[('deep-learning', 546), ('tensorflow', 182), ('convolutional-neural-networks', 91), ('python', 91), ('pytorch', 91), ('reinforcement-learning', 91), ('cupy', 91), ('keras-style', 91), ('numpy', 91), ('pytorch-style', 91), ('aws', 91), ('aws-cloudformation', 91), ('deep-learning-ami', 91), ('distributed', 91), ('ec2-instance', 91)]</t>
-  </si>
-  <si>
-    <t>[('deep-learning', 370), ('machinelearning', 273), ('tensorflow', 187), ('android', 182), ('linux', 182), ('reinforcement-learning', 92), ('alpr', 91), ('anpr', 91), ('anpr-sdk', 91), ('artificial-intelligence', 91), ('jetson', 91), ('jetson-nano', 91), ('jetson-tx2', 91), ('license-plate', 91), ('license-plate-detection', 91)]</t>
-  </si>
-  <si>
-    <t>[('deep-learning', 819), ('machinelearning', 455), ('neural', 182), ('optimization', 182), ('reinforcement-learning', 182), ('tutorial', 182), ('hyperparameter-tuning', 91), ('programming', 91), ('agent', 91), ('data', 91), ('deep', 91), ('examples', 91), ('learning', 91), ('multiagent-reinforcement-learning', 91), ('python', 91)]</t>
-  </si>
-  <si>
-    <t>[('deep-learning', 546), ('machinelearning', 364), ('neural', 273), ('tensorflow', 182), ('dqn', 91), ('q-learning', 91), ('quantitative-trading', 91), ('reinforcement-learning', 91), ('stock', 91), ('stock-market', 91), ('time-series', 91), ('trading', 91), ('arm', 91), ('arm-compute-library', 91), ('arm-gpu', 91)]</t>
+    <t>['Car-Recognition', 'Caffe-HRT', 'learning-to-communicate-pytorch', 'deeplearning-cfn', 'seismic-deeplearning', 'dl_tutorial', 'nexus', 'ksql-udf-deep-learning-mqtt-iot', 'Car-Recognition', 'Caffe-HRT', 'learning-to-communicate-pytorch', 'deeplearning-cfn', 'seismic-deeplearning', 'dl_tutorial', 'nexus', 'ksql-udf-deep-learning-mqtt-iot', 'Car-Recognition', 'Caffe-HRT', 'learning-to-communicate-pytorch', 'deeplearning-cfn', 'seismic-deeplearning', 'dl_tutorial', 'nexus', 'ksql-udf-deep-learning-mqtt-iot', 'Car-Recognition', 'Caffe-HRT', 'learning-to-communicate-pytorch', 'deeplearning-cfn', 'seismic-deeplearning', 'dl_tutorial', 'nexus', 'ksql-udf-deep-learning-mqtt-iot', 'Car-Recognition', 'Caffe-HRT', 'learning-to-communicate-pytorch', 'deeplearning-cfn', 'seismic-deeplearning', 'dl_tutorial', 'nexus', 'ksql-udf-deep-learning-mqtt-iot', 'Car-Recognition', 'Caffe-HRT', 'learning-to-communicate-pytorch', 'deeplearning-cfn', 'seismic-deeplearning', 'dl_tutorial', 'nexus', 'ksql-udf-deep-learning-mqtt-iot', 'Car-Recognition', 'Caffe-HRT', 'learning-to-communicate-pytorch', 'deeplearning-cfn', 'seismic-deeplearning', 'dl_tutorial', 'nexus', 'ksql-udf-deep-learning-mqtt-iot', 'Car-Recognition', 'Caffe-HRT', 'learning-to-communicate-pytorch', 'deeplearning-cfn', 'seismic-deeplearning', 'dl_tutorial', 'nexus', 'ksql-udf-deep-learning-mqtt-iot', 'Car-Recognition', 'Caffe-HRT', 'learning-to-communicate-pytorch', 'deeplearning-cfn', 'seismic-deeplearning', 'dl_tutorial', 'nexus', 'ksql-udf-deep-learning-mqtt-iot', 'Car-Recognition', 'Caffe-HRT', 'learning-to-communicate-pytorch', 'deeplearning-cfn', 'seismic-deeplearning', 'dl_tutorial', 'nexus', 'ksql-udf-deep-learning-mqtt-iot', 'Car-Recognition', 'Caffe-HRT', 'learning-to-communicate-pytorch', 'deeplearning-cfn', 'seismic-deeplearning', 'dl_tutorial', 'nexus', 'ksql-udf-deep-learning-mqtt-iot', 'Car-Recognition', 'Caffe-HRT', 'learning-to-communicate-pytorch', 'deeplearning-cfn', 'seismic-deeplearning', 'dl_tutorial', 'nexus', 'ksql-udf-deep-learning-mqtt-iot', 'Car-Recognition', 'Caffe-HRT', 'learning-to-communicate-pytorch', 'deeplearning-cfn', 'seismic-deeplearning', 'dl_tutorial', 'nexus', 'ksql-udf-deep-learning-mqtt-iot', 'Car-Recognition', 'Caffe-HRT', 'learning-to-communicate-pytorch', 'deeplearning-cfn', 'seismic-deeplearning', 'dl_tutorial', 'nexus', 'ksql-udf-deep-learning-mqtt-iot', 'Car-Recognition', 'Caffe-HRT', 'learning-to-communicate-pytorch', 'deeplearning-cfn', 'seismic-deeplearning', 'dl_tutorial', 'nexus', 'ksql-udf-deep-learning-mqtt-iot', 'Car-Recognition', 'Caffe-HRT', 'learning-to-communicate-pytorch', 'deeplearning-cfn', 'seismic-deeplearning', 'dl_tutorial', 'nexus', 'ksql-udf-deep-learning-mqtt-iot', 'Car-Recognition', 'Caffe-HRT', 'learning-to-communicate-pytorch', 'deeplearning-cfn', 'seismic-deeplearning', 'dl_tutorial', 'nexus', 'ksql-udf-deep-learning-mqtt-iot', 'Car-Recognition', 'Caffe-HRT', 'learning-to-communicate-pytorch', 'deeplearning-cfn', 'seismic-deeplearning', 'dl_tutorial', 'nexus', 'ksql-udf-deep-learning-mqtt-iot', 'Car-Recognition', 'Caffe-HRT', 'learning-to-communicate-pytorch', 'deeplearning-cfn', 'seismic-deeplearning', 'dl_tutorial', 'nexus', 'ksql-udf-deep-learning-mqtt-iot', 'Car-Recognition', 'Caffe-HRT', 'learning-to-communicate-pytorch', 'deeplearning-cfn', 'seismic-deeplearning', 'dl_tutorial', 'nexus', 'ksql-udf-deep-learning-mqtt-iot', 'Car-Recognition', 'Caffe-HRT', 'learning-to-communicate-pytorch', 'deeplearning-cfn', 'seismic-deeplearning', 'dl_tutorial', 'nexus', 'ksql-udf-deep-learning-mqtt-iot', 'Car-Recognition', 'Caffe-HRT', 'learning-to-communicate-pytorch', 'deeplearning-cfn', 'seismic-deeplearning', 'dl_tutorial', 'nexus', 'ksql-udf-deep-learning-mqtt-iot', 'Car-Recognition', 'Caffe-HRT', 'learning-to-communicate-pytorch', 'deeplearning-cfn', 'seismic-deeplearning', 'dl_tutorial', 'nexus', 'ksql-udf-deep-learning-mqtt-iot', 'Car-Recognition', 'Caffe-HRT', 'learning-to-communicate-pytorch', 'deeplearning-cfn', 'seismic-deeplearning', 'dl_tutorial', 'nexus', 'ksql-udf-deep-learning-mqtt-iot', 'Car-Recognition', 'Caffe-HRT', 'learning-to-communicate-pytorch', 'deeplearning-cfn', 'seismic-deeplearning', 'dl_tutorial', 'nexus', 'ksql-udf-deep-learning-mqtt-iot', 'Car-Recognition', 'Caffe-HRT', 'learning-to-communicate-pytorch', 'deeplearning-cfn', 'seismic-deeplearning', 'dl_tutorial', 'nexus', 'ksql-udf-deep-learning-mqtt-iot', 'Car-Recognition', 'Caffe-HRT', 'learning-to-communicate-pytorch', 'deeplearning-cfn', 'seismic-deeplearning', 'dl_tutorial', 'nexus', 'ksql-udf-deep-learning-mqtt-iot', 'Car-Recognition', 'Caffe-HRT', 'learning-to-communicate-pytorch', 'deeplearning-cfn', 'seismic-deeplearning', 'dl_tutorial', 'nexus', 'ksql-udf-deep-learning-mqtt-iot', 'Car-Recognition', 'Caffe-HRT', 'learning-to-communicate-pytorch', 'deeplearning-cfn', 'seismic-deeplearning', 'dl_tutorial', 'nexus', 'ksql-udf-deep-learning-mqtt-iot', 'Car-Recognition', 'Caffe-HRT', 'learning-to-communicate-pytorch', 'deeplearning-cfn', 'seismic-deeplearning', 'dl_tutorial', 'nexus', 'ksql-udf-deep-learning-mqtt-iot', 'Car-Recognition', 'Caffe-HRT', 'learning-to-communicate-pytorch', 'deeplearning-cfn', 'seismic-deeplearning', 'dl_tutorial', 'nexus', 'ksql-udf-deep-learning-mqtt-iot', 'Car-Recognition', 'Caffe-HRT', 'learning-to-communicate-pytorch', 'deeplearning-cfn', 'seismic-deeplearning', 'dl_tutorial', 'nexus', 'ksql-udf-deep-learning-mqtt-iot', 'Car-Recognition', 'Caffe-HRT', 'learning-to-communicate-pytorch', 'deeplearning-cfn', 'seismic-deeplearning', 'dl_tutorial', 'nexus', 'ksql-udf-deep-learning-mqtt-iot', 'Car-Recognition', 'Caffe-HRT', 'learning-to-communicate-pytorch', 'deeplearning-cfn', 'seismic-deeplearning', 'dl_tutorial', 'nexus', 'ksql-udf-deep-learning-mqtt-iot', 'Car-Recognition', 'Caffe-HRT', 'learning-to-communicate-pytorch', 'deeplearning-cfn', 'seismic-deeplearning', 'dl_tutorial', 'nexus', 'ksql-udf-deep-learning-mqtt-iot', 'Car-Recognition', 'Caffe-HRT', 'learning-to-communicate-pytorch', 'deeplearning-cfn', 'seismic-deeplearning', 'dl_tutorial', 'nexus', 'ksql-udf-deep-learning-mqtt-iot', 'Car-Recognition', 'Caffe-HRT', 'learning-to-communicate-pytorch', 'deeplearning-cfn', 'seismic-deeplearning', 'dl_tutorial', 'nexus', 'ksql-udf-deep-learning-mqtt-iot', 'Car-Recognition', 'Caffe-HRT', 'learning-to-communicate-pytorch', 'deeplearning-cfn', 'seismic-deeplearning', 'dl_tutorial', 'nexus', 'ksql-udf-deep-learning-mqtt-iot', 'Car-Recognition', 'Caffe-HRT', 'learning-to-communicate-pytorch', 'deeplearning-cfn', 'seismic-deeplearning', 'dl_tutorial', 'nexus', 'ksql-udf-deep-learning-mqtt-iot', 'Car-Recognition', 'Caffe-HRT', 'learning-to-communicate-pytorch', 'deeplearning-cfn', 'seismic-deeplearning', 'dl_tutorial', 'nexus', 'ksql-udf-deep-learning-mqtt-iot', 'Car-Recognition', 'Caffe-HRT', 'learning-to-communicate-pytorch', 'deeplearning-cfn', 'seismic-deeplearning', 'dl_tutorial', 'nexus', 'ksql-udf-deep-learning-mqtt-iot', 'Car-Recognition', 'Caffe-HRT', 'learning-to-communicate-pytorch', 'deeplearning-cfn', 'seismic-deeplearning', 'dl_tutorial', 'nexus', 'ksql-udf-deep-learning-mqtt-iot', 'Car-Recognition', 'Caffe-HRT', 'learning-to-communicate-pytorch', 'deeplearning-cfn', 'seismic-deeplearning', 'dl_tutorial', 'nexus', 'ksql-udf-deep-learning-mqtt-iot', 'Car-Recognition', 'Caffe-HRT', 'learning-to-communicate-pytorch', 'deeplearning-cfn', 'seismic-deeplearning', 'dl_tutorial', 'nexus', 'ksql-udf-deep-learning-mqtt-iot', 'Car-Recognition', 'Caffe-HRT', 'learning-to-communicate-pytorch', 'deeplearning-cfn', 'seismic-deeplearning', 'dl_tutorial', 'nexus', 'ksql-udf-deep-learning-mqtt-iot', 'Car-Recognition', 'Caffe-HRT', 'learning-to-communicate-pytorch', 'deeplearning-cfn', 'seismic-deeplearning', 'dl_tutorial', 'nexus', 'ksql-udf-deep-learning-mqtt-iot', 'Car-Recognition', 'Caffe-HRT', 'learning-to-communicate-pytorch', 'deeplearning-cfn', 'seismic-deeplearning', 'dl_tutorial', 'nexus', 'ksql-udf-deep-learning-mqtt-iot', 'Car-Recognition', 'Caffe-HRT', 'learning-to-communicate-pytorch', 'deeplearning-cfn', 'seismic-deeplearning', 'dl_tutorial', 'nexus', 'ksql-udf-deep-learning-mqtt-iot', 'Car-Recognition', 'Caffe-HRT', 'learning-to-communicate-pytorch', 'deeplearning-cfn', 'seismic-deeplearning', 'dl_tutorial', 'nexus', 'ksql-udf-deep-learning-mqtt-iot', 'Car-Recognition', 'Caffe-HRT', 'learning-to-communicate-pytorch', 'deeplearning-cfn', 'seismic-deeplearning', 'dl_tutorial', 'nexus', 'ksql-udf-deep-learning-mqtt-iot', 'Car-Recognition', 'Caffe-HRT', 'learning-to-communicate-pytorch', 'deeplearning-cfn', 'seismic-deeplearning', 'dl_tutorial', 'nexus', 'ksql-udf-deep-learning-mqtt-iot', 'Car-Recognition', 'Caffe-HRT', 'learning-to-communicate-pytorch', 'deeplearning-cfn', 'seismic-deeplearning', 'dl_tutorial', 'nexus', 'ksql-udf-deep-learning-mqtt-iot', 'Car-Recognition', 'Caffe-HRT', 'learning-to-communicate-pytorch', 'deeplearning-cfn', 'seismic-deeplearning', 'dl_tutorial', 'nexus', 'ksql-udf-deep-learning-mqtt-iot', 'Car-Recognition', 'Caffe-HRT', 'learning-to-communicate-pytorch', 'deeplearning-cfn', 'seismic-deeplearning', 'dl_tutorial', 'nexus', 'ksql-udf-deep-learning-mqtt-iot', 'Car-Recognition', 'Caffe-HRT', 'learning-to-communicate-pytorch', 'deeplearning-cfn', 'seismic-deeplearning', 'dl_tutorial', 'nexus', 'ksql-udf-deep-learning-mqtt-iot', 'Car-Recognition', 'Caffe-HRT', 'learning-to-communicate-pytorch', 'deeplearning-cfn', 'seismic-deeplearning', 'dl_tutorial', 'nexus', 'ksql-udf-deep-learning-mqtt-iot', 'Car-Recognition', 'Caffe-HRT', 'learning-to-communicate-pytorch', 'deeplearning-cfn', 'seismic-deeplearning', 'dl_tutorial', 'nexus', 'ksql-udf-deep-learning-mqtt-iot', 'Car-Recognition', 'Caffe-HRT', 'learning-to-communicate-pytorch', 'deeplearning-cfn', 'seismic-deeplearning', 'dl_tutorial', 'nexus', 'ksql-udf-deep-learning-mqtt-iot', 'Car-Recognition', 'Caffe-HRT', 'learning-to-communicate-pytorch', 'deeplearning-cfn', 'seismic-deeplearning', 'dl_tutorial', 'nexus', 'ksql-udf-deep-learning-mqtt-iot', 'Car-Recognition', 'Caffe-HRT', 'learning-to-communicate-pytorch', 'deeplearning-cfn', 'seismic-deeplearning', 'dl_tutorial', 'nexus', 'ksql-udf-deep-learning-mqtt-iot', 'Car-Recognition', 'Caffe-HRT', 'learning-to-communicate-pytorch', 'deeplearning-cfn', 'seismic-deeplearning', 'dl_tutorial', 'nexus', 'ksql-udf-deep-learning-mqtt-iot', 'Car-Recognition', 'Caffe-HRT', 'learning-to-communicate-pytorch', 'deeplearning-cfn', 'seismic-deeplearning', 'dl_tutorial', 'nexus', 'ksql-udf-deep-learning-mqtt-iot', 'Car-Recognition', 'Caffe-HRT', 'learning-to-communicate-pytorch', 'deeplearning-cfn', 'seismic-deeplearning', 'dl_tutorial', 'nexus', 'ksql-udf-deep-learning-mqtt-iot', 'Car-Recognition', 'Caffe-HRT', 'learning-to-communicate-pytorch', 'deeplearning-cfn', 'seismic-deeplearning', 'dl_tutorial', 'nexus', 'ksql-udf-deep-learning-mqtt-iot', 'Car-Recognition', 'Caffe-HRT', 'learning-to-communicate-pytorch', 'deeplearning-cfn', 'seismic-deeplearning', 'dl_tutorial', 'nexus', 'ksql-udf-deep-learning-mqtt-iot', 'Car-Recognition', 'Caffe-HRT', 'learning-to-communicate-pytorch', 'deeplearning-cfn', 'seismic-deeplearning', 'dl_tutorial', 'nexus', 'ksql-udf-deep-learning-mqtt-iot', 'Car-Recognition', 'Caffe-HRT', 'learning-to-communicate-pytorch', 'deeplearning-cfn', 'seismic-deeplearning', 'dl_tutorial', 'nexus', 'ksql-udf-deep-learning-mqtt-iot', 'Car-Recognition', 'Caffe-HRT', 'learning-to-communicate-pytorch', 'deeplearning-cfn', 'seismic-deeplearning', 'dl_tutorial', 'nexus', 'ksql-udf-deep-learning-mqtt-iot', 'Car-Recognition', 'Caffe-HRT', 'learning-to-communicate-pytorch', 'deeplearning-cfn', 'seismic-deeplearning', 'dl_tutorial', 'nexus', 'ksql-udf-deep-learning-mqtt-iot', 'Car-Recognition', 'Caffe-HRT', 'learning-to-communicate-pytorch', 'deeplearning-cfn', 'seismic-deeplearning', 'dl_tutorial', 'nexus', 'ksql-udf-deep-learning-mqtt-iot', 'Car-Recognition', 'Caffe-HRT', 'learning-to-communicate-pytorch', 'deeplearning-cfn', 'seismic-deeplearning', 'dl_tutorial', 'nexus', 'ksql-udf-deep-learning-mqtt-iot', 'Car-Recognition', 'Caffe-HRT', 'learning-to-communicate-pytorch', 'deeplearning-cfn', 'seismic-deeplearning', 'dl_tutorial', 'nexus', 'ksql-udf-deep-learning-mqtt-iot', 'Car-Recognition', 'Caffe-HRT', 'learning-to-communicate-pytorch', 'deeplearning-cfn', 'seismic-deeplearning', 'dl_tutorial', 'nexus', 'ksql-udf-deep-learning-mqtt-iot', 'Car-Recognition', 'Caffe-HRT', 'learning-to-communicate-pytorch', 'deeplearning-cfn', 'seismic-deeplearning', 'dl_tutorial', 'nexus', 'ksql-udf-deep-learning-mqtt-iot', 'Car-Recognition', 'Caffe-HRT', 'learning-to-communicate-pytorch', 'deeplearning-cfn', 'seismic-deeplearning', 'dl_tutorial', 'nexus', 'ksql-udf-deep-learning-mqtt-iot', 'Car-Recognition', 'Caffe-HRT', 'learning-to-communicate-pytorch', 'deeplearning-cfn', 'seismic-deeplearning', 'dl_tutorial', 'nexus', 'ksql-udf-deep-learning-mqtt-iot', 'Car-Recognition', 'Caffe-HRT', 'learning-to-communicate-pytorch', 'deeplearning-cfn', 'seismic-deeplearning', 'dl_tutorial', 'nexus', 'ksql-udf-deep-learning-mqtt-iot', 'Car-Recognition', 'Caffe-HRT', 'learning-to-communicate-pytorch', 'deeplearning-cfn', 'seismic-deeplearning', 'dl_tutorial', 'nexus', 'ksql-udf-deep-learning-mqtt-iot', 'Car-Recognition', 'Caffe-HRT', 'learning-to-communicate-pytorch', 'deeplearning-cfn', 'seismic-deeplearning', 'dl_tutorial', 'nexus', 'ksql-udf-deep-learning-mqtt-iot', 'Car-Recognition', 'Caffe-HRT', 'learning-to-communicate-pytorch', 'deeplearning-cfn', 'seismic-deeplearning', 'dl_tutorial', 'nexus', 'ksql-udf-deep-learning-mqtt-iot', 'Car-Recognition', 'Caffe-HRT', 'learning-to-communicate-pytorch', 'deeplearning-cfn', 'seismic-deeplearning', 'dl_tutorial', 'nexus', 'ksql-udf-deep-learning-mqtt-iot', 'Car-Recognition', 'Caffe-HRT', 'learning-to-communicate-pytorch', 'deeplearning-cfn', 'seismic-deeplearning', 'dl_tutorial', 'nexus', 'ksql-udf-deep-learning-mqtt-iot', 'Car-Recognition', 'Caffe-HRT', 'learning-to-communicate-pytorch', 'deeplearning-cfn', 'seismic-deeplearning', 'dl_tutorial', 'nexus', 'ksql-udf-deep-learning-mqtt-iot', 'Car-Recognition', 'Caffe-HRT', 'learning-to-communicate-pytorch', 'deeplearning-cfn', 'seismic-deeplearning', 'dl_tutorial', 'nexus', 'ksql-udf-deep-learning-mqtt-iot', 'Car-Recognition', 'Caffe-HRT', 'learning-to-communicate-pytorch', 'deeplearning-cfn', 'seismic-deeplearning', 'dl_tutorial', 'nexus', 'ksql-udf-deep-learning-mqtt-iot', 'Car-Recognition', 'Caffe-HRT', 'learning-to-communicate-pytorch', 'deeplearning-cfn', 'seismic-deeplearning', 'dl_tutorial', 'nexus', 'ksql-udf-deep-learning-mqtt-iot', 'Car-Recognition', 'Caffe-HRT', 'learning-to-communicate-pytorch', 'deeplearning-cfn', 'seismic-deeplearning', 'dl_tutorial', 'nexus', 'ksql-udf-deep-learning-mqtt-iot', 'Car-Recognition', 'Caffe-HRT', 'learning-to-communicate-pytorch', 'deeplearning-cfn', 'seismic-deeplearning', 'dl_tutorial', 'nexus', 'ksql-udf-deep-learning-mqtt-iot', 'Car-Recognition', 'Caffe-HRT', 'learning-to-communicate-pytorch', 'deeplearning-cfn', 'seismic-deeplearning', 'dl_tutorial', 'nexus', 'ksql-udf-deep-learning-mqtt-iot', 'Car-Recognition', 'Caffe-HRT', 'learning-to-communicate-pytorch', 'deeplearning-cfn', 'seismic-deeplearning', 'dl_tutorial', 'nexus', 'ksql-udf-deep-learning-mqtt-iot', 'Car-Recognition', 'Caffe-HRT', 'learning-to-communicate-pytorch', 'deeplearning-cfn', 'seismic-deeplearning', 'dl_tutorial', 'nexus', 'ksql-udf-deep-learning-mqtt-iot']</t>
+  </si>
+  <si>
+    <t>['mlspace', 'DeepLearning-Challenges', 'DRL_based_SelfDrivingCarControl', 'source_separation', 'masif', 'DeepLearningCourseCodes', 'Deep-learning-with-Python', 'keras-sharp', 'mlspace', 'DeepLearning-Challenges', 'DRL_based_SelfDrivingCarControl', 'source_separation', 'masif', 'DeepLearningCourseCodes', 'Deep-learning-with-Python', 'keras-sharp', 'mlspace', 'DeepLearning-Challenges', 'DRL_based_SelfDrivingCarControl', 'source_separation', 'masif', 'DeepLearningCourseCodes', 'Deep-learning-with-Python', 'keras-sharp', 'mlspace', 'DeepLearning-Challenges', 'DRL_based_SelfDrivingCarControl', 'source_separation', 'masif', 'DeepLearningCourseCodes', 'Deep-learning-with-Python', 'keras-sharp', 'mlspace', 'DeepLearning-Challenges', 'DRL_based_SelfDrivingCarControl', 'source_separation', 'masif', 'DeepLearningCourseCodes', 'Deep-learning-with-Python', 'keras-sharp', 'mlspace', 'DeepLearning-Challenges', 'DRL_based_SelfDrivingCarControl', 'source_separation', 'masif', 'DeepLearningCourseCodes', 'Deep-learning-with-Python', 'keras-sharp', 'mlspace', 'DeepLearning-Challenges', 'DRL_based_SelfDrivingCarControl', 'source_separation', 'masif', 'DeepLearningCourseCodes', 'Deep-learning-with-Python', 'keras-sharp', 'mlspace', 'DeepLearning-Challenges', 'DRL_based_SelfDrivingCarControl', 'source_separation', 'masif', 'DeepLearningCourseCodes', 'Deep-learning-with-Python', 'keras-sharp', 'mlspace', 'DeepLearning-Challenges', 'DRL_based_SelfDrivingCarControl', 'source_separation', 'masif', 'DeepLearningCourseCodes', 'Deep-learning-with-Python', 'keras-sharp', 'mlspace', 'DeepLearning-Challenges', 'DRL_based_SelfDrivingCarControl', 'source_separation', 'masif', 'DeepLearningCourseCodes', 'Deep-learning-with-Python', 'keras-sharp', 'mlspace', 'DeepLearning-Challenges', 'DRL_based_SelfDrivingCarControl', 'source_separation', 'masif', 'DeepLearningCourseCodes', 'Deep-learning-with-Python', 'keras-sharp', 'mlspace', 'DeepLearning-Challenges', 'DRL_based_SelfDrivingCarControl', 'source_separation', 'masif', 'DeepLearningCourseCodes', 'Deep-learning-with-Python', 'keras-sharp', 'mlspace', 'DeepLearning-Challenges', 'DRL_based_SelfDrivingCarControl', 'source_separation', 'masif', 'DeepLearningCourseCodes', 'Deep-learning-with-Python', 'keras-sharp', 'mlspace', 'DeepLearning-Challenges', 'DRL_based_SelfDrivingCarControl', 'source_separation', 'masif', 'DeepLearningCourseCodes', 'Deep-learning-with-Python', 'keras-sharp', 'mlspace', 'DeepLearning-Challenges', 'DRL_based_SelfDrivingCarControl', 'source_separation', 'masif', 'DeepLearningCourseCodes', 'Deep-learning-with-Python', 'keras-sharp', 'mlspace', 'DeepLearning-Challenges', 'DRL_based_SelfDrivingCarControl', 'source_separation', 'masif', 'DeepLearningCourseCodes', 'Deep-learning-with-Python', 'keras-sharp', 'mlspace', 'DeepLearning-Challenges', 'DRL_based_SelfDrivingCarControl', 'source_separation', 'masif', 'DeepLearningCourseCodes', 'Deep-learning-with-Python', 'keras-sharp', 'mlspace', 'DeepLearning-Challenges', 'DRL_based_SelfDrivingCarControl', 'source_separation', 'masif', 'DeepLearningCourseCodes', 'Deep-learning-with-Python', 'keras-sharp', 'mlspace', 'DeepLearning-Challenges', 'DRL_based_SelfDrivingCarControl', 'source_separation', 'masif', 'DeepLearningCourseCodes', 'Deep-learning-with-Python', 'keras-sharp', 'mlspace', 'DeepLearning-Challenges', 'DRL_based_SelfDrivingCarControl', 'source_separation', 'masif', 'DeepLearningCourseCodes', 'Deep-learning-with-Python', 'keras-sharp', 'mlspace', 'DeepLearning-Challenges', 'DRL_based_SelfDrivingCarControl', 'source_separation', 'masif', 'DeepLearningCourseCodes', 'Deep-learning-with-Python', 'keras-sharp', 'mlspace', 'DeepLearning-Challenges', 'DRL_based_SelfDrivingCarControl', 'source_separation', 'masif', 'DeepLearningCourseCodes', 'Deep-learning-with-Python', 'keras-sharp', 'mlspace', 'DeepLearning-Challenges', 'DRL_based_SelfDrivingCarControl', 'source_separation', 'masif', 'DeepLearningCourseCodes', 'Deep-learning-with-Python', 'keras-sharp', 'mlspace', 'DeepLearning-Challenges', 'DRL_based_SelfDrivingCarControl', 'source_separation', 'masif', 'DeepLearningCourseCodes', 'Deep-learning-with-Python', 'keras-sharp', 'mlspace', 'DeepLearning-Challenges', 'DRL_based_SelfDrivingCarControl', 'source_separation', 'masif', 'DeepLearningCourseCodes', 'Deep-learning-with-Python', 'keras-sharp', 'mlspace', 'DeepLearning-Challenges', 'DRL_based_SelfDrivingCarControl', 'source_separation', 'masif', 'DeepLearningCourseCodes', 'Deep-learning-with-Python', 'keras-sharp', 'mlspace', 'DeepLearning-Challenges', 'DRL_based_SelfDrivingCarControl', 'source_separation', 'masif', 'DeepLearningCourseCodes', 'Deep-learning-with-Python', 'keras-sharp', 'mlspace', 'DeepLearning-Challenges', 'DRL_based_SelfDrivingCarControl', 'source_separation', 'masif', 'DeepLearningCourseCodes', 'Deep-learning-with-Python', 'keras-sharp', 'mlspace', 'DeepLearning-Challenges', 'DRL_based_SelfDrivingCarControl', 'source_separation', 'masif', 'DeepLearningCourseCodes', 'Deep-learning-with-Python', 'keras-sharp', 'mlspace', 'DeepLearning-Challenges', 'DRL_based_SelfDrivingCarControl', 'source_separation', 'masif', 'DeepLearningCourseCodes', 'Deep-learning-with-Python', 'keras-sharp', 'mlspace', 'DeepLearning-Challenges', 'DRL_based_SelfDrivingCarControl', 'source_separation', 'masif', 'DeepLearningCourseCodes', 'Deep-learning-with-Python', 'keras-sharp', 'mlspace', 'DeepLearning-Challenges', 'DRL_based_SelfDrivingCarControl', 'source_separation', 'masif', 'DeepLearningCourseCodes', 'Deep-learning-with-Python', 'keras-sharp', 'mlspace', 'DeepLearning-Challenges', 'DRL_based_SelfDrivingCarControl', 'source_separation', 'masif', 'DeepLearningCourseCodes', 'Deep-learning-with-Python', 'keras-sharp', 'mlspace', 'DeepLearning-Challenges', 'DRL_based_SelfDrivingCarControl', 'source_separation', 'masif', 'DeepLearningCourseCodes', 'Deep-learning-with-Python', 'keras-sharp', 'mlspace', 'DeepLearning-Challenges', 'DRL_based_SelfDrivingCarControl', 'source_separation', 'masif', 'DeepLearningCourseCodes', 'Deep-learning-with-Python', 'keras-sharp', 'mlspace', 'DeepLearning-Challenges', 'DRL_based_SelfDrivingCarControl', 'source_separation', 'masif', 'DeepLearningCourseCodes', 'Deep-learning-with-Python', 'keras-sharp', 'mlspace', 'DeepLearning-Challenges', 'DRL_based_SelfDrivingCarControl', 'source_separation', 'masif', 'DeepLearningCourseCodes', 'Deep-learning-with-Python', 'keras-sharp', 'mlspace', 'DeepLearning-Challenges', 'DRL_based_SelfDrivingCarControl', 'source_separation', 'masif', 'DeepLearningCourseCodes', 'Deep-learning-with-Python', 'keras-sharp', 'mlspace', 'DeepLearning-Challenges', 'DRL_based_SelfDrivingCarControl', 'source_separation', 'masif', 'DeepLearningCourseCodes', 'Deep-learning-with-Python', 'keras-sharp', 'mlspace', 'DeepLearning-Challenges', 'DRL_based_SelfDrivingCarControl', 'source_separation', 'masif', 'DeepLearningCourseCodes', 'Deep-learning-with-Python', 'keras-sharp', 'mlspace', 'DeepLearning-Challenges', 'DRL_based_SelfDrivingCarControl', 'source_separation', 'masif', 'DeepLearningCourseCodes', 'Deep-learning-with-Python', 'keras-sharp', 'mlspace', 'DeepLearning-Challenges', 'DRL_based_SelfDrivingCarControl', 'source_separation', 'masif', 'DeepLearningCourseCodes', 'Deep-learning-with-Python', 'keras-sharp', 'mlspace', 'DeepLearning-Challenges', 'DRL_based_SelfDrivingCarControl', 'source_separation', 'masif', 'DeepLearningCourseCodes', 'Deep-learning-with-Python', 'keras-sharp', 'mlspace', 'DeepLearning-Challenges', 'DRL_based_SelfDrivingCarControl', 'source_separation', 'masif', 'DeepLearningCourseCodes', 'Deep-learning-with-Python', 'keras-sharp', 'mlspace', 'DeepLearning-Challenges', 'DRL_based_SelfDrivingCarControl', 'source_separation', 'masif', 'DeepLearningCourseCodes', 'Deep-learning-with-Python', 'keras-sharp', 'mlspace', 'DeepLearning-Challenges', 'DRL_based_SelfDrivingCarControl', 'source_separation', 'masif', 'DeepLearningCourseCodes', 'Deep-learning-with-Python', 'keras-sharp', 'mlspace', 'DeepLearning-Challenges', 'DRL_based_SelfDrivingCarControl', 'source_separation', 'masif', 'DeepLearningCourseCodes', 'Deep-learning-with-Python', 'keras-sharp', 'mlspace', 'DeepLearning-Challenges', 'DRL_based_SelfDrivingCarControl', 'source_separation', 'masif', 'DeepLearningCourseCodes', 'Deep-learning-with-Python', 'keras-sharp', 'mlspace', 'DeepLearning-Challenges', 'DRL_based_SelfDrivingCarControl', 'source_separation', 'masif', 'DeepLearningCourseCodes', 'Deep-learning-with-Python', 'keras-sharp', 'mlspace', 'DeepLearning-Challenges', 'DRL_based_SelfDrivingCarControl', 'source_separation', 'masif', 'DeepLearningCourseCodes', 'Deep-learning-with-Python', 'keras-sharp', 'mlspace', 'DeepLearning-Challenges', 'DRL_based_SelfDrivingCarControl', 'source_separation', 'masif', 'DeepLearningCourseCodes', 'Deep-learning-with-Python', 'keras-sharp', 'mlspace', 'DeepLearning-Challenges', 'DRL_based_SelfDrivingCarControl', 'source_separation', 'masif', 'DeepLearningCourseCodes', 'Deep-learning-with-Python', 'keras-sharp', 'mlspace', 'DeepLearning-Challenges', 'DRL_based_SelfDrivingCarControl', 'source_separation', 'masif', 'DeepLearningCourseCodes', 'Deep-learning-with-Python', 'keras-sharp', 'mlspace', 'DeepLearning-Challenges', 'DRL_based_SelfDrivingCarControl', 'source_separation', 'masif', 'DeepLearningCourseCodes', 'Deep-learning-with-Python', 'keras-sharp', 'mlspace', 'DeepLearning-Challenges', 'DRL_based_SelfDrivingCarControl', 'source_separation', 'masif', 'DeepLearningCourseCodes', 'Deep-learning-with-Python', 'keras-sharp', 'mlspace', 'DeepLearning-Challenges', 'DRL_based_SelfDrivingCarControl', 'source_separation', 'masif', 'DeepLearningCourseCodes', 'Deep-learning-with-Python', 'keras-sharp', 'mlspace', 'DeepLearning-Challenges', 'DRL_based_SelfDrivingCarControl', 'source_separation', 'masif', 'DeepLearningCourseCodes', 'Deep-learning-with-Python', 'keras-sharp', 'mlspace', 'DeepLearning-Challenges', 'DRL_based_SelfDrivingCarControl', 'source_separation', 'masif', 'DeepLearningCourseCodes', 'Deep-learning-with-Python', 'keras-sharp', 'mlspace', 'DeepLearning-Challenges', 'DRL_based_SelfDrivingCarControl', 'source_separation', 'masif', 'DeepLearningCourseCodes', 'Deep-learning-with-Python', 'keras-sharp', 'mlspace', 'DeepLearning-Challenges', 'DRL_based_SelfDrivingCarControl', 'source_separation', 'masif', 'DeepLearningCourseCodes', 'Deep-learning-with-Python', 'keras-sharp', 'mlspace', 'DeepLearning-Challenges', 'DRL_based_SelfDrivingCarControl', 'source_separation', 'masif', 'DeepLearningCourseCodes', 'Deep-learning-with-Python', 'keras-sharp', 'mlspace', 'DeepLearning-Challenges', 'DRL_based_SelfDrivingCarControl', 'source_separation', 'masif', 'DeepLearningCourseCodes', 'Deep-learning-with-Python', 'keras-sharp', 'mlspace', 'DeepLearning-Challenges', 'DRL_based_SelfDrivingCarControl', 'source_separation', 'masif', 'DeepLearningCourseCodes', 'Deep-learning-with-Python', 'keras-sharp', 'mlspace', 'DeepLearning-Challenges', 'DRL_based_SelfDrivingCarControl', 'source_separation', 'masif', 'DeepLearningCourseCodes', 'Deep-learning-with-Python', 'keras-sharp', 'mlspace', 'DeepLearning-Challenges', 'DRL_based_SelfDrivingCarControl', 'source_separation', 'masif', 'DeepLearningCourseCodes', 'Deep-learning-with-Python', 'keras-sharp', 'mlspace', 'DeepLearning-Challenges', 'DRL_based_SelfDrivingCarControl', 'source_separation', 'masif', 'DeepLearningCourseCodes', 'Deep-learning-with-Python', 'keras-sharp', 'mlspace', 'DeepLearning-Challenges', 'DRL_based_SelfDrivingCarControl', 'source_separation', 'masif', 'DeepLearningCourseCodes', 'Deep-learning-with-Python', 'keras-sharp', 'mlspace', 'DeepLearning-Challenges', 'DRL_based_SelfDrivingCarControl', 'source_separation', 'masif', 'DeepLearningCourseCodes', 'Deep-learning-with-Python', 'keras-sharp', 'mlspace', 'DeepLearning-Challenges', 'DRL_based_SelfDrivingCarControl', 'source_separation', 'masif', 'DeepLearningCourseCodes', 'Deep-learning-with-Python', 'keras-sharp', 'mlspace', 'DeepLearning-Challenges', 'DRL_based_SelfDrivingCarControl', 'source_separation', 'masif', 'DeepLearningCourseCodes', 'Deep-learning-with-Python', 'keras-sharp', 'mlspace', 'DeepLearning-Challenges', 'DRL_based_SelfDrivingCarControl', 'source_separation', 'masif', 'DeepLearningCourseCodes', 'Deep-learning-with-Python', 'keras-sharp', 'mlspace', 'DeepLearning-Challenges', 'DRL_based_SelfDrivingCarControl', 'source_separation', 'masif', 'DeepLearningCourseCodes', 'Deep-learning-with-Python', 'keras-sharp', 'mlspace', 'DeepLearning-Challenges', 'DRL_based_SelfDrivingCarControl', 'source_separation', 'masif', 'DeepLearningCourseCodes', 'Deep-learning-with-Python', 'keras-sharp', 'mlspace', 'DeepLearning-Challenges', 'DRL_based_SelfDrivingCarControl', 'source_separation', 'masif', 'DeepLearningCourseCodes', 'Deep-learning-with-Python', 'keras-sharp', 'mlspace', 'DeepLearning-Challenges', 'DRL_based_SelfDrivingCarControl', 'source_separation', 'masif', 'DeepLearningCourseCodes', 'Deep-learning-with-Python', 'keras-sharp', 'mlspace', 'DeepLearning-Challenges', 'DRL_based_SelfDrivingCarControl', 'source_separation', 'masif', 'DeepLearningCourseCodes', 'Deep-learning-with-Python', 'keras-sharp', 'mlspace', 'DeepLearning-Challenges', 'DRL_based_SelfDrivingCarControl', 'source_separation', 'masif', 'DeepLearningCourseCodes', 'Deep-learning-with-Python', 'keras-sharp', 'mlspace', 'DeepLearning-Challenges', 'DRL_based_SelfDrivingCarControl', 'source_separation', 'masif', 'DeepLearningCourseCodes', 'Deep-learning-with-Python', 'keras-sharp', 'mlspace', 'DeepLearning-Challenges', 'DRL_based_SelfDrivingCarControl', 'source_separation', 'masif', 'DeepLearningCourseCodes', 'Deep-learning-with-Python', 'keras-sharp', 'mlspace', 'DeepLearning-Challenges', 'DRL_based_SelfDrivingCarControl', 'source_separation', 'masif', 'DeepLearningCourseCodes', 'Deep-learning-with-Python', 'keras-sharp', 'mlspace', 'DeepLearning-Challenges', 'DRL_based_SelfDrivingCarControl', 'source_separation', 'masif', 'DeepLearningCourseCodes', 'Deep-learning-with-Python', 'keras-sharp', 'mlspace', 'DeepLearning-Challenges', 'DRL_based_SelfDrivingCarControl', 'source_separation', 'masif', 'DeepLearningCourseCodes', 'Deep-learning-with-Python', 'keras-sharp', 'mlspace', 'DeepLearning-Challenges', 'DRL_based_SelfDrivingCarControl', 'source_separation', 'masif', 'DeepLearningCourseCodes', 'Deep-learning-with-Python', 'keras-sharp', 'mlspace', 'DeepLearning-Challenges', 'DRL_based_SelfDrivingCarControl', 'source_separation', 'masif', 'DeepLearningCourseCodes', 'Deep-learning-with-Python', 'keras-sharp', 'mlspace', 'DeepLearning-Challenges', 'DRL_based_SelfDrivingCarControl', 'source_separation', 'masif', 'DeepLearningCourseCodes', 'Deep-learning-with-Python', 'keras-sharp', 'mlspace', 'DeepLearning-Challenges', 'DRL_based_SelfDrivingCarControl', 'source_separation', 'masif', 'DeepLearningCourseCodes', 'Deep-learning-with-Python', 'keras-sharp', 'mlspace', 'DeepLearning-Challenges', 'DRL_based_SelfDrivingCarControl', 'source_separation', 'masif', 'DeepLearningCourseCodes', 'Deep-learning-with-Python', 'keras-sharp', 'mlspace', 'DeepLearning-Challenges', 'DRL_based_SelfDrivingCarControl', 'source_separation', 'masif', 'DeepLearningCourseCodes', 'Deep-learning-with-Python', 'keras-sharp', 'mlspace', 'DeepLearning-Challenges', 'DRL_based_SelfDrivingCarControl', 'source_separation', 'masif', 'DeepLearningCourseCodes', 'Deep-learning-with-Python', 'keras-sharp', 'mlspace', 'DeepLearning-Challenges', 'DRL_based_SelfDrivingCarControl', 'source_separation', 'masif', 'DeepLearningCourseCodes', 'Deep-learning-with-Python', 'keras-sharp', 'mlspace', 'DeepLearning-Challenges', 'DRL_based_SelfDrivingCarControl', 'source_separation', 'masif', 'DeepLearningCourseCodes', 'Deep-learning-with-Python', 'keras-sharp']</t>
+  </si>
+  <si>
+    <t>['DeepPruner', 'book_DeepLearning_in_PyTorch_Source', 'RoboLeague', 'wide_deep', 'dawn-bench-entries', 'DeepInfomaxPytorch', 'PyTorch-Deep-Learning-Template', 'DeepPruner', 'book_DeepLearning_in_PyTorch_Source', 'RoboLeague', 'wide_deep', 'dawn-bench-entries', 'Revisiting_Deep_Metric_Learning_PyTorch', 'DeepInfomaxPytorch', 'PyTorch-Deep-Learning-Template', 'DeepPruner', 'book_DeepLearning_in_PyTorch_Source', 'RoboLeague', 'wide_deep', 'dawn-bench-entries', 'DeepInfomaxPytorch', 'PyTorch-Deep-Learning-Template', 'DeepPruner', 'book_DeepLearning_in_PyTorch_Source', 'RoboLeague', 'wide_deep', 'dawn-bench-entries', 'DeepInfomaxPytorch', 'PyTorch-Deep-Learning-Template', 'DeepPruner', 'book_DeepLearning_in_PyTorch_Source', 'RoboLeague', 'wide_deep', 'dawn-bench-entries', 'Revisiting_Deep_Metric_Learning_PyTorch', 'DeepInfomaxPytorch', 'PyTorch-Deep-Learning-Template', 'DeepPruner', 'book_DeepLearning_in_PyTorch_Source', 'RoboLeague', 'wide_deep', 'dawn-bench-entries', 'DeepInfomaxPytorch', 'PyTorch-Deep-Learning-Template', 'DeepPruner', 'book_DeepLearning_in_PyTorch_Source', 'RoboLeague', 'wide_deep', 'dawn-bench-entries', 'DeepInfomaxPytorch', 'PyTorch-Deep-Learning-Template', 'DeepPruner', 'book_DeepLearning_in_PyTorch_Source', 'RoboLeague', 'wide_deep', 'dawn-bench-entries', 'DeepInfomaxPytorch', 'PyTorch-Deep-Learning-Template', 'DeepPruner', 'book_DeepLearning_in_PyTorch_Source', 'RoboLeague', 'wide_deep', 'dawn-bench-entries', 'DeepInfomaxPytorch', 'PyTorch-Deep-Learning-Template', 'DeepPruner', 'book_DeepLearning_in_PyTorch_Source', 'RoboLeague', 'wide_deep', 'dawn-bench-entries', 'Revisiting_Deep_Metric_Learning_PyTorch', 'DeepInfomaxPytorch', 'PyTorch-Deep-Learning-Template', 'DeepPruner', 'book_DeepLearning_in_PyTorch_Source', 'RoboLeague', 'wide_deep', 'dawn-bench-entries', 'DeepInfomaxPytorch', 'PyTorch-Deep-Learning-Template', 'DeepPruner', 'book_DeepLearning_in_PyTorch_Source', 'RoboLeague', 'wide_deep', 'dawn-bench-entries', 'DeepInfomaxPytorch', 'PyTorch-Deep-Learning-Template', 'DeepPruner', 'book_DeepLearning_in_PyTorch_Source', 'RoboLeague', 'wide_deep', 'dawn-bench-entries', 'DeepInfomaxPytorch', 'PyTorch-Deep-Learning-Template', 'DeepPruner', 'book_DeepLearning_in_PyTorch_Source', 'RoboLeague', 'wide_deep', 'dawn-bench-entries', 'DeepInfomaxPytorch', 'PyTorch-Deep-Learning-Template', 'DeepPruner', 'book_DeepLearning_in_PyTorch_Source', 'RoboLeague', 'wide_deep', 'dawn-bench-entries', 'Revisiting_Deep_Metric_Learning_PyTorch', 'DeepInfomaxPytorch', 'PyTorch-Deep-Learning-Template', 'DeepPruner', 'book_DeepLearning_in_PyTorch_Source', 'RoboLeague', 'wide_deep', 'dawn-bench-entries', 'DeepInfomaxPytorch', 'PyTorch-Deep-Learning-Template', 'DeepPruner', 'book_DeepLearning_in_PyTorch_Source', 'RoboLeague', 'wide_deep', 'dawn-bench-entries', 'DeepInfomaxPytorch', 'PyTorch-Deep-Learning-Template', 'DeepPruner', 'book_DeepLearning_in_PyTorch_Source', 'RoboLeague', 'wide_deep', 'dawn-bench-entries', 'Revisiting_Deep_Metric_Learning_PyTorch', 'DeepInfomaxPytorch', 'PyTorch-Deep-Learning-Template', 'DeepPruner', 'book_DeepLearning_in_PyTorch_Source', 'RoboLeague', 'wide_deep', 'dawn-bench-entries', 'DeepInfomaxPytorch', 'PyTorch-Deep-Learning-Template', 'DeepPruner', 'book_DeepLearning_in_PyTorch_Source', 'RoboLeague', 'wide_deep', 'dawn-bench-entries', 'DeepInfomaxPytorch', 'PyTorch-Deep-Learning-Template', 'DeepPruner', 'book_DeepLearning_in_PyTorch_Source', 'RoboLeague', 'wide_deep', 'dawn-bench-entries', 'DeepInfomaxPytorch', 'PyTorch-Deep-Learning-Template', 'DeepPruner', 'book_DeepLearning_in_PyTorch_Source', 'RoboLeague', 'wide_deep', 'dawn-bench-entries', 'DeepInfomaxPytorch', 'PyTorch-Deep-Learning-Template', 'DeepPruner', 'book_DeepLearning_in_PyTorch_Source', 'RoboLeague', 'wide_deep', 'dawn-bench-entries', 'Revisiting_Deep_Metric_Learning_PyTorch', 'DeepInfomaxPytorch', 'PyTorch-Deep-Learning-Template', 'DeepPruner', 'book_DeepLearning_in_PyTorch_Source', 'RoboLeague', 'wide_deep', 'dawn-bench-entries', 'DeepInfomaxPytorch', 'PyTorch-Deep-Learning-Template', 'DeepPruner', 'book_DeepLearning_in_PyTorch_Source', 'RoboLeague', 'wide_deep', 'dawn-bench-entries', 'DeepInfomaxPytorch', 'PyTorch-Deep-Learning-Template', 'DeepPruner', 'book_DeepLearning_in_PyTorch_Source', 'RoboLeague', 'wide_deep', 'dawn-bench-entries', 'DeepInfomaxPytorch', 'PyTorch-Deep-Learning-Template', 'DeepPruner', 'book_DeepLearning_in_PyTorch_Source', 'RoboLeague', 'wide_deep', 'dawn-bench-entries', 'DeepInfomaxPytorch', 'PyTorch-Deep-Learning-Template', 'DeepPruner', 'book_DeepLearning_in_PyTorch_Source', 'RoboLeague', 'wide_deep', 'dawn-bench-entries', 'DeepInfomaxPytorch', 'PyTorch-Deep-Learning-Template', 'DeepPruner', 'book_DeepLearning_in_PyTorch_Source', 'RoboLeague', 'wide_deep', 'dawn-bench-entries', 'DeepInfomaxPytorch', 'PyTorch-Deep-Learning-Template', 'DeepPruner', 'book_DeepLearning_in_PyTorch_Source', 'RoboLeague', 'wide_deep', 'dawn-bench-entries', 'DeepInfomaxPytorch', 'PyTorch-Deep-Learning-Template', 'DeepPruner', 'book_DeepLearning_in_PyTorch_Source', 'RoboLeague', 'wide_deep', 'dawn-bench-entries', 'DeepInfomaxPytorch', 'PyTorch-Deep-Learning-Template', 'DeepPruner', 'book_DeepLearning_in_PyTorch_Source', 'RoboLeague', 'wide_deep', 'dawn-bench-entries', 'DeepInfomaxPytorch', 'PyTorch-Deep-Learning-Template', 'DeepPruner', 'book_DeepLearning_in_PyTorch_Source', 'RoboLeague', 'wide_deep', 'dawn-bench-entries', 'DeepInfomaxPytorch', 'PyTorch-Deep-Learning-Template', 'DeepPruner', 'book_DeepLearning_in_PyTorch_Source', 'RoboLeague', 'wide_deep', 'dawn-bench-entries', 'DeepInfomaxPytorch', 'PyTorch-Deep-Learning-Template', 'DeepPruner', 'book_DeepLearning_in_PyTorch_Source', 'RoboLeague', 'wide_deep', 'dawn-bench-entries', 'Revisiting_Deep_Metric_Learning_PyTorch', 'DeepInfomaxPytorch', 'PyTorch-Deep-Learning-Template', 'DeepPruner', 'book_DeepLearning_in_PyTorch_Source', 'RoboLeague', 'wide_deep', 'dawn-bench-entries', 'DeepInfomaxPytorch', 'PyTorch-Deep-Learning-Template', 'DeepPruner', 'book_DeepLearning_in_PyTorch_Source', 'RoboLeague', 'wide_deep', 'dawn-bench-entries', 'DeepInfomaxPytorch', 'PyTorch-Deep-Learning-Template', 'DeepPruner', 'book_DeepLearning_in_PyTorch_Source', 'RoboLeague', 'wide_deep', 'dawn-bench-entries', 'DeepInfomaxPytorch', 'PyTorch-Deep-Learning-Template', 'DeepPruner', 'book_DeepLearning_in_PyTorch_Source', 'RoboLeague', 'wide_deep', 'dawn-bench-entries', 'DeepInfomaxPytorch', 'PyTorch-Deep-Learning-Template', 'DeepPruner', 'book_DeepLearning_in_PyTorch_Source', 'RoboLeague', 'wide_deep', 'dawn-bench-entries', 'DeepInfomaxPytorch', 'PyTorch-Deep-Learning-Template', 'DeepPruner', 'book_DeepLearning_in_PyTorch_Source', 'RoboLeague', 'wide_deep', 'dawn-bench-entries', 'DeepInfomaxPytorch', 'PyTorch-Deep-Learning-Template', 'DeepPruner', 'book_DeepLearning_in_PyTorch_Source', 'RoboLeague', 'wide_deep', 'dawn-bench-entries', 'DeepInfomaxPytorch', 'PyTorch-Deep-Learning-Template', 'DeepPruner', 'book_DeepLearning_in_PyTorch_Source', 'RoboLeague', 'wide_deep', 'dawn-bench-entries', 'DeepInfomaxPytorch', 'PyTorch-Deep-Learning-Template', 'DeepPruner', 'book_DeepLearning_in_PyTorch_Source', 'RoboLeague', 'wide_deep', 'dawn-bench-entries', 'DeepInfomaxPytorch', 'PyTorch-Deep-Learning-Template', 'DeepPruner', 'book_DeepLearning_in_PyTorch_Source', 'RoboLeague', 'wide_deep', 'dawn-bench-entries', 'Revisiting_Deep_Metric_Learning_PyTorch', 'DeepInfomaxPytorch', 'PyTorch-Deep-Learning-Template', 'DeepPruner', 'book_DeepLearning_in_PyTorch_Source', 'RoboLeague', 'wide_deep', 'dawn-bench-entries', 'DeepInfomaxPytorch', 'PyTorch-Deep-Learning-Template', 'DeepPruner', 'book_DeepLearning_in_PyTorch_Source', 'RoboLeague', 'wide_deep', 'dawn-bench-entries', 'Revisiting_Deep_Metric_Learning_PyTorch', 'DeepInfomaxPytorch', 'PyTorch-Deep-Learning-Template', 'DeepPruner', 'book_DeepLearning_in_PyTorch_Source', 'RoboLeague', 'wide_deep', 'dawn-bench-entries', 'Revisiting_Deep_Metric_Learning_PyTorch', 'DeepInfomaxPytorch', 'PyTorch-Deep-Learning-Template', 'DeepPruner', 'book_DeepLearning_in_PyTorch_Source', 'RoboLeague', 'wide_deep', 'dawn-bench-entries', 'Revisiting_Deep_Metric_Learning_PyTorch', 'DeepInfomaxPytorch', 'PyTorch-Deep-Learning-Template', 'DeepPruner', 'book_DeepLearning_in_PyTorch_Source', 'RoboLeague', 'wide_deep', 'dawn-bench-entries', 'DeepInfomaxPytorch', 'PyTorch-Deep-Learning-Template', 'DeepPruner', 'book_DeepLearning_in_PyTorch_Source', 'RoboLeague', 'wide_deep', 'dawn-bench-entries', 'DeepInfomaxPytorch', 'PyTorch-Deep-Learning-Template', 'DeepPruner', 'book_DeepLearning_in_PyTorch_Source', 'RoboLeague', 'wide_deep', 'dawn-bench-entries', 'DeepInfomaxPytorch', 'PyTorch-Deep-Learning-Template', 'DeepPruner', 'book_DeepLearning_in_PyTorch_Source', 'RoboLeague', 'wide_deep', 'dawn-bench-entries', 'DeepInfomaxPytorch', 'PyTorch-Deep-Learning-Template', 'DeepPruner', 'book_DeepLearning_in_PyTorch_Source', 'RoboLeague', 'wide_deep', 'dawn-bench-entries', 'DeepInfomaxPytorch', 'PyTorch-Deep-Learning-Template', 'DeepPruner', 'book_DeepLearning_in_PyTorch_Source', 'RoboLeague', 'wide_deep', 'dawn-bench-entries', 'Revisiting_Deep_Metric_Learning_PyTorch', 'DeepInfomaxPytorch', 'PyTorch-Deep-Learning-Template', 'DeepPruner', 'book_DeepLearning_in_PyTorch_Source', 'RoboLeague', 'wide_deep', 'dawn-bench-entries', 'DeepInfomaxPytorch', 'PyTorch-Deep-Learning-Template', 'DeepPruner', 'book_DeepLearning_in_PyTorch_Source', 'RoboLeague', 'wide_deep', 'dawn-bench-entries', 'DeepInfomaxPytorch', 'PyTorch-Deep-Learning-Template', 'DeepPruner', 'book_DeepLearning_in_PyTorch_Source', 'RoboLeague', 'wide_deep', 'dawn-bench-entries', 'DeepInfomaxPytorch', 'PyTorch-Deep-Learning-Template', 'DeepPruner', 'book_DeepLearning_in_PyTorch_Source', 'RoboLeague', 'wide_deep', 'dawn-bench-entries', 'Revisiting_Deep_Metric_Learning_PyTorch', 'DeepInfomaxPytorch', 'PyTorch-Deep-Learning-Template', 'DeepPruner', 'book_DeepLearning_in_PyTorch_Source', 'RoboLeague', 'wide_deep', 'dawn-bench-entries', 'DeepInfomaxPytorch', 'PyTorch-Deep-Learning-Template', 'DeepPruner', 'book_DeepLearning_in_PyTorch_Source', 'RoboLeague', 'wide_deep', 'dawn-bench-entries', 'DeepInfomaxPytorch', 'PyTorch-Deep-Learning-Template', 'DeepPruner', 'book_DeepLearning_in_PyTorch_Source', 'RoboLeague', 'wide_deep', 'dawn-bench-entries', 'DeepInfomaxPytorch', 'PyTorch-Deep-Learning-Template', 'DeepPruner', 'book_DeepLearning_in_PyTorch_Source', 'RoboLeague', 'wide_deep', 'dawn-bench-entries', 'DeepInfomaxPytorch', 'PyTorch-Deep-Learning-Template', 'DeepPruner', 'book_DeepLearning_in_PyTorch_Source', 'RoboLeague', 'wide_deep', 'dawn-bench-entries', 'DeepInfomaxPytorch', 'PyTorch-Deep-Learning-Template', 'DeepPruner', 'book_DeepLearning_in_PyTorch_Source', 'RoboLeague', 'wide_deep', 'dawn-bench-entries', 'DeepInfomaxPytorch', 'PyTorch-Deep-Learning-Template', 'DeepPruner', 'book_DeepLearning_in_PyTorch_Source', 'RoboLeague', 'wide_deep', 'dawn-bench-entries', 'DeepInfomaxPytorch', 'PyTorch-Deep-Learning-Template', 'DeepPruner', 'book_DeepLearning_in_PyTorch_Source', 'RoboLeague', 'wide_deep', 'dawn-bench-entries', 'DeepInfomaxPytorch', 'PyTorch-Deep-Learning-Template', 'DeepPruner', 'book_DeepLearning_in_PyTorch_Source', 'RoboLeague', 'wide_deep', 'dawn-bench-entries', 'DeepInfomaxPytorch', 'PyTorch-Deep-Learning-Template', 'DeepPruner', 'book_DeepLearning_in_PyTorch_Source', 'RoboLeague', 'wide_deep', 'dawn-bench-entries', 'DeepInfomaxPytorch', 'PyTorch-Deep-Learning-Template', 'DeepPruner', 'book_DeepLearning_in_PyTorch_Source', 'RoboLeague', 'wide_deep', 'dawn-bench-entries', 'DeepInfomaxPytorch', 'PyTorch-Deep-Learning-Template', 'DeepPruner', 'book_DeepLearning_in_PyTorch_Source', 'RoboLeague', 'wide_deep', 'dawn-bench-entries', 'DeepInfomaxPytorch', 'PyTorch-Deep-Learning-Template', 'DeepPruner', 'book_DeepLearning_in_PyTorch_Source', 'RoboLeague', 'wide_deep', 'dawn-bench-entries', 'DeepInfomaxPytorch', 'PyTorch-Deep-Learning-Template', 'DeepPruner', 'book_DeepLearning_in_PyTorch_Source', 'RoboLeague', 'wide_deep', 'dawn-bench-entries', 'DeepInfomaxPytorch', 'PyTorch-Deep-Learning-Template', 'DeepPruner', 'book_DeepLearning_in_PyTorch_Source', 'RoboLeague', 'wide_deep', 'dawn-bench-entries', 'DeepInfomaxPytorch', 'PyTorch-Deep-Learning-Template', 'DeepPruner', 'book_DeepLearning_in_PyTorch_Source', 'RoboLeague', 'wide_deep', 'dawn-bench-entries', 'Revisiting_Deep_Metric_Learning_PyTorch', 'DeepInfomaxPytorch', 'PyTorch-Deep-Learning-Template', 'DeepPruner', 'book_DeepLearning_in_PyTorch_Source', 'RoboLeague', 'wide_deep', 'dawn-bench-entries', 'DeepInfomaxPytorch', 'PyTorch-Deep-Learning-Template', 'DeepPruner', 'book_DeepLearning_in_PyTorch_Source', 'RoboLeague', 'wide_deep', 'dawn-bench-entries', 'DeepInfomaxPytorch', 'PyTorch-Deep-Learning-Template', 'DeepPruner', 'book_DeepLearning_in_PyTorch_Source', 'RoboLeague', 'wide_deep', 'dawn-bench-entries', 'DeepInfomaxPytorch', 'PyTorch-Deep-Learning-Template', 'DeepPruner', 'book_DeepLearning_in_PyTorch_Source', 'RoboLeague', 'wide_deep', 'dawn-bench-entries', 'DeepInfomaxPytorch', 'PyTorch-Deep-Learning-Template', 'DeepPruner', 'book_DeepLearning_in_PyTorch_Source', 'RoboLeague', 'wide_deep', 'dawn-bench-entries', 'DeepInfomaxPytorch', 'PyTorch-Deep-Learning-Template', 'DeepPruner', 'book_DeepLearning_in_PyTorch_Source', 'RoboLeague', 'wide_deep', 'dawn-bench-entries', 'DeepInfomaxPytorch', 'PyTorch-Deep-Learning-Template', 'DeepPruner', 'book_DeepLearning_in_PyTorch_Source', 'RoboLeague', 'wide_deep', 'dawn-bench-entries', 'DeepInfomaxPytorch', 'PyTorch-Deep-Learning-Template', 'DeepPruner', 'book_DeepLearning_in_PyTorch_Source', 'RoboLeague', 'wide_deep', 'dawn-bench-entries', 'DeepInfomaxPytorch', 'PyTorch-Deep-Learning-Template', 'DeepPruner', 'book_DeepLearning_in_PyTorch_Source', 'RoboLeague', 'wide_deep', 'dawn-bench-entries', 'DeepInfomaxPytorch', 'PyTorch-Deep-Learning-Template', 'DeepPruner', 'book_DeepLearning_in_PyTorch_Source', 'RoboLeague', 'wide_deep', 'dawn-bench-entries', 'DeepInfomaxPytorch', 'PyTorch-Deep-Learning-Template', 'DeepPruner', 'book_DeepLearning_in_PyTorch_Source', 'RoboLeague', 'wide_deep', 'dawn-bench-entries', 'DeepInfomaxPytorch', 'PyTorch-Deep-Learning-Template', 'DeepPruner', 'book_DeepLearning_in_PyTorch_Source', 'RoboLeague', 'wide_deep', 'dawn-bench-entries', 'DeepInfomaxPytorch', 'PyTorch-Deep-Learning-Template', 'DeepPruner', 'book_DeepLearning_in_PyTorch_Source', 'RoboLeague', 'wide_deep', 'dawn-bench-entries', 'DeepInfomaxPytorch', 'PyTorch-Deep-Learning-Template', 'DeepPruner', 'book_DeepLearning_in_PyTorch_Source', 'RoboLeague', 'wide_deep', 'dawn-bench-entries', 'DeepInfomaxPytorch', 'PyTorch-Deep-Learning-Template', 'DeepPruner', 'book_DeepLearning_in_PyTorch_Source', 'RoboLeague', 'wide_deep', 'dawn-bench-entries', 'DeepInfomaxPytorch', 'PyTorch-Deep-Learning-Template', 'DeepPruner', 'book_DeepLearning_in_PyTorch_Source', 'RoboLeague', 'wide_deep', 'dawn-bench-entries', 'DeepInfomaxPytorch', 'PyTorch-Deep-Learning-Template']</t>
+  </si>
+  <si>
+    <t>['ChangeDetectionRepository', 'LearningX', 'gobbli', 'Revisiting_Deep_Metric_Learning_PyTorch', 'MatrixSlow', 'aleph_star', 'neural-compressor', 'blueoil', 'ladder', 'Awsome_Deep_Geometry_Learning', 'ChangeDetectionRepository', 'LearningX', 'gobbli', 'MatrixSlow', 'aleph_star', 'neural-compressor', 'blueoil', 'ladder', 'Awsome_Deep_Geometry_Learning', 'ChangeDetectionRepository', 'LearningX', 'gobbli', 'Revisiting_Deep_Metric_Learning_PyTorch', 'MatrixSlow', 'aleph_star', 'neural-compressor', 'blueoil', 'ladder', 'Awsome_Deep_Geometry_Learning', 'ChangeDetectionRepository', 'LearningX', 'gobbli', 'Revisiting_Deep_Metric_Learning_PyTorch', 'MatrixSlow', 'aleph_star', 'neural-compressor', 'blueoil', 'ladder', 'Awsome_Deep_Geometry_Learning', 'ChangeDetectionRepository', 'LearningX', 'gobbli', 'MatrixSlow', 'aleph_star', 'neural-compressor', 'blueoil', 'ladder', 'Awsome_Deep_Geometry_Learning', 'ChangeDetectionRepository', 'LearningX', 'gobbli', 'Revisiting_Deep_Metric_Learning_PyTorch', 'MatrixSlow', 'aleph_star', 'neural-compressor', 'blueoil', 'ladder', 'Awsome_Deep_Geometry_Learning', 'ChangeDetectionRepository', 'LearningX', 'gobbli', 'Revisiting_Deep_Metric_Learning_PyTorch', 'MatrixSlow', 'aleph_star', 'neural-compressor', 'blueoil', 'ladder', 'Awsome_Deep_Geometry_Learning', 'ChangeDetectionRepository', 'LearningX', 'gobbli', 'Revisiting_Deep_Metric_Learning_PyTorch', 'MatrixSlow', 'aleph_star', 'neural-compressor', 'blueoil', 'ladder', 'Awsome_Deep_Geometry_Learning', 'ChangeDetectionRepository', 'LearningX', 'gobbli', 'Revisiting_Deep_Metric_Learning_PyTorch', 'MatrixSlow', 'aleph_star', 'neural-compressor', 'blueoil', 'ladder', 'Awsome_Deep_Geometry_Learning', 'ChangeDetectionRepository', 'LearningX', 'gobbli', 'MatrixSlow', 'aleph_star', 'neural-compressor', 'blueoil', 'ladder', 'Awsome_Deep_Geometry_Learning', 'ChangeDetectionRepository', 'LearningX', 'gobbli', 'Revisiting_Deep_Metric_Learning_PyTorch', 'MatrixSlow', 'aleph_star', 'neural-compressor', 'blueoil', 'ladder', 'Awsome_Deep_Geometry_Learning', 'ChangeDetectionRepository', 'LearningX', 'gobbli', 'Revisiting_Deep_Metric_Learning_PyTorch', 'MatrixSlow', 'aleph_star', 'neural-compressor', 'blueoil', 'ladder', 'Awsome_Deep_Geometry_Learning', 'ChangeDetectionRepository', 'LearningX', 'gobbli', 'Revisiting_Deep_Metric_Learning_PyTorch', 'MatrixSlow', 'aleph_star', 'neural-compressor', 'blueoil', 'ladder', 'Awsome_Deep_Geometry_Learning', 'ChangeDetectionRepository', 'LearningX', 'gobbli', 'Revisiting_Deep_Metric_Learning_PyTorch', 'MatrixSlow', 'aleph_star', 'neural-compressor', 'blueoil', 'ladder', 'Awsome_Deep_Geometry_Learning', 'ChangeDetectionRepository', 'LearningX', 'gobbli', 'MatrixSlow', 'aleph_star', 'neural-compressor', 'blueoil', 'ladder', 'Awsome_Deep_Geometry_Learning', 'ChangeDetectionRepository', 'LearningX', 'gobbli', 'Revisiting_Deep_Metric_Learning_PyTorch', 'MatrixSlow', 'aleph_star', 'neural-compressor', 'blueoil', 'ladder', 'Awsome_Deep_Geometry_Learning', 'ChangeDetectionRepository', 'LearningX', 'gobbli', 'Revisiting_Deep_Metric_Learning_PyTorch', 'MatrixSlow', 'aleph_star', 'neural-compressor', 'blueoil', 'ladder', 'Awsome_Deep_Geometry_Learning', 'ChangeDetectionRepository', 'LearningX', 'gobbli', 'MatrixSlow', 'aleph_star', 'neural-compressor', 'blueoil', 'ladder', 'Awsome_Deep_Geometry_Learning', 'ChangeDetectionRepository', 'LearningX', 'gobbli', 'Revisiting_Deep_Metric_Learning_PyTorch', 'MatrixSlow', 'aleph_star', 'neural-compressor', 'blueoil', 'ladder', 'Awsome_Deep_Geometry_Learning', 'ChangeDetectionRepository', 'LearningX', 'gobbli', 'Revisiting_Deep_Metric_Learning_PyTorch', 'MatrixSlow', 'aleph_star', 'neural-compressor', 'blueoil', 'ladder', 'Awsome_Deep_Geometry_Learning', 'ChangeDetectionRepository', 'LearningX', 'gobbli', 'Revisiting_Deep_Metric_Learning_PyTorch', 'MatrixSlow', 'aleph_star', 'neural-compressor', 'blueoil', 'ladder', 'Awsome_Deep_Geometry_Learning', 'ChangeDetectionRepository', 'LearningX', 'gobbli', 'Revisiting_Deep_Metric_Learning_PyTorch', 'MatrixSlow', 'aleph_star', 'neural-compressor', 'blueoil', 'ladder', 'Awsome_Deep_Geometry_Learning', 'ChangeDetectionRepository', 'LearningX', 'gobbli', 'MatrixSlow', 'aleph_star', 'neural-compressor', 'blueoil', 'ladder', 'Awsome_Deep_Geometry_Learning', 'ChangeDetectionRepository', 'LearningX', 'gobbli', 'Revisiting_Deep_Metric_Learning_PyTorch', 'MatrixSlow', 'aleph_star', 'neural-compressor', 'blueoil', 'ladder', 'Awsome_Deep_Geometry_Learning', 'ChangeDetectionRepository', 'LearningX', 'gobbli', 'Revisiting_Deep_Metric_Learning_PyTorch', 'MatrixSlow', 'aleph_star', 'neural-compressor', 'blueoil', 'ladder', 'Awsome_Deep_Geometry_Learning', 'ChangeDetectionRepository', 'LearningX', 'gobbli', 'Revisiting_Deep_Metric_Learning_PyTorch', 'MatrixSlow', 'aleph_star', 'neural-compressor', 'blueoil', 'ladder', 'Awsome_Deep_Geometry_Learning', 'ChangeDetectionRepository', 'LearningX', 'gobbli', 'Revisiting_Deep_Metric_Learning_PyTorch', 'MatrixSlow', 'aleph_star', 'neural-compressor', 'blueoil', 'ladder', 'Awsome_Deep_Geometry_Learning', 'ChangeDetectionRepository', 'LearningX', 'gobbli', 'Revisiting_Deep_Metric_Learning_PyTorch', 'MatrixSlow', 'aleph_star', 'neural-compressor', 'blueoil', 'ladder', 'Awsome_Deep_Geometry_Learning', 'ChangeDetectionRepository', 'LearningX', 'gobbli', 'Revisiting_Deep_Metric_Learning_PyTorch', 'MatrixSlow', 'aleph_star', 'neural-compressor', 'blueoil', 'ladder', 'Awsome_Deep_Geometry_Learning', 'ChangeDetectionRepository', 'LearningX', 'gobbli', 'Revisiting_Deep_Metric_Learning_PyTorch', 'MatrixSlow', 'aleph_star', 'neural-compressor', 'blueoil', 'ladder', 'Awsome_Deep_Geometry_Learning', 'ChangeDetectionRepository', 'LearningX', 'gobbli', 'Revisiting_Deep_Metric_Learning_PyTorch', 'MatrixSlow', 'aleph_star', 'neural-compressor', 'blueoil', 'ladder', 'Awsome_Deep_Geometry_Learning', 'ChangeDetectionRepository', 'LearningX', 'gobbli', 'Revisiting_Deep_Metric_Learning_PyTorch', 'MatrixSlow', 'aleph_star', 'neural-compressor', 'blueoil', 'ladder', 'Awsome_Deep_Geometry_Learning', 'ChangeDetectionRepository', 'LearningX', 'gobbli', 'Revisiting_Deep_Metric_Learning_PyTorch', 'MatrixSlow', 'aleph_star', 'neural-compressor', 'blueoil', 'ladder', 'Awsome_Deep_Geometry_Learning', 'ChangeDetectionRepository', 'LearningX', 'gobbli', 'Revisiting_Deep_Metric_Learning_PyTorch', 'MatrixSlow', 'aleph_star', 'neural-compressor', 'blueoil', 'ladder', 'Awsome_Deep_Geometry_Learning', 'ChangeDetectionRepository', 'LearningX', 'gobbli', 'MatrixSlow', 'aleph_star', 'neural-compressor', 'blueoil', 'ladder', 'Awsome_Deep_Geometry_Learning', 'ChangeDetectionRepository', 'LearningX', 'gobbli', 'Revisiting_Deep_Metric_Learning_PyTorch', 'MatrixSlow', 'aleph_star', 'neural-compressor', 'blueoil', 'ladder', 'Awsome_Deep_Geometry_Learning', 'ChangeDetectionRepository', 'LearningX', 'gobbli', 'Revisiting_Deep_Metric_Learning_PyTorch', 'MatrixSlow', 'aleph_star', 'neural-compressor', 'blueoil', 'ladder', 'Awsome_Deep_Geometry_Learning', 'ChangeDetectionRepository', 'LearningX', 'gobbli', 'Revisiting_Deep_Metric_Learning_PyTorch', 'MatrixSlow', 'aleph_star', 'neural-compressor', 'blueoil', 'ladder', 'Awsome_Deep_Geometry_Learning', 'ChangeDetectionRepository', 'LearningX', 'gobbli', 'Revisiting_Deep_Metric_Learning_PyTorch', 'MatrixSlow', 'aleph_star', 'neural-compressor', 'blueoil', 'ladder', 'Awsome_Deep_Geometry_Learning', 'ChangeDetectionRepository', 'LearningX', 'gobbli', 'Revisiting_Deep_Metric_Learning_PyTorch', 'MatrixSlow', 'aleph_star', 'neural-compressor', 'blueoil', 'ladder', 'Awsome_Deep_Geometry_Learning', 'ChangeDetectionRepository', 'LearningX', 'gobbli', 'Revisiting_Deep_Metric_Learning_PyTorch', 'MatrixSlow', 'aleph_star', 'neural-compressor', 'blueoil', 'ladder', 'Awsome_Deep_Geometry_Learning', 'ChangeDetectionRepository', 'LearningX', 'gobbli', 'Revisiting_Deep_Metric_Learning_PyTorch', 'MatrixSlow', 'aleph_star', 'neural-compressor', 'blueoil', 'ladder', 'Awsome_Deep_Geometry_Learning', 'ChangeDetectionRepository', 'LearningX', 'gobbli', 'Revisiting_Deep_Metric_Learning_PyTorch', 'MatrixSlow', 'aleph_star', 'neural-compressor', 'blueoil', 'ladder', 'Awsome_Deep_Geometry_Learning', 'ChangeDetectionRepository', 'LearningX', 'gobbli', 'Revisiting_Deep_Metric_Learning_PyTorch', 'MatrixSlow', 'aleph_star', 'neural-compressor', 'blueoil', 'ladder', 'Awsome_Deep_Geometry_Learning', 'ChangeDetectionRepository', 'LearningX', 'gobbli', 'MatrixSlow', 'aleph_star', 'neural-compressor', 'blueoil', 'ladder', 'Awsome_Deep_Geometry_Learning', 'ChangeDetectionRepository', 'LearningX', 'gobbli', 'Revisiting_Deep_Metric_Learning_PyTorch', 'MatrixSlow', 'aleph_star', 'neural-compressor', 'blueoil', 'ladder', 'Awsome_Deep_Geometry_Learning', 'ChangeDetectionRepository', 'LearningX', 'gobbli', 'MatrixSlow', 'aleph_star', 'neural-compressor', 'blueoil', 'ladder', 'Awsome_Deep_Geometry_Learning', 'ChangeDetectionRepository', 'LearningX', 'gobbli', 'MatrixSlow', 'aleph_star', 'neural-compressor', 'blueoil', 'ladder', 'Awsome_Deep_Geometry_Learning', 'ChangeDetectionRepository', 'LearningX', 'gobbli', 'MatrixSlow', 'aleph_star', 'neural-compressor', 'blueoil', 'ladder', 'Awsome_Deep_Geometry_Learning', 'ChangeDetectionRepository', 'LearningX', 'gobbli', 'Revisiting_Deep_Metric_Learning_PyTorch', 'MatrixSlow', 'aleph_star', 'neural-compressor', 'blueoil', 'ladder', 'Awsome_Deep_Geometry_Learning', 'ChangeDetectionRepository', 'LearningX', 'gobbli', 'Revisiting_Deep_Metric_Learning_PyTorch', 'MatrixSlow', 'aleph_star', 'neural-compressor', 'blueoil', 'ladder', 'Awsome_Deep_Geometry_Learning', 'ChangeDetectionRepository', 'LearningX', 'gobbli', 'Revisiting_Deep_Metric_Learning_PyTorch', 'MatrixSlow', 'aleph_star', 'neural-compressor', 'blueoil', 'ladder', 'Awsome_Deep_Geometry_Learning', 'ChangeDetectionRepository', 'LearningX', 'gobbli', 'Revisiting_Deep_Metric_Learning_PyTorch', 'MatrixSlow', 'aleph_star', 'neural-compressor', 'blueoil', 'ladder', 'Awsome_Deep_Geometry_Learning', 'ChangeDetectionRepository', 'LearningX', 'gobbli', 'Revisiting_Deep_Metric_Learning_PyTorch', 'MatrixSlow', 'aleph_star', 'neural-compressor', 'blueoil', 'ladder', 'Awsome_Deep_Geometry_Learning', 'ChangeDetectionRepository', 'LearningX', 'gobbli', 'MatrixSlow', 'aleph_star', 'neural-compressor', 'blueoil', 'ladder', 'Awsome_Deep_Geometry_Learning', 'ChangeDetectionRepository', 'LearningX', 'gobbli', 'Revisiting_Deep_Metric_Learning_PyTorch', 'MatrixSlow', 'aleph_star', 'neural-compressor', 'blueoil', 'ladder', 'Awsome_Deep_Geometry_Learning', 'ChangeDetectionRepository', 'LearningX', 'gobbli', 'Revisiting_Deep_Metric_Learning_PyTorch', 'MatrixSlow', 'aleph_star', 'neural-compressor', 'blueoil', 'ladder', 'Awsome_Deep_Geometry_Learning', 'ChangeDetectionRepository', 'LearningX', 'gobbli', 'Revisiting_Deep_Metric_Learning_PyTorch', 'MatrixSlow', 'aleph_star', 'neural-compressor', 'blueoil', 'ladder', 'Awsome_Deep_Geometry_Learning', 'ChangeDetectionRepository', 'LearningX', 'gobbli', 'MatrixSlow', 'aleph_star', 'neural-compressor', 'blueoil', 'ladder', 'Awsome_Deep_Geometry_Learning', 'ChangeDetectionRepository', 'LearningX', 'gobbli', 'Revisiting_Deep_Metric_Learning_PyTorch', 'MatrixSlow', 'aleph_star', 'neural-compressor', 'blueoil', 'ladder', 'Awsome_Deep_Geometry_Learning', 'ChangeDetectionRepository', 'LearningX', 'gobbli', 'Revisiting_Deep_Metric_Learning_PyTorch', 'MatrixSlow', 'aleph_star', 'neural-compressor', 'blueoil', 'ladder', 'Awsome_Deep_Geometry_Learning', 'ChangeDetectionRepository', 'LearningX', 'gobbli', 'Revisiting_Deep_Metric_Learning_PyTorch', 'MatrixSlow', 'aleph_star', 'neural-compressor', 'blueoil', 'ladder', 'Awsome_Deep_Geometry_Learning', 'ChangeDetectionRepository', 'LearningX', 'gobbli', 'Revisiting_Deep_Metric_Learning_PyTorch', 'MatrixSlow', 'aleph_star', 'neural-compressor', 'blueoil', 'ladder', 'Awsome_Deep_Geometry_Learning', 'ChangeDetectionRepository', 'LearningX', 'gobbli', 'Revisiting_Deep_Metric_Learning_PyTorch', 'MatrixSlow', 'aleph_star', 'neural-compressor', 'blueoil', 'ladder', 'Awsome_Deep_Geometry_Learning', 'ChangeDetectionRepository', 'LearningX', 'gobbli', 'Revisiting_Deep_Metric_Learning_PyTorch', 'MatrixSlow', 'aleph_star', 'neural-compressor', 'blueoil', 'ladder', 'Awsome_Deep_Geometry_Learning', 'ChangeDetectionRepository', 'LearningX', 'gobbli', 'Revisiting_Deep_Metric_Learning_PyTorch', 'MatrixSlow', 'aleph_star', 'neural-compressor', 'blueoil', 'ladder', 'Awsome_Deep_Geometry_Learning', 'ChangeDetectionRepository', 'LearningX', 'gobbli', 'Revisiting_Deep_Metric_Learning_PyTorch', 'MatrixSlow', 'aleph_star', 'neural-compressor', 'blueoil', 'ladder', 'Awsome_Deep_Geometry_Learning', 'ChangeDetectionRepository', 'LearningX', 'gobbli', 'Revisiting_Deep_Metric_Learning_PyTorch', 'MatrixSlow', 'aleph_star', 'neural-compressor', 'blueoil', 'ladder', 'Awsome_Deep_Geometry_Learning', 'ChangeDetectionRepository', 'LearningX', 'gobbli', 'Revisiting_Deep_Metric_Learning_PyTorch', 'MatrixSlow', 'aleph_star', 'neural-compressor', 'blueoil', 'ladder', 'Awsome_Deep_Geometry_Learning', 'ChangeDetectionRepository', 'LearningX', 'gobbli', 'Revisiting_Deep_Metric_Learning_PyTorch', 'MatrixSlow', 'aleph_star', 'neural-compressor', 'blueoil', 'ladder', 'Awsome_Deep_Geometry_Learning', 'ChangeDetectionRepository', 'LearningX', 'gobbli', 'Revisiting_Deep_Metric_Learning_PyTorch', 'MatrixSlow', 'aleph_star', 'neural-compressor', 'blueoil', 'ladder', 'Awsome_Deep_Geometry_Learning', 'ChangeDetectionRepository', 'LearningX', 'gobbli', 'Revisiting_Deep_Metric_Learning_PyTorch', 'MatrixSlow', 'aleph_star', 'neural-compressor', 'blueoil', 'ladder', 'Awsome_Deep_Geometry_Learning', 'ChangeDetectionRepository', 'LearningX', 'gobbli', 'Revisiting_Deep_Metric_Learning_PyTorch', 'MatrixSlow', 'aleph_star', 'neural-compressor', 'blueoil', 'ladder', 'Awsome_Deep_Geometry_Learning', 'ChangeDetectionRepository', 'LearningX', 'gobbli', 'Revisiting_Deep_Metric_Learning_PyTorch', 'MatrixSlow', 'aleph_star', 'neural-compressor', 'blueoil', 'ladder', 'Awsome_Deep_Geometry_Learning', 'ChangeDetectionRepository', 'LearningX', 'gobbli', 'MatrixSlow', 'aleph_star', 'neural-compressor', 'blueoil', 'ladder', 'Awsome_Deep_Geometry_Learning', 'ChangeDetectionRepository', 'LearningX', 'gobbli', 'Revisiting_Deep_Metric_Learning_PyTorch', 'MatrixSlow', 'aleph_star', 'neural-compressor', 'blueoil', 'ladder', 'Awsome_Deep_Geometry_Learning', 'ChangeDetectionRepository', 'LearningX', 'gobbli', 'Revisiting_Deep_Metric_Learning_PyTorch', 'MatrixSlow', 'aleph_star', 'neural-compressor', 'blueoil', 'ladder', 'Awsome_Deep_Geometry_Learning', 'ChangeDetectionRepository', 'LearningX', 'gobbli', 'Revisiting_Deep_Metric_Learning_PyTorch', 'MatrixSlow', 'aleph_star', 'neural-compressor', 'blueoil', 'ladder', 'Awsome_Deep_Geometry_Learning', 'ChangeDetectionRepository', 'LearningX', 'gobbli', 'Revisiting_Deep_Metric_Learning_PyTorch', 'MatrixSlow', 'aleph_star', 'neural-compressor', 'blueoil', 'ladder', 'Awsome_Deep_Geometry_Learning', 'ChangeDetectionRepository', 'LearningX', 'gobbli', 'Revisiting_Deep_Metric_Learning_PyTorch', 'MatrixSlow', 'aleph_star', 'neural-compressor', 'blueoil', 'ladder', 'Awsome_Deep_Geometry_Learning', 'ChangeDetectionRepository', 'LearningX', 'gobbli', 'Revisiting_Deep_Metric_Learning_PyTorch', 'MatrixSlow', 'aleph_star', 'neural-compressor', 'blueoil', 'ladder', 'Awsome_Deep_Geometry_Learning', 'ChangeDetectionRepository', 'LearningX', 'gobbli', 'Revisiting_Deep_Metric_Learning_PyTorch', 'MatrixSlow', 'aleph_star', 'neural-compressor', 'blueoil', 'ladder', 'Awsome_Deep_Geometry_Learning', 'ChangeDetectionRepository', 'LearningX', 'gobbli', 'Revisiting_Deep_Metric_Learning_PyTorch', 'MatrixSlow', 'aleph_star', 'neural-compressor', 'blueoil', 'ladder', 'Awsome_Deep_Geometry_Learning', 'ChangeDetectionRepository', 'LearningX', 'gobbli', 'Revisiting_Deep_Metric_Learning_PyTorch', 'MatrixSlow', 'aleph_star', 'neural-compressor', 'blueoil', 'ladder', 'Awsome_Deep_Geometry_Learning', 'ChangeDetectionRepository', 'LearningX', 'gobbli', 'Revisiting_Deep_Metric_Learning_PyTorch', 'MatrixSlow', 'aleph_star', 'neural-compressor', 'blueoil', 'ladder', 'Awsome_Deep_Geometry_Learning', 'ChangeDetectionRepository', 'LearningX', 'gobbli', 'Revisiting_Deep_Metric_Learning_PyTorch', 'MatrixSlow', 'aleph_star', 'neural-compressor', 'blueoil', 'ladder', 'Awsome_Deep_Geometry_Learning', 'ChangeDetectionRepository', 'LearningX', 'gobbli', 'Revisiting_Deep_Metric_Learning_PyTorch', 'MatrixSlow', 'aleph_star', 'neural-compressor', 'blueoil', 'ladder', 'Awsome_Deep_Geometry_Learning', 'ChangeDetectionRepository', 'LearningX', 'gobbli', 'Revisiting_Deep_Metric_Learning_PyTorch', 'MatrixSlow', 'aleph_star', 'neural-compressor', 'blueoil', 'ladder', 'Awsome_Deep_Geometry_Learning', 'ChangeDetectionRepository', 'LearningX', 'gobbli', 'Revisiting_Deep_Metric_Learning_PyTorch', 'MatrixSlow', 'aleph_star', 'neural-compressor', 'blueoil', 'ladder', 'Awsome_Deep_Geometry_Learning', 'ChangeDetectionRepository', 'LearningX', 'gobbli', 'Revisiting_Deep_Metric_Learning_PyTorch', 'MatrixSlow', 'aleph_star', 'neural-compressor', 'blueoil', 'ladder', 'Awsome_Deep_Geometry_Learning', 'ChangeDetectionRepository', 'LearningX', 'gobbli', 'Revisiting_Deep_Metric_Learning_PyTorch', 'MatrixSlow', 'aleph_star', 'neural-compressor', 'blueoil', 'ladder', 'Awsome_Deep_Geometry_Learning']</t>
+  </si>
+  <si>
+    <t>['ultimateALPR-SDK', 'deep-RL-trading', 'xshinnosuke', 'osumapper', 'TorchFusion', 'spikingjelly', 'InstanceSegmentation_Sentinel2', 'ultimateALPR-SDK', 'deep-RL-trading', 'xshinnosuke', 'osumapper', 'TorchFusion', 'spikingjelly', 'InstanceSegmentation_Sentinel2', 'ultimateALPR-SDK', 'deep-RL-trading', 'xshinnosuke', 'osumapper', 'TorchFusion', 'spikingjelly', 'InstanceSegmentation_Sentinel2', 'ultimateALPR-SDK', 'deep-RL-trading', 'xshinnosuke', 'osumapper', 'TorchFusion', 'spikingjelly', 'InstanceSegmentation_Sentinel2', 'ultimateALPR-SDK', 'deep-RL-trading', 'xshinnosuke', 'osumapper', 'TorchFusion', 'spikingjelly', 'InstanceSegmentation_Sentinel2', 'ultimateALPR-SDK', 'deep-RL-trading', 'xshinnosuke', 'osumapper', 'TorchFusion', 'spikingjelly', 'InstanceSegmentation_Sentinel2', 'ultimateALPR-SDK', 'deep-RL-trading', 'xshinnosuke', 'osumapper', 'TorchFusion', 'spikingjelly', 'InstanceSegmentation_Sentinel2', 'ultimateALPR-SDK', 'deep-RL-trading', 'xshinnosuke', 'osumapper', 'TorchFusion', 'spikingjelly', 'InstanceSegmentation_Sentinel2', 'ultimateALPR-SDK', 'deep-RL-trading', 'xshinnosuke', 'osumapper', 'TorchFusion', 'spikingjelly', 'InstanceSegmentation_Sentinel2', 'ultimateALPR-SDK', 'deep-RL-trading', 'xshinnosuke', 'osumapper', 'TorchFusion', 'spikingjelly', 'InstanceSegmentation_Sentinel2', 'ultimateALPR-SDK', 'deep-RL-trading', 'xshinnosuke', 'osumapper', 'TorchFusion', 'spikingjelly', 'InstanceSegmentation_Sentinel2', 'ultimateALPR-SDK', 'deep-RL-trading', 'xshinnosuke', 'osumapper', 'TorchFusion', 'spikingjelly', 'InstanceSegmentation_Sentinel2', 'ultimateALPR-SDK', 'deep-RL-trading', 'xshinnosuke', 'osumapper', 'TorchFusion', 'spikingjelly', 'InstanceSegmentation_Sentinel2', 'ultimateALPR-SDK', 'deep-RL-trading', 'xshinnosuke', 'osumapper', 'TorchFusion', 'spikingjelly', 'InstanceSegmentation_Sentinel2', 'ultimateALPR-SDK', 'deep-RL-trading', 'xshinnosuke', 'osumapper', 'TorchFusion', 'spikingjelly', 'InstanceSegmentation_Sentinel2', 'ultimateALPR-SDK', 'deep-RL-trading', 'xshinnosuke', 'osumapper', 'TorchFusion', 'spikingjelly', 'InstanceSegmentation_Sentinel2', 'ultimateALPR-SDK', 'deep-RL-trading', 'xshinnosuke', 'osumapper', 'TorchFusion', 'spikingjelly', 'InstanceSegmentation_Sentinel2', 'ultimateALPR-SDK', 'deep-RL-trading', 'xshinnosuke', 'osumapper', 'TorchFusion', 'spikingjelly', 'InstanceSegmentation_Sentinel2', 'ultimateALPR-SDK', 'deep-RL-trading', 'xshinnosuke', 'osumapper', 'TorchFusion', 'spikingjelly', 'InstanceSegmentation_Sentinel2', 'ultimateALPR-SDK', 'deep-RL-trading', 'xshinnosuke', 'osumapper', 'TorchFusion', 'spikingjelly', 'InstanceSegmentation_Sentinel2', 'ultimateALPR-SDK', 'deep-RL-trading', 'xshinnosuke', 'osumapper', 'TorchFusion', 'spikingjelly', 'InstanceSegmentation_Sentinel2', 'ultimateALPR-SDK', 'deep-RL-trading', 'xshinnosuke', 'osumapper', 'TorchFusion', 'spikingjelly', 'InstanceSegmentation_Sentinel2', 'ultimateALPR-SDK', 'deep-RL-trading', 'xshinnosuke', 'osumapper', 'TorchFusion', 'spikingjelly', 'InstanceSegmentation_Sentinel2', 'ultimateALPR-SDK', 'deep-RL-trading', 'xshinnosuke', 'osumapper', 'TorchFusion', 'spikingjelly', 'InstanceSegmentation_Sentinel2', 'ultimateALPR-SDK', 'deep-RL-trading', 'xshinnosuke', 'osumapper', 'TorchFusion', 'spikingjelly', 'InstanceSegmentation_Sentinel2', 'ultimateALPR-SDK', 'deep-RL-trading', 'xshinnosuke', 'osumapper', 'TorchFusion', 'spikingjelly', 'InstanceSegmentation_Sentinel2', 'ultimateALPR-SDK', 'deep-RL-trading', 'xshinnosuke', 'osumapper', 'TorchFusion', 'spikingjelly', 'InstanceSegmentation_Sentinel2', 'ultimateALPR-SDK', 'deep-RL-trading', 'xshinnosuke', 'osumapper', 'TorchFusion', 'spikingjelly', 'InstanceSegmentation_Sentinel2', 'ultimateALPR-SDK', 'deep-RL-trading', 'xshinnosuke', 'osumapper', 'TorchFusion', 'spikingjelly', 'InstanceSegmentation_Sentinel2', 'ultimateALPR-SDK', 'deep-RL-trading', 'xshinnosuke', 'osumapper', 'TorchFusion', 'spikingjelly', 'InstanceSegmentation_Sentinel2', 'ultimateALPR-SDK', 'deep-RL-trading', 'xshinnosuke', 'osumapper', 'TorchFusion', 'spikingjelly', 'InstanceSegmentation_Sentinel2', 'ultimateALPR-SDK', 'deep-RL-trading', 'xshinnosuke', 'osumapper', 'TorchFusion', 'spikingjelly', 'InstanceSegmentation_Sentinel2', 'ultimateALPR-SDK', 'deep-RL-trading', 'xshinnosuke', 'osumapper', 'TorchFusion', 'spikingjelly', 'InstanceSegmentation_Sentinel2', 'ultimateALPR-SDK', 'deep-RL-trading', 'xshinnosuke', 'osumapper', 'TorchFusion', 'spikingjelly', 'InstanceSegmentation_Sentinel2', 'ultimateALPR-SDK', 'deep-RL-trading', 'xshinnosuke', 'osumapper', 'TorchFusion', 'spikingjelly', 'InstanceSegmentation_Sentinel2', 'ultimateALPR-SDK', 'deep-RL-trading', 'xshinnosuke', 'osumapper', 'TorchFusion', 'spikingjelly', 'InstanceSegmentation_Sentinel2', 'ultimateALPR-SDK', 'deep-RL-trading', 'xshinnosuke', 'osumapper', 'TorchFusion', 'spikingjelly', 'InstanceSegmentation_Sentinel2', 'ultimateALPR-SDK', 'deep-RL-trading', 'xshinnosuke', 'osumapper', 'TorchFusion', 'spikingjelly', 'InstanceSegmentation_Sentinel2', 'ultimateALPR-SDK', 'deep-RL-trading', 'xshinnosuke', 'osumapper', 'TorchFusion', 'spikingjelly', 'InstanceSegmentation_Sentinel2', 'ultimateALPR-SDK', 'deep-RL-trading', 'xshinnosuke', 'osumapper', 'TorchFusion', 'spikingjelly', 'InstanceSegmentation_Sentinel2', 'ultimateALPR-SDK', 'deep-RL-trading', 'xshinnosuke', 'osumapper', 'TorchFusion', 'spikingjelly', 'InstanceSegmentation_Sentinel2', 'ultimateALPR-SDK', 'deep-RL-trading', 'xshinnosuke', 'osumapper', 'TorchFusion', 'spikingjelly', 'InstanceSegmentation_Sentinel2', 'ultimateALPR-SDK', 'deep-RL-trading', 'xshinnosuke', 'osumapper', 'TorchFusion', 'spikingjelly', 'InstanceSegmentation_Sentinel2', 'ultimateALPR-SDK', 'deep-RL-trading', 'xshinnosuke', 'osumapper', 'TorchFusion', 'spikingjelly', 'InstanceSegmentation_Sentinel2', 'ultimateALPR-SDK', 'deep-RL-trading', 'xshinnosuke', 'osumapper', 'TorchFusion', 'spikingjelly', 'InstanceSegmentation_Sentinel2', 'ultimateALPR-SDK', 'deep-RL-trading', 'xshinnosuke', 'osumapper', 'TorchFusion', 'spikingjelly', 'InstanceSegmentation_Sentinel2', 'ultimateALPR-SDK', 'deep-RL-trading', 'xshinnosuke', 'osumapper', 'TorchFusion', 'spikingjelly', 'InstanceSegmentation_Sentinel2', 'ultimateALPR-SDK', 'deep-RL-trading', 'xshinnosuke', 'osumapper', 'TorchFusion', 'spikingjelly', 'InstanceSegmentation_Sentinel2', 'ultimateALPR-SDK', 'deep-RL-trading', 'xshinnosuke', 'osumapper', 'TorchFusion', 'spikingjelly', 'InstanceSegmentation_Sentinel2', 'ultimateALPR-SDK', 'deep-RL-trading', 'xshinnosuke', 'osumapper', 'TorchFusion', 'spikingjelly', 'InstanceSegmentation_Sentinel2', 'ultimateALPR-SDK', 'deep-RL-trading', 'xshinnosuke', 'osumapper', 'TorchFusion', 'spikingjelly', 'InstanceSegmentation_Sentinel2', 'ultimateALPR-SDK', 'deep-RL-trading', 'xshinnosuke', 'osumapper', 'TorchFusion', 'spikingjelly', 'InstanceSegmentation_Sentinel2', 'ultimateALPR-SDK', 'deep-RL-trading', 'xshinnosuke', 'osumapper', 'TorchFusion', 'spikingjelly', 'InstanceSegmentation_Sentinel2', 'ultimateALPR-SDK', 'deep-RL-trading', 'xshinnosuke', 'osumapper', 'TorchFusion', 'spikingjelly', 'InstanceSegmentation_Sentinel2', 'ultimateALPR-SDK', 'deep-RL-trading', 'xshinnosuke', 'osumapper', 'TorchFusion', 'spikingjelly', 'InstanceSegmentation_Sentinel2', 'ultimateALPR-SDK', 'deep-RL-trading', 'xshinnosuke', 'osumapper', 'TorchFusion', 'spikingjelly', 'InstanceSegmentation_Sentinel2', 'ultimateALPR-SDK', 'deep-RL-trading', 'xshinnosuke', 'osumapper', 'TorchFusion', 'spikingjelly', 'InstanceSegmentation_Sentinel2', 'ultimateALPR-SDK', 'deep-RL-trading', 'xshinnosuke', 'osumapper', 'TorchFusion', 'spikingjelly', 'InstanceSegmentation_Sentinel2', 'ultimateALPR-SDK', 'deep-RL-trading', 'xshinnosuke', 'osumapper', 'TorchFusion', 'spikingjelly', 'InstanceSegmentation_Sentinel2', 'ultimateALPR-SDK', 'deep-RL-trading', 'xshinnosuke', 'osumapper', 'TorchFusion', 'spikingjelly', 'InstanceSegmentation_Sentinel2', 'ultimateALPR-SDK', 'deep-RL-trading', 'xshinnosuke', 'osumapper', 'TorchFusion', 'spikingjelly', 'InstanceSegmentation_Sentinel2', 'ultimateALPR-SDK', 'deep-RL-trading', 'xshinnosuke', 'osumapper', 'TorchFusion', 'spikingjelly', 'InstanceSegmentation_Sentinel2', 'ultimateALPR-SDK', 'deep-RL-trading', 'xshinnosuke', 'osumapper', 'TorchFusion', 'spikingjelly', 'InstanceSegmentation_Sentinel2', 'ultimateALPR-SDK', 'deep-RL-trading', 'xshinnosuke', 'osumapper', 'TorchFusion', 'spikingjelly', 'InstanceSegmentation_Sentinel2', 'ultimateALPR-SDK', 'deep-RL-trading', 'xshinnosuke', 'osumapper', 'TorchFusion', 'spikingjelly', 'InstanceSegmentation_Sentinel2', 'ultimateALPR-SDK', 'deep-RL-trading', 'xshinnosuke', 'osumapper', 'TorchFusion', 'spikingjelly', 'InstanceSegmentation_Sentinel2', 'ultimateALPR-SDK', 'deep-RL-trading', 'xshinnosuke', 'osumapper', 'TorchFusion', 'spikingjelly', 'InstanceSegmentation_Sentinel2', 'ultimateALPR-SDK', 'deep-RL-trading', 'xshinnosuke', 'osumapper', 'TorchFusion', 'spikingjelly', 'InstanceSegmentation_Sentinel2', 'ultimateALPR-SDK', 'deep-RL-trading', 'xshinnosuke', 'osumapper', 'TorchFusion', 'spikingjelly', 'InstanceSegmentation_Sentinel2', 'ultimateALPR-SDK', 'deep-RL-trading', 'xshinnosuke', 'osumapper', 'TorchFusion', 'spikingjelly', 'InstanceSegmentation_Sentinel2', 'ultimateALPR-SDK', 'deep-RL-trading', 'xshinnosuke', 'osumapper', 'TorchFusion', 'spikingjelly', 'InstanceSegmentation_Sentinel2', 'ultimateALPR-SDK', 'deep-RL-trading', 'xshinnosuke', 'osumapper', 'TorchFusion', 'spikingjelly', 'InstanceSegmentation_Sentinel2', 'ultimateALPR-SDK', 'deep-RL-trading', 'xshinnosuke', 'osumapper', 'TorchFusion', 'spikingjelly', 'InstanceSegmentation_Sentinel2', 'ultimateALPR-SDK', 'deep-RL-trading', 'xshinnosuke', 'osumapper', 'TorchFusion', 'spikingjelly', 'InstanceSegmentation_Sentinel2', 'ultimateALPR-SDK', 'deep-RL-trading', 'xshinnosuke', 'osumapper', 'TorchFusion', 'spikingjelly', 'InstanceSegmentation_Sentinel2', 'ultimateALPR-SDK', 'deep-RL-trading', 'xshinnosuke', 'osumapper', 'TorchFusion', 'spikingjelly', 'InstanceSegmentation_Sentinel2', 'ultimateALPR-SDK', 'deep-RL-trading', 'xshinnosuke', 'osumapper', 'TorchFusion', 'spikingjelly', 'InstanceSegmentation_Sentinel2', 'ultimateALPR-SDK', 'deep-RL-trading', 'xshinnosuke', 'osumapper', 'TorchFusion', 'spikingjelly', 'InstanceSegmentation_Sentinel2', 'ultimateALPR-SDK', 'deep-RL-trading', 'xshinnosuke', 'osumapper', 'TorchFusion', 'spikingjelly', 'InstanceSegmentation_Sentinel2', 'ultimateALPR-SDK', 'deep-RL-trading', 'xshinnosuke', 'osumapper', 'TorchFusion', 'spikingjelly', 'InstanceSegmentation_Sentinel2', 'ultimateALPR-SDK', 'deep-RL-trading', 'xshinnosuke', 'osumapper', 'TorchFusion', 'spikingjelly', 'InstanceSegmentation_Sentinel2', 'ultimateALPR-SDK', 'deep-RL-trading', 'xshinnosuke', 'osumapper', 'TorchFusion', 'spikingjelly', 'InstanceSegmentation_Sentinel2', 'ultimateALPR-SDK', 'deep-RL-trading', 'xshinnosuke', 'osumapper', 'TorchFusion', 'spikingjelly', 'InstanceSegmentation_Sentinel2', 'ultimateALPR-SDK', 'deep-RL-trading', 'xshinnosuke', 'osumapper', 'TorchFusion', 'spikingjelly', 'InstanceSegmentation_Sentinel2', 'ultimateALPR-SDK', 'deep-RL-trading', 'xshinnosuke', 'osumapper', 'TorchFusion', 'spikingjelly', 'InstanceSegmentation_Sentinel2', 'ultimateALPR-SDK', 'deep-RL-trading', 'xshinnosuke', 'osumapper', 'TorchFusion', 'spikingjelly', 'InstanceSegmentation_Sentinel2', 'ultimateALPR-SDK', 'deep-RL-trading', 'xshinnosuke', 'osumapper', 'TorchFusion', 'spikingjelly', 'InstanceSegmentation_Sentinel2', 'ultimateALPR-SDK', 'deep-RL-trading', 'xshinnosuke', 'osumapper', 'TorchFusion', 'spikingjelly', 'InstanceSegmentation_Sentinel2', 'ultimateALPR-SDK', 'deep-RL-trading', 'xshinnosuke', 'osumapper', 'TorchFusion', 'spikingjelly', 'InstanceSegmentation_Sentinel2', 'ultimateALPR-SDK', 'deep-RL-trading', 'xshinnosuke', 'osumapper', 'TorchFusion', 'spikingjelly', 'InstanceSegmentation_Sentinel2', 'ultimateALPR-SDK', 'deep-RL-trading', 'xshinnosuke', 'osumapper', 'TorchFusion', 'spikingjelly', 'InstanceSegmentation_Sentinel2']</t>
+  </si>
+  <si>
+    <t>['keras', 'caffe', 'Deep-Learning-Papers-Reading-Roadmap', 'handson-ml', 'awesome-deep-learning-papers', 'pytorch-tutorial', 'data-science-ipython-notebooks', 'fastai', 'ML-From-Scratch', 'incubator-mxnet', 'awesome-deep-learning', 'CNTK', 'Paddle', 'netron', 'Dive-into-DL-PyTorch', 'cheatsheets-ai', 'Qix', 'deeplearning4j', 'Deep-Learning-with-TensorFlow-book', 'tensor2tensor', 'Machine-Learning-Tutorials', 'd2l-en', 'ML-NLP', 'deep_learning_object_detection', 'stanford-tensorflow-tutorials', 'mit-deep-learning-book-pdf', 'nlp-tutorial', 'deep-learning-drizzle', 'tflearn', 'mit-deep-learning', 'caffe2', 'autokeras', 'ludwig', 'tvm', '500-AI-Machine-learning-Deep-learning-Computer-vision-NLP-Projects-with-code', 'text_classification', 'tensorlayer', 'DeepLearning', 'trax', 'awesome-object-detection', 'deep-learning-coursera', 'MNN', 'DeepLearningFlappyBird', 'deepo', 'DeepSpeed', 'Paddle-Lite', 'chainer', 'h2o-3', 'DeepCTR', 'annotated_deep_learning_paper_implementations', 'pytorch-Deep-Learning', 'DeepPavlov', 'MMdnn', 'tiny-dnn', 'deep-learning-for-image-processing', 'TTS', 'TopDeepLearning', 'machine-learning-mindmap', 'keras-rl', 'jetson-inference', 'stanford-cs-230-deep-learning', 'introtodeeplearning', 'ASRT_SpeechRecognition', 'pwnagotchi', 'Stock-Prediction-Models', 'TensorRT', 'DeepLearning.ai-Summary', 'AidLearning-FrameWork', 'tensorspace', 'deep-learning-v2-pytorch', 'neurojs', 'Ai-Learn', 'DeepLearningProject', 'VisualDL', 'DeepLearningZeroToAll', 'deep-learning-roadmap', 't81_558_deep_learning', 'DIGITS', 'tianshou', 'deep-reinforcement-learning', 'DeepLearning', 'einops', 'pytorch-metric-learning', 'neon', 'd2l-pytorch', 'Hub', 'Deep-Learning-Interview-Book', 'DALI', 'deep-high-resolution-net.pytorch', 'pointnet', 'graph-based-deep-learning-literature', 'tensorrtx', 'Dive-into-DL-TensorFlow2.0', 'Production-Level-Deep-Learning', 'Reinforcement-Learning', 'deepchem', 'TNN', 'Deep_reinforcement_learning_Course', 'Deep-Learning-Roadmap', 'Deep-Learning-in-Production', 'deep-person-reid', 'deep-learning-papers', 'ArtLine', 'deep-learning-model-convertor', 'DeepLearning', 'LiteratureDL4Graph', 'open_model_zoo', 'deep-learning-keras-tensorflow', 'TTS', 'DeepQA', 'oneflow', 'catalyst', 'kaolin', 'MachineLearningNotebooks', 'nlp-architect', 'deepjazz', 'euler', 'layout-parser', 'deep-text-recognition-benchmark', 'pytorch-a2c-ppo-acktr-gail', 'porcupine', 'DeepLabCut', 'Deep-Learning-for-Recommendation-Systems', 'awesome-deeplearning-resources', 'interactive-deep-colorization', 'singa', 'awesome-satellite-imagery-datasets', 'thinc', 'luminoth', 'imgclsmob', 'TensorFlow-and-DeepLearning-Tutorial', 'gluon-api', 'Girls-In-AI', 'deepdetect', 'awesome-deep-text-detection-recognition', 'code-of-learn-deep-learning-with-pytorch', 'DouZero', 'djl', 'awesome-deep-learning-music', 'pointnet2', 'DeepRL-Agents', 'tensorflow-speech-recognition', 'zhusuan', 'deep-learning-with-keras-notebooks', 'kcws', 'awesome-image-classification', 'satellite-image-deep-learning', 'ICCV2019-LearningToPaint', 'Deep-Learning-with-PyTorch-Tutorials', 'turkce-yapay-zeka-kaynaklari', 'tensorflow_template_application', 'practical-machine-learning-with-python', 'benchm-ml', 'Deep-reinforcement-learning-with-pytorch', 'tensorflow-deep-learning', 'tinyflow', 'DeepLearningImplementations', 'Awesome-AutoDL', 'deepschool.io', 'DeepLearningForNLPInPytorch', 'DeepLearn', 'tensorflow-1.4-billion-password-analysis', 'ml-surveys', 'www.mlcompendium.com', 'DeepCTR-Torch', 'torch-points3d', 'NLP-Models-Tensorflow', 'DeepRecommender', 'Papers-Literature-ML-DL-RL-AI', 'bulbea', 'DeepLearning_tutorials', 'ios-learning-materials', 'deep-rl-tensorflow', 'determined', 'SparrowRecSys', 'HyperLandmark', 'BerryNet', 'deeptraffic', 'elephas', 'ML', 'CADL', 'delta', 'Awesome-Deep-Learning-Resources', 'chainercv', 'GDLnotes', 'Top-Deep-Learning', 'ElegantRL', 'raster-vision', 'grenade', 'Deep-Learning-for-Medical-Applications', 'deeplearning-mindmap', 'DeepAA', 'Neural-Networks-on-Silicon', 'Knet.jl', 'deep-learning-time-series', 'DeepMoji', 'AutoDL-Projects', 'Deep-learning-with-cats', 'petastorm', 'dcgan-completion.tensorflow', 'Getting-Things-Done-with-Pytorch', 'DLTK', 'Deep3DFaceReconstruction', 'distribution-is-all-you-need', 'Rainbow', 'lectures-labs', 'noreward-rl', 'dl-colab-notebooks', 'Interactive_Tools', 'torchio', 'AI-Chip', 'dl-visuals', 'deep-review', 'Personae', 'deep-head-pose', 'nlp_overview', 'Repo-2017', 'Advanced-Deep-Learning-with-Keras', 'fastai_deeplearn_part1', 'Deep-Tutorials-for-PyTorch', 'SoTA-Point-Cloud', 'Face-Mask-Detection', 'Research', 'deep-q-learning', 'DFace', 'fsdl-text-recognizer-project', 'awesome-DeepLearning', 'DeepRec', 'text_renderer', 'ILearnDeepLearning.py', 'DnCNN', 'tsai', 'DeepAudioClassification', 'Deep-Learning-Book-Chapter-Summaries', 'SLM-Lab', 'DLInterview', 'service-streamer', 'awesome-ai-ml-dl', 'morph-net', 'PyRetri', 'Deep-Learning-TensorFlow', 'DIG', 'yt-channels-DS-AI-ML-CS', 'pytorch-a3c', 'dl-4-tsc', 'AutoDL', 'ktrain', 'Deep-Reinforcement-Learning-for-Automated-Stock-Trading-Ensemble-Strategy-ICAIF-2020', 'variational-autoencoder', 'Deep-Learning-Experiments', 'NYU-DLSP21', 'DL-workshop-series', 'Arraymancer', 'neuropod', 'cogdl', 'hivemind', 'Andrew-Ng-Deep-Learning-notes', 'RecSys2019_DeepLearning_Evaluation', 'deep-motion-editing', 'DeepTables', 'STT', 'gans-in-action', 'DeepCamera', 'DeepRL-Tutorials', 'torchMoji', 'MedicalZooPytorch', 'AdderNet', 'labml', 'kur', 'Coloring-greyscale-images', 'Deep-Learning-Project-Template', 'flow-forecast', 'cifar-10-cnn', 'BMW-TensorFlow-Training-GUI', 'decord', 'Speech-Emotion-Analyzer', 'awesome-deep-trading', 'swift-apis', 'deep_learning_and_the_game_of_go', 'deep-ctr-prediction', 'pytorch-rl', 'awesome-tensor-compilers', 'PassGAN', 'HRNet-Facial-Landmark-Detection', 'DeepLearning.scala', 'Hyperparameter-Optimization-of-Machine-Learning-Algorithms', 'tensorflow-tutorial', 'tensorflow-101', 'pysc2-examples', 'deepxde', 'deepforge', 'course-gitbook', 'intro-to-dl', 'Text-Classification-Pytorch', 'tez', 'coursera-deep-learning-specialization', '3D-convolutional-speaker-recognition', 'Deep-Learning-For-Hackers', 'RLSeq2Seq', 'Deep_Metric', 'AI-Series', 'Hands-On-Reinforcement-Learning-With-Python', 'pytorch-widedeep', 'KotlinDL', 'DSOD', 'DeepJ', 'ufldl_tutorial', 'china-dictatorship', 'course20', 'deep-learning-guide', 'CS224n', 'food-101-keras', 'TonY', 'neoml', 'FfDL', 'deepmd-kit', 'bolt', 'NeuralDialogPapers', 'RedisAI', 'interview-questions', 'elasticdl', 'Deep-Learning-with-PyTorch-Chinese', 'awesome-neural-ode', 'deep-learning-from-scratch', 'deep-trading-agent', 'dll', 'dist-keras', 'bdl-benchmarks', 'mario-ai', 'music-generation-with-DL', 'webdataset', 'visual-pushing-grasping', 'libxsmm', 'BMW-YOLOv4-Training-Automation', 'Emotion-detection', 'async_deep_reinforce', 'awesome-emdl', 'How-to-learn-Deep-Learning', 'CryptocurrencyPrediction', 'cleanrl', 'Trending-Deep-Learning', 'VTuber_Unity', 'SiamTrackers', 'papers', 'notebooks', 'Awesome-Cybersecurity-Datasets', 'faced', 'alfred', 'Learning-Deep-Learning', 'music_recommender', 'blitz-bayesian-deep-learning', 'TF-Tutorials', 'Awsome-Deep-Learning-for-Video-Analysis', 'reaver', 'awesome_deep_learning_interpretability', 'dlwin', 'PaddleVideo', 'deepsvg', 'Practical-Deep-Learning-Book', 'autonomous-learning-library', 'chainer-chemistry', 'Deep-Learning-In-Production', 'deep-learning-bitcoin', 'UCR_Time_Series_Classification_Deep_Learning_Baseline', 'T2F', 'Awesome-Image-Colorization', 'monk_v1', 'Awesome-Deep-Learning-Papers-for-Search-Recommendation-Advertising', 'doctr', 'deep-learning-resources', 'TASO', 'SOD-CNNs-based-code-summary-', 'sktime-dl', 'NeuralPDE.jl', 'pytorch_tabular', 'Neuraxle', 'Federated-Learning-PyTorch', 'reinforcement-learning-algorithms', 'Forward', 'X2Paddle', 'Fast-SRGAN', 'rl-portfolio-management', 'Dataset_Synthesizer', 'torch-light', 'DeepHash', 'Urban-Sound-Classification', 'Adlik', 'crypto-rl', 'hedwig', 'code_search', 'DeepDarkFantasy', 'deep-transfer-learning', 'Deep-Learning-Paper-Review-and-Practice', 'rhino', 'ReID-Survey', 'awesome-very-deep-learning', 'Sequence-Semantic-Embedding', 'Daily-DeepLearning', 'Deep-Learning-Machine-Learning-Stock', 'NLP_Quickbook', 'octnet', 'pvcnn', 'Change-Detection-Review', 'nncase', 'FastAI.jl', 'Deep-Learning-NLP', '3D-Deepbox', 'Deep-learning-in-cloud', 'Flappy-bird-deep-Q-learning-pytorch', 'Deep-Reinforcement-Learning-Survey', 'deep_learning_NLP', 'cn-deep-learning', 'DeepPath', 'DeepLearningProjectWorkflow', 'huskarl', 'OpenChem', 'DeepRL-TensorFlow2', 'ColossalAI', 'fire-detection-cnn', 'detection-2016-nipsws', 'bayesian-neural-network-blogpost', 'pytorch-rl', 'trading-bot', 'natural-language-processing', 'deep-learning-uncertainty', 'First-steps-towards-Deep-Learning', 'spotty', 'd3rlpy', 'pulp-dronet', 'megvii-pku-dl-course', 'deep_rl', 'useR-machine-learning-tutorial', 'Deep-Learning-Tricks', 'RMDL', 'DeepTraffic', 'Easy-deep-learning-with-Keras', 'Coursera-Deep-Learning-deeplearning.ai', 'deep-learning-nano-foundation', 'InnerEye-DeepLearning', 'yoloface', 'pcam', 'irl-imitation', 'tf_chatbot_seq2seq_antilm', 'RL-Chatbot', 'tensorboard', 'Basic-Mathematics-for-Machine-Learning', 'DeepXi', 'pycadl', 'onyx', 'torch-audiomentations', 'SiaNet', 'Ensemble-Pytorch', 'carefree-learn', 'Emotion', 'deep-active-learning', 'artificio', 'tflite_gles_app', 'flowpoints_ml', 'awesome-computer-vision-models', 'qkeras', 'DeepReg', 'pytorch-vsumm-reinforce', 'Audio-Classification', 'pytorch-nlp-notebooks', 'SODsurvey', 'PaddleHelix', '300Days__MachineLearningDeepLearning', 'NLP101', 'jeelizAR', 'deepC', 'DeepLearningNotes', 'tensorflow-resources', 'awesome-ehr-deeplearning', 'CNTK-World', 'CodeFun', 'pyvarinf', 'torchsat', 'amazon-rekognition-video-analyzer', 'deepkit-ml', 'CrowdNav', 'handful-of-trials', 'delft', 'dliss-tutorial', 'norse', 'Depth-VO-Feat', 'DnCNN-tensorflow', 'DeepHash-Papers', 'Speech-enhancement', 'EEG-DL', 'uvadlc_notebooks', 'deep-learning-containers', 'sednn', 'BitcoinForecast', 'BayesianDeepLearning-Survey', 'Xvision', 'LanczosNetwork', 'thinking-in-tensors-writing-in-pytorch', 'AgentNet', 'DeepPoseKit', 'elegy', 'selene', 'deepnet', 'deep-learning-nlp-rl-papers', 'Hands-On-Deep-Learning-Algorithms-with-Python', 'MyDeepLearning', 'pytorch-DRL', 'Deep-Reinforcement-Learning-Algorithms', 'rlgraph', 'deep-rl', 'DREAMPlace', 'MusicGenerator', 'Jupyter', 'DeepPiCar', 'Time-series---deep-learning---state-of-the-art', 'DeepLearningWithTF2.0', 'Deep_White_Balance', 'mentornet', 'ros_robotics_projects', 'gnina', 'LightNet', 'Deep-Learning-Tinder', 'mentornet', 'ros_robotics_projects', 'gnina', 'LightNet', 'Deep-Learning-Tinder', 'mentornet', 'ros_robotics_projects', 'gnina', 'LightNet', 'Deep-Learning-Tinder', 'mentornet', 'ros_robotics_projects', 'gnina', 'LightNet', 'Deep-Learning-Tinder', 'mentornet', 'ros_robotics_projects', 'gnina', 'LightNet', 'Deep-Learning-Tinder', 'mentornet', 'ros_robotics_projects', 'gnina', 'LightNet', 'Deep-Learning-Tinder', 'mentornet', 'ros_robotics_projects', 'gnina', 'LightNet', 'Deep-Learning-Tinder', 'mentornet', 'ros_robotics_projects', 'gnina', 'LightNet', 'Deep-Learning-Tinder', 'mentornet', 'ros_robotics_projects', 'gnina', 'LightNet', 'Deep-Learning-Tinder', 'mentornet', 'ros_robotics_projects', 'gnina', 'LightNet', 'Deep-Learning-Tinder', 'mentornet', 'ros_robotics_projects', 'gnina', 'LightNet', 'Deep-Learning-Tinder', 'mentornet', 'ros_robotics_projects', 'gnina', 'LightNet', 'Deep-Learning-Tinder', 'mentornet', 'ros_robotics_projects', 'gnina', 'LightNet', 'Deep-Learning-Tinder', 'mentornet', 'ros_robotics_projects', 'gnina', 'LightNet', 'Deep-Learning-Tinder', 'mentornet', 'ros_robotics_projects', 'gnina', 'LightNet', 'Deep-Learning-Tinder', 'mentornet', 'ros_robotics_projects', 'gnina', 'LightNet', 'Deep-Learning-Tinder', 'mentornet', 'ros_robotics_projects', 'gnina', 'LightNet', 'Deep-Learning-Tinder', 'mentornet', 'ros_robotics_projects', 'gnina', 'LightNet', 'Deep-Learning-Tinder', 'mentornet', 'ros_robotics_projects', 'gnina', 'LightNet', 'Deep-Learning-Tinder', 'mentornet', 'ros_robotics_projects', 'gnina', 'LightNet', 'Deep-Learning-Tinder', 'mentornet', 'ros_robotics_projects', 'gnina', 'LightNet', 'Deep-Learning-Tinder', 'mentornet', 'ros_robotics_projects', 'gnina', 'LightNet', 'Deep-Learning-Tinder', 'mentornet', 'ros_robotics_projects', 'gnina', 'LightNet', 'Deep-Learning-Tinder', 'mentornet', 'ros_robotics_projects', 'gnina', 'LightNet', 'Deep-Learning-Tinder', 'mentornet', 'ros_robotics_projects', 'gnina', 'LightNet', 'Deep-Learning-Tinder', 'mentornet', 'ros_robotics_projects', 'gnina', 'LightNet', 'Deep-Learning-Tinder', 'mentornet', 'ros_robotics_projects', 'gnina', 'LightNet', 'Deep-Learning-Tinder', 'mentornet', 'ros_robotics_projects', 'gnina', 'LightNet', 'Deep-Learning-Tinder', 'mentornet', 'ros_robotics_projects', 'gnina', 'LightNet', 'Deep-Learning-Tinder', 'mentornet', 'ros_robotics_projects', 'gnina', 'LightNet', 'Deep-Learning-Tinder', 'mentornet', 'ros_robotics_projects', 'gnina', 'LightNet', 'Deep-Learning-Tinder', 'mentornet', 'ros_robotics_projects', 'gnina', 'LightNet', 'Deep-Learning-Tinder', 'mentornet', 'ros_robotics_projects', 'gnina', 'LightNet', 'Deep-Learning-Tinder', 'mentornet', 'ros_robotics_projects', 'gnina', 'LightNet', 'Deep-Learning-Tinder', 'mentornet', 'ros_robotics_projects', 'gnina', 'LightNet', 'Deep-Learning-Tinder', 'mentornet', 'ros_robotics_projects', 'gnina', 'LightNet', 'Deep-Learning-Tinder', 'mentornet', 'ros_robotics_projects', 'gnina', 'LightNet', 'Deep-Learning-Tinder', 'mentornet', 'ros_robotics_projects', 'gnina', 'LightNet', 'Deep-Learning-Tinder', 'mentornet', 'ros_robotics_projects', 'gnina', 'LightNet', 'Deep-Learning-Tinder', 'mentornet', 'ros_robotics_projects', 'gnina', 'LightNet', 'Deep-Learning-Tinder', 'mentornet', 'ros_robotics_projects', 'gnina', 'LightNet', 'Deep-Learning-Tinder', 'mentornet', 'ros_robotics_projects', 'gnina', 'LightNet', 'Deep-Learning-Tinder', 'mentornet', 'ros_robotics_projects', 'gnina', 'LightNet', 'Deep-Learning-Tinder', 'mentornet', 'ros_robotics_projects', 'gnina', 'LightNet', 'Deep-Learning-Tinder', 'mentornet', 'ros_robotics_projects', 'gnina', 'LightNet', 'Deep-Learning-Tinder', 'mentornet', 'ros_robotics_projects', 'gnina', 'LightNet', 'Deep-Learning-Tinder', 'mentornet', 'ros_robotics_projects', 'gnina', 'LightNet', 'Deep-Learning-Tinder', 'mentornet', 'ros_robotics_projects', 'gnina', 'LightNet', 'Deep-Learning-Tinder', 'mentornet', 'ros_robotics_projects', 'gnina', 'LightNet', 'Deep-Learning-Tinder', 'mentornet', 'ros_robotics_projects', 'gnina', 'LightNet', 'Deep-Learning-Tinder', 'mentornet', 'ros_robotics_projects', 'gnina', 'LightNet', 'Deep-Learning-Tinder', 'mentornet', 'ros_robotics_projects', 'gnina', 'LightNet', 'Deep-Learning-Tinder', 'mentornet', 'ros_robotics_projects', 'gnina', 'LightNet', 'Deep-Learning-Tinder', 'mentornet', 'ros_robotics_projects', 'gnina', 'LightNet', 'Deep-Learning-Tinder', 'mentornet', 'ros_robotics_projects', 'gnina', 'LightNet', 'Deep-Learning-Tinder', 'mentornet', 'ros_robotics_projects', 'gnina', 'LightNet', 'Deep-Learning-Tinder', 'mentornet', 'ros_robotics_projects', 'gnina', 'LightNet', 'Deep-Learning-Tinder', 'mentornet', 'ros_robotics_projects', 'gnina', 'LightNet', 'Deep-Learning-Tinder', 'mentornet', 'ros_robotics_projects', 'gnina', 'LightNet', 'Deep-Learning-Tinder', 'mentornet', 'ros_robotics_projects', 'gnina', 'LightNet', 'Deep-Learning-Tinder', 'mentornet', 'ros_robotics_projects', 'gnina', 'LightNet', 'Deep-Learning-Tinder', 'mentornet', 'ros_robotics_projects', 'gnina', 'LightNet', 'Deep-Learning-Tinder', 'mentornet', 'ros_robotics_projects', 'gnina', 'LightNet', 'Deep-Learning-Tinder', 'mentornet', 'ros_robotics_projects', 'gnina', 'LightNet', 'Deep-Learning-Tinder', 'mentornet', 'ros_robotics_projects', 'gnina', 'LightNet', 'Deep-Learning-Tinder', 'mentornet', 'ros_robotics_projects', 'gnina', 'LightNet', 'Deep-Learning-Tinder', 'mentornet', 'ros_robotics_projects', 'gnina', 'LightNet', 'Deep-Learning-Tinder', 'mentornet', 'ros_robotics_projects', 'gnina', 'LightNet', 'Deep-Learning-Tinder', 'mentornet', 'ros_robotics_projects', 'gnina', 'LightNet', 'Deep-Learning-Tinder', 'mentornet', 'ros_robotics_projects', 'gnina', 'LightNet', 'Deep-Learning-Tinder', 'mentornet', 'ros_robotics_projects', 'gnina', 'LightNet', 'Deep-Learning-Tinder', 'mentornet', 'ros_robotics_projects', 'gnina', 'LightNet', 'Deep-Learning-Tinder', 'mentornet', 'ros_robotics_projects', 'gnina', 'LightNet', 'Deep-Learning-Tinder', 'mentornet', 'ros_robotics_projects', 'gnina', 'LightNet', 'Deep-Learning-Tinder', 'mentornet', 'ros_robotics_projects', 'gnina', 'LightNet', 'Deep-Learning-Tinder', 'mentornet', 'ros_robotics_projects', 'gnina', 'LightNet', 'Deep-Learning-Tinder', 'mentornet', 'ros_robotics_projects', 'gnina', 'LightNet', 'Deep-Learning-Tinder', 'mentornet', 'ros_robotics_projects', 'gnina', 'LightNet', 'Deep-Learning-Tinder', 'mentornet', 'ros_robotics_projects', 'gnina', 'LightNet', 'Deep-Learning-Tinder', 'mentornet', 'ros_robotics_projects', 'gnina', 'LightNet', 'Deep-Learning-Tinder', 'mentornet', 'ros_robotics_projects', 'gnina', 'LightNet', 'Deep-Learning-Tinder', 'mentornet', 'ros_robotics_projects', 'gnina', 'LightNet', 'Deep-Learning-Tinder', 'mentornet', 'ros_robotics_projects', 'gnina', 'LightNet', 'Deep-Learning-Tinder', 'mentornet', 'ros_robotics_projects', 'gnina', 'LightNet', 'Deep-Learning-Tinder', 'mentornet', 'ros_robotics_projects', 'gnina', 'LightNet', 'Deep-Learning-Tinder', 'mentornet', 'ros_robotics_projects', 'gnina', 'LightNet', 'Deep-Learning-Tinder', 'mentornet', 'ros_robotics_projects', 'gnina', 'LightNet', 'Deep-Learning-Tinder', 'mentornet', 'ros_robotics_projects', 'gnina', 'LightNet', 'Deep-Learning-Tinder', 'mentornet', 'ros_robotics_projects', 'gnina', 'LightNet', 'Deep-Learning-Tinder', 'mentornet', 'ros_robotics_projects', 'gnina', 'LightNet', 'Deep-Learning-Tinder', 'mentornet', 'ros_robotics_projects', 'gnina', 'LightNet', 'Deep-Learning-Tinder']</t>
+  </si>
+  <si>
+    <t>['vel', 'windy-afternoon', 'Deep-Learning-From-Scratch', 'Good-Papers', 'Deep-Learning-Papers-for-Fish', 'vel', 'windy-afternoon', 'Deep-Learning-From-Scratch', 'Good-Papers', 'Deep-Learning-Papers-for-Fish', 'vel', 'windy-afternoon', 'Deep-Learning-From-Scratch', 'Good-Papers', 'Deep-Learning-Papers-for-Fish', 'vel', 'windy-afternoon', 'Deep-Learning-From-Scratch', 'Good-Papers', 'Deep-Learning-Papers-for-Fish', 'vel', 'windy-afternoon', 'Deep-Learning-From-Scratch', 'Good-Papers', 'Deep-Learning-Papers-for-Fish', 'vel', 'windy-afternoon', 'Deep-Learning-From-Scratch', 'Good-Papers', 'Deep-Learning-Papers-for-Fish', 'vel', 'windy-afternoon', 'Deep-Learning-From-Scratch', 'Good-Papers', 'Deep-Learning-Papers-for-Fish', 'vel', 'windy-afternoon', 'Deep-Learning-From-Scratch', 'Good-Papers', 'Deep-Learning-Papers-for-Fish', 'vel', 'windy-afternoon', 'Deep-Learning-From-Scratch', 'Good-Papers', 'Deep-Learning-Papers-for-Fish', 'vel', 'windy-afternoon', 'Deep-Learning-From-Scratch', 'Good-Papers', 'Deep-Learning-Papers-for-Fish', 'vel', 'windy-afternoon', 'Deep-Learning-From-Scratch', 'Good-Papers', 'Deep-Learning-Papers-for-Fish', 'vel', 'windy-afternoon', 'Deep-Learning-From-Scratch', 'Good-Papers', 'Deep-Learning-Papers-for-Fish', 'vel', 'windy-afternoon', 'Deep-Learning-From-Scratch', 'Good-Papers', 'Deep-Learning-Papers-for-Fish', 'vel', 'windy-afternoon', 'Deep-Learning-From-Scratch', 'Good-Papers', 'Deep-Learning-Papers-for-Fish', 'vel', 'windy-afternoon', 'Deep-Learning-From-Scratch', 'Good-Papers', 'Deep-Learning-Papers-for-Fish', 'vel', 'windy-afternoon', 'Deep-Learning-From-Scratch', 'Good-Papers', 'Deep-Learning-Papers-for-Fish', 'vel', 'windy-afternoon', 'Deep-Learning-From-Scratch', 'Good-Papers', 'Deep-Learning-Papers-for-Fish', 'vel', 'windy-afternoon', 'Deep-Learning-From-Scratch', 'Good-Papers', 'Deep-Learning-Papers-for-Fish', 'vel', 'windy-afternoon', 'Deep-Learning-From-Scratch', 'Good-Papers', 'Deep-Learning-Papers-for-Fish', 'vel', 'windy-afternoon', 'Deep-Learning-From-Scratch', 'Good-Papers', 'Deep-Learning-Papers-for-Fish', 'vel', 'windy-afternoon', 'Deep-Learning-From-Scratch', 'Good-Papers', 'Deep-Learning-Papers-for-Fish', 'vel', 'windy-afternoon', 'Deep-Learning-From-Scratch', 'Good-Papers', 'Deep-Learning-Papers-for-Fish', 'vel', 'windy-afternoon', 'Deep-Learning-From-Scratch', 'Good-Papers', 'Deep-Learning-Papers-for-Fish', 'vel', 'windy-afternoon', 'Deep-Learning-From-Scratch', 'Good-Papers', 'Deep-Learning-Papers-for-Fish', 'vel', 'windy-afternoon', 'Deep-Learning-From-Scratch', 'Good-Papers', 'Deep-Learning-Papers-for-Fish', 'vel', 'windy-afternoon', 'Deep-Learning-From-Scratch', 'Good-Papers', 'Deep-Learning-Papers-for-Fish', 'vel', 'windy-afternoon', 'Deep-Learning-From-Scratch', 'Good-Papers', 'Deep-Learning-Papers-for-Fish', 'vel', 'windy-afternoon', 'Deep-Learning-From-Scratch', 'Good-Papers', 'Deep-Learning-Papers-for-Fish', 'vel', 'windy-afternoon', 'Deep-Learning-From-Scratch', 'Good-Papers', 'Deep-Learning-Papers-for-Fish', 'vel', 'windy-afternoon', 'Deep-Learning-From-Scratch', 'Good-Papers', 'Deep-Learning-Papers-for-Fish', 'vel', 'windy-afternoon', 'Deep-Learning-From-Scratch', 'Good-Papers', 'Deep-Learning-Papers-for-Fish', 'vel', 'windy-afternoon', 'Deep-Learning-From-Scratch', 'Good-Papers', 'Deep-Learning-Papers-for-Fish', 'vel', 'windy-afternoon', 'Deep-Learning-From-Scratch', 'Good-Papers', 'Deep-Learning-Papers-for-Fish', 'vel', 'windy-afternoon', 'Deep-Learning-From-Scratch', 'Good-Papers', 'Deep-Learning-Papers-for-Fish', 'vel', 'windy-afternoon', 'Deep-Learning-From-Scratch', 'Good-Papers', 'Deep-Learning-Papers-for-Fish', 'vel', 'windy-afternoon', 'Deep-Learning-From-Scratch', 'Good-Papers', 'Deep-Learning-Papers-for-Fish', 'vel', 'windy-afternoon', 'Deep-Learning-From-Scratch', 'Good-Papers', 'Deep-Learning-Papers-for-Fish', 'vel', 'windy-afternoon', 'Deep-Learning-From-Scratch', 'Good-Papers', 'Deep-Learning-Papers-for-Fish', 'vel', 'windy-afternoon', 'Deep-Learning-From-Scratch', 'Good-Papers', 'Deep-Learning-Papers-for-Fish', 'vel', 'windy-afternoon', 'Deep-Learning-From-Scratch', 'Good-Papers', 'Deep-Learning-Papers-for-Fish', 'vel', 'windy-afternoon', 'Deep-Learning-From-Scratch', 'Good-Papers', 'Deep-Learning-Papers-for-Fish', 'vel', 'windy-afternoon', 'Deep-Learning-From-Scratch', 'Good-Papers', 'Deep-Learning-Papers-for-Fish', 'vel', 'windy-afternoon', 'Deep-Learning-From-Scratch', 'Good-Papers', 'Deep-Learning-Papers-for-Fish', 'vel', 'windy-afternoon', 'Deep-Learning-From-Scratch', 'Good-Papers', 'Deep-Learning-Papers-for-Fish', 'vel', 'windy-afternoon', 'Deep-Learning-From-Scratch', 'Good-Papers', 'Deep-Learning-Papers-for-Fish', 'vel', 'windy-afternoon', 'Deep-Learning-From-Scratch', 'Good-Papers', 'Deep-Learning-Papers-for-Fish', 'vel', 'windy-afternoon', 'Deep-Learning-From-Scratch', 'Good-Papers', 'Deep-Learning-Papers-for-Fish', 'vel', 'windy-afternoon', 'Deep-Learning-From-Scratch', 'Good-Papers', 'Deep-Learning-Papers-for-Fish', 'vel', 'windy-afternoon', 'Deep-Learning-From-Scratch', 'Good-Papers', 'Deep-Learning-Papers-for-Fish', 'vel', 'windy-afternoon', 'Deep-Learning-From-Scratch', 'Good-Papers', 'Deep-Learning-Papers-for-Fish', 'vel', 'windy-afternoon', 'Deep-Learning-From-Scratch', 'Good-Papers', 'Deep-Learning-Papers-for-Fish', 'vel', 'windy-afternoon', 'Deep-Learning-From-Scratch', 'Good-Papers', 'Deep-Learning-Papers-for-Fish', 'vel', 'windy-afternoon', 'Deep-Learning-From-Scratch', 'Good-Papers', 'Deep-Learning-Papers-for-Fish', 'vel', 'windy-afternoon', 'Deep-Learning-From-Scratch', 'Good-Papers', 'Deep-Learning-Papers-for-Fish', 'vel', 'windy-afternoon', 'Deep-Learning-From-Scratch', 'Good-Papers', 'Deep-Learning-Papers-for-Fish', 'vel', 'windy-afternoon', 'Deep-Learning-From-Scratch', 'Good-Papers', 'Deep-Learning-Papers-for-Fish', 'vel', 'windy-afternoon', 'Deep-Learning-From-Scratch', 'Good-Papers', 'Deep-Learning-Papers-for-Fish', 'vel', 'windy-afternoon', 'Deep-Learning-From-Scratch', 'Good-Papers', 'Deep-Learning-Papers-for-Fish', 'vel', 'windy-afternoon', 'Deep-Learning-From-Scratch', 'Good-Papers', 'Deep-Learning-Papers-for-Fish', 'vel', 'windy-afternoon', 'Deep-Learning-From-Scratch', 'Good-Papers', 'Deep-Learning-Papers-for-Fish', 'vel', 'windy-afternoon', 'Deep-Learning-From-Scratch', 'Good-Papers', 'Deep-Learning-Papers-for-Fish', 'vel', 'windy-afternoon', 'Deep-Learning-From-Scratch', 'Good-Papers', 'Deep-Learning-Papers-for-Fish', 'vel', 'windy-afternoon', 'Deep-Learning-From-Scratch', 'Good-Papers', 'Deep-Learning-Papers-for-Fish', 'vel', 'windy-afternoon', 'Deep-Learning-From-Scratch', 'Good-Papers', 'Deep-Learning-Papers-for-Fish', 'vel', 'windy-afternoon', 'Deep-Learning-From-Scratch', 'Good-Papers', 'Deep-Learning-Papers-for-Fish', 'vel', 'windy-afternoon', 'Deep-Learning-From-Scratch', 'Good-Papers', 'Deep-Learning-Papers-for-Fish', 'vel', 'windy-afternoon', 'Deep-Learning-From-Scratch', 'Good-Papers', 'Deep-Learning-Papers-for-Fish', 'vel', 'windy-afternoon', 'Deep-Learning-From-Scratch', 'Good-Papers', 'Deep-Learning-Papers-for-Fish', 'vel', 'windy-afternoon', 'Deep-Learning-From-Scratch', 'Good-Papers', 'Deep-Learning-Papers-for-Fish', 'vel', 'windy-afternoon', 'Deep-Learning-From-Scratch', 'Good-Papers', 'Deep-Learning-Papers-for-Fish', 'vel', 'windy-afternoon', 'Deep-Learning-From-Scratch', 'Good-Papers', 'Deep-Learning-Papers-for-Fish', 'vel', 'windy-afternoon', 'Deep-Learning-From-Scratch', 'Good-Papers', 'Deep-Learning-Papers-for-Fish', 'vel', 'windy-afternoon', 'Deep-Learning-From-Scratch', 'Good-Papers', 'Deep-Learning-Papers-for-Fish', 'vel', 'windy-afternoon', 'Deep-Learning-From-Scratch', 'Good-Papers', 'Deep-Learning-Papers-for-Fish', 'vel', 'windy-afternoon', 'Deep-Learning-From-Scratch', 'Good-Papers', 'Deep-Learning-Papers-for-Fish', 'vel', 'windy-afternoon', 'Deep-Learning-From-Scratch', 'Good-Papers', 'Deep-Learning-Papers-for-Fish', 'vel', 'windy-afternoon', 'Deep-Learning-From-Scratch', 'Good-Papers', 'Deep-Learning-Papers-for-Fish', 'vel', 'windy-afternoon', 'Deep-Learning-From-Scratch', 'Good-Papers', 'Deep-Learning-Papers-for-Fish', 'vel', 'windy-afternoon', 'Deep-Learning-From-Scratch', 'Good-Papers', 'Deep-Learning-Papers-for-Fish', 'vel', 'windy-afternoon', 'Deep-Learning-From-Scratch', 'Good-Papers', 'Deep-Learning-Papers-for-Fish', 'vel', 'windy-afternoon', 'Deep-Learning-From-Scratch', 'Good-Papers', 'Deep-Learning-Papers-for-Fish', 'vel', 'windy-afternoon', 'Deep-Learning-From-Scratch', 'Good-Papers', 'Deep-Learning-Papers-for-Fish', 'vel', 'windy-afternoon', 'Deep-Learning-From-Scratch', 'Good-Papers', 'Deep-Learning-Papers-for-Fish', 'vel', 'windy-afternoon', 'Deep-Learning-From-Scratch', 'Good-Papers', 'Deep-Learning-Papers-for-Fish', 'vel', 'windy-afternoon', 'Deep-Learning-From-Scratch', 'Good-Papers', 'Deep-Learning-Papers-for-Fish', 'vel', 'windy-afternoon', 'Deep-Learning-From-Scratch', 'Good-Papers', 'Deep-Learning-Papers-for-Fish', 'vel', 'windy-afternoon', 'Deep-Learning-From-Scratch', 'Good-Papers', 'Deep-Learning-Papers-for-Fish', 'vel', 'windy-afternoon', 'Deep-Learning-From-Scratch', 'Good-Papers', 'Deep-Learning-Papers-for-Fish', 'vel', 'windy-afternoon', 'Deep-Learning-From-Scratch', 'Good-Papers', 'Deep-Learning-Papers-for-Fish', 'vel', 'windy-afternoon', 'Deep-Learning-From-Scratch', 'Good-Papers', 'Deep-Learning-Papers-for-Fish', 'vel', 'windy-afternoon', 'Deep-Learning-From-Scratch', 'Good-Papers', 'Deep-Learning-Papers-for-Fish']</t>
+  </si>
+  <si>
+    <t>['atlas', 'Deep_learning_examples', 'GraphSAINT', 'ravens', 'DeCLUTR', 'PokerRL', 'atlas', 'Deep_learning_examples', 'GraphSAINT', 'ravens', 'PokerRL', 'atlas', 'Deep_learning_examples', 'GraphSAINT', 'ravens', 'DeCLUTR', 'PokerRL', 'atlas', 'Deep_learning_examples', 'GraphSAINT', 'ravens', 'PokerRL', 'atlas', 'Deep_learning_examples', 'GraphSAINT', 'ravens', 'DeCLUTR', 'PokerRL', 'atlas', 'Deep_learning_examples', 'GraphSAINT', 'ravens', 'PokerRL', 'atlas', 'Deep_learning_examples', 'GraphSAINT', 'ravens', 'PokerRL', 'atlas', 'Deep_learning_examples', 'GraphSAINT', 'ravens', 'PokerRL', 'atlas', 'Deep_learning_examples', 'GraphSAINT', 'ravens', 'PokerRL', 'atlas', 'Deep_learning_examples', 'GraphSAINT', 'ravens', 'PokerRL', 'atlas', 'Deep_learning_examples', 'GraphSAINT', 'ravens', 'PokerRL', 'atlas', 'Deep_learning_examples', 'GraphSAINT', 'ravens', 'PokerRL', 'atlas', 'Deep_learning_examples', 'GraphSAINT', 'ravens', 'DeCLUTR', 'PokerRL', 'atlas', 'Deep_learning_examples', 'GraphSAINT', 'ravens', 'PokerRL', 'atlas', 'Deep_learning_examples', 'GraphSAINT', 'ravens', 'PokerRL', 'atlas', 'Deep_learning_examples', 'GraphSAINT', 'ravens', 'PokerRL', 'atlas', 'Deep_learning_examples', 'GraphSAINT', 'ravens', 'PokerRL', 'atlas', 'Deep_learning_examples', 'GraphSAINT', 'ravens', 'PokerRL', 'atlas', 'Deep_learning_examples', 'GraphSAINT', 'ravens', 'DeCLUTR', 'PokerRL', 'atlas', 'Deep_learning_examples', 'GraphSAINT', 'ravens', 'PokerRL', 'atlas', 'Deep_learning_examples', 'GraphSAINT', 'ravens', 'PokerRL', 'atlas', 'Deep_learning_examples', 'GraphSAINT', 'ravens', 'PokerRL', 'atlas', 'Deep_learning_examples', 'GraphSAINT', 'ravens', 'PokerRL', 'atlas', 'Deep_learning_examples', 'GraphSAINT', 'ravens', 'DeCLUTR', 'PokerRL', 'atlas', 'Deep_learning_examples', 'GraphSAINT', 'ravens', 'PokerRL', 'atlas', 'Deep_learning_examples', 'GraphSAINT', 'ravens', 'PokerRL', 'atlas', 'Deep_learning_examples', 'GraphSAINT', 'ravens', 'PokerRL', 'atlas', 'Deep_learning_examples', 'GraphSAINT', 'ravens', 'PokerRL', 'atlas', 'Deep_learning_examples', 'GraphSAINT', 'ravens', 'PokerRL', 'atlas', 'Deep_learning_examples', 'GraphSAINT', 'ravens', 'PokerRL', 'atlas', 'Deep_learning_examples', 'GraphSAINT', 'ravens', 'PokerRL', 'atlas', 'Deep_learning_examples', 'GraphSAINT', 'ravens', 'PokerRL', 'atlas', 'Deep_learning_examples', 'GraphSAINT', 'ravens', 'PokerRL', 'atlas', 'Deep_learning_examples', 'GraphSAINT', 'ravens', 'PokerRL', 'atlas', 'Deep_learning_examples', 'GraphSAINT', 'ravens', 'PokerRL', 'atlas', 'Deep_learning_examples', 'GraphSAINT', 'ravens', 'PokerRL', 'atlas', 'Deep_learning_examples', 'GraphSAINT', 'ravens', 'PokerRL', 'atlas', 'Deep_learning_examples', 'GraphSAINT', 'ravens', 'PokerRL', 'atlas', 'Deep_learning_examples', 'GraphSAINT', 'ravens', 'PokerRL', 'atlas', 'Deep_learning_examples', 'GraphSAINT', 'ravens', 'DeCLUTR', 'PokerRL', 'atlas', 'Deep_learning_examples', 'GraphSAINT', 'ravens', 'PokerRL', 'atlas', 'Deep_learning_examples', 'GraphSAINT', 'ravens', 'PokerRL', 'atlas', 'Deep_learning_examples', 'GraphSAINT', 'ravens', 'PokerRL', 'atlas', 'Deep_learning_examples', 'GraphSAINT', 'ravens', 'DeCLUTR', 'PokerRL', 'atlas', 'Deep_learning_examples', 'GraphSAINT', 'ravens', 'PokerRL', 'atlas', 'Deep_learning_examples', 'GraphSAINT', 'ravens', 'PokerRL', 'atlas', 'Deep_learning_examples', 'GraphSAINT', 'ravens', 'PokerRL', 'atlas', 'Deep_learning_examples', 'GraphSAINT', 'ravens', 'DeCLUTR', 'PokerRL', 'atlas', 'Deep_learning_examples', 'GraphSAINT', 'ravens', 'PokerRL', 'atlas', 'Deep_learning_examples', 'GraphSAINT', 'ravens', 'PokerRL', 'atlas', 'Deep_learning_examples', 'GraphSAINT', 'ravens', 'PokerRL', 'atlas', 'Deep_learning_examples', 'GraphSAINT', 'ravens', 'PokerRL', 'atlas', 'Deep_learning_examples', 'GraphSAINT', 'ravens', 'PokerRL', 'atlas', 'Deep_learning_examples', 'GraphSAINT', 'ravens', 'PokerRL', 'atlas', 'Deep_learning_examples', 'GraphSAINT', 'ravens', 'PokerRL', 'atlas', 'Deep_learning_examples', 'GraphSAINT', 'ravens', 'PokerRL', 'atlas', 'Deep_learning_examples', 'GraphSAINT', 'ravens', 'PokerRL', 'atlas', 'Deep_learning_examples', 'GraphSAINT', 'ravens', 'PokerRL', 'atlas', 'Deep_learning_examples', 'GraphSAINT', 'ravens', 'PokerRL', 'atlas', 'Deep_learning_examples', 'GraphSAINT', 'ravens', 'PokerRL', 'atlas', 'Deep_learning_examples', 'GraphSAINT', 'ravens', 'PokerRL', 'atlas', 'Deep_learning_examples', 'GraphSAINT', 'ravens', 'PokerRL', 'atlas', 'Deep_learning_examples', 'GraphSAINT', 'ravens', 'PokerRL', 'atlas', 'Deep_learning_examples', 'GraphSAINT', 'ravens', 'DeCLUTR', 'PokerRL', 'atlas', 'Deep_learning_examples', 'GraphSAINT', 'ravens', 'PokerRL', 'atlas', 'Deep_learning_examples', 'GraphSAINT', 'ravens', 'PokerRL', 'atlas', 'Deep_learning_examples', 'GraphSAINT', 'ravens', 'PokerRL', 'atlas', 'Deep_learning_examples', 'GraphSAINT', 'ravens', 'PokerRL', 'atlas', 'Deep_learning_examples', 'GraphSAINT', 'ravens', 'PokerRL', 'atlas', 'Deep_learning_examples', 'GraphSAINT', 'ravens', 'DeCLUTR', 'PokerRL', 'atlas', 'Deep_learning_examples', 'GraphSAINT', 'ravens', 'PokerRL', 'atlas', 'Deep_learning_examples', 'GraphSAINT', 'ravens', 'PokerRL', 'atlas', 'Deep_learning_examples', 'GraphSAINT', 'ravens', 'PokerRL', 'atlas', 'Deep_learning_examples', 'GraphSAINT', 'ravens', 'DeCLUTR', 'PokerRL', 'atlas', 'Deep_learning_examples', 'GraphSAINT', 'ravens', 'PokerRL', 'atlas', 'Deep_learning_examples', 'GraphSAINT', 'ravens', 'DeCLUTR', 'PokerRL', 'atlas', 'Deep_learning_examples', 'GraphSAINT', 'ravens', 'PokerRL', 'atlas', 'Deep_learning_examples', 'GraphSAINT', 'ravens', 'PokerRL', 'atlas', 'Deep_learning_examples', 'GraphSAINT', 'ravens', 'PokerRL', 'atlas', 'Deep_learning_examples', 'GraphSAINT', 'ravens', 'PokerRL', 'atlas', 'Deep_learning_examples', 'GraphSAINT', 'ravens', 'PokerRL', 'atlas', 'Deep_learning_examples', 'GraphSAINT', 'ravens', 'PokerRL', 'atlas', 'Deep_learning_examples', 'GraphSAINT', 'ravens', 'PokerRL', 'atlas', 'Deep_learning_examples', 'GraphSAINT', 'ravens', 'PokerRL', 'atlas', 'Deep_learning_examples', 'GraphSAINT', 'ravens', 'PokerRL', 'atlas', 'Deep_learning_examples', 'GraphSAINT', 'ravens', 'PokerRL', 'atlas', 'Deep_learning_examples', 'GraphSAINT', 'ravens', 'PokerRL', 'atlas', 'Deep_learning_examples', 'GraphSAINT', 'ravens', 'DeCLUTR', 'PokerRL', 'atlas', 'Deep_learning_examples', 'GraphSAINT', 'ravens', 'PokerRL', 'atlas', 'Deep_learning_examples', 'GraphSAINT', 'ravens', 'DeCLUTR', 'PokerRL', 'atlas', 'Deep_learning_examples', 'GraphSAINT', 'ravens', 'PokerRL']</t>
+  </si>
+  <si>
+    <t>['MIScnn', 'Clustering-with-Deep-learning', 'GuitarLSTM', 'GeometricFlux.jl', 'arc-robot-vision', 'adaptdl', 'gordon_cnn', 'MIScnn', 'Clustering-with-Deep-learning', 'GuitarLSTM', 'GeometricFlux.jl', 'arc-robot-vision', 'adaptdl', 'gordon_cnn', 'MIScnn', 'Clustering-with-Deep-learning', 'GuitarLSTM', 'GeometricFlux.jl', 'arc-robot-vision', 'adaptdl', 'gordon_cnn', 'MIScnn', 'Clustering-with-Deep-learning', 'GuitarLSTM', 'GeometricFlux.jl', 'arc-robot-vision', 'adaptdl', 'gordon_cnn', 'MIScnn', 'Clustering-with-Deep-learning', 'GuitarLSTM', 'GeometricFlux.jl', 'arc-robot-vision', 'adaptdl', 'gordon_cnn', 'MIScnn', 'Clustering-with-Deep-learning', 'GuitarLSTM', 'GeometricFlux.jl', 'arc-robot-vision', 'adaptdl', 'gordon_cnn', 'MIScnn', 'Clustering-with-Deep-learning', 'GuitarLSTM', 'GeometricFlux.jl', 'arc-robot-vision', 'adaptdl', 'gordon_cnn', 'MIScnn', 'Clustering-with-Deep-learning', 'GuitarLSTM', 'GeometricFlux.jl', 'arc-robot-vision', 'adaptdl', 'gordon_cnn', 'MIScnn', 'Clustering-with-Deep-learning', 'GuitarLSTM', 'GeometricFlux.jl', 'arc-robot-vision', 'adaptdl', 'gordon_cnn', 'MIScnn', 'Clustering-with-Deep-learning', 'GuitarLSTM', 'GeometricFlux.jl', 'arc-robot-vision', 'adaptdl', 'gordon_cnn', 'MIScnn', 'Clustering-with-Deep-learning', 'GuitarLSTM', 'GeometricFlux.jl', 'arc-robot-vision', 'adaptdl', 'gordon_cnn', 'MIScnn', 'Clustering-with-Deep-learning', 'GuitarLSTM', 'GeometricFlux.jl', 'arc-robot-vision', 'adaptdl', 'gordon_cnn', 'MIScnn', 'Clustering-with-Deep-learning', 'GuitarLSTM', 'GeometricFlux.jl', 'arc-robot-vision', 'adaptdl', 'gordon_cnn', 'MIScnn', 'Clustering-with-Deep-learning', 'GuitarLSTM', 'GeometricFlux.jl', 'arc-robot-vision', 'adaptdl', 'gordon_cnn', 'MIScnn', 'Clustering-with-Deep-learning', 'GuitarLSTM', 'GeometricFlux.jl', 'arc-robot-vision', 'adaptdl', 'gordon_cnn', 'MIScnn', 'Clustering-with-Deep-learning', 'GuitarLSTM', 'GeometricFlux.jl', 'arc-robot-vision', 'adaptdl', 'gordon_cnn', 'MIScnn', 'Clustering-with-Deep-learning', 'GuitarLSTM', 'GeometricFlux.jl', 'arc-robot-vision', 'adaptdl', 'gordon_cnn', 'MIScnn', 'Clustering-with-Deep-learning', 'GuitarLSTM', 'GeometricFlux.jl', 'arc-robot-vision', 'adaptdl', 'gordon_cnn', 'MIScnn', 'Clustering-with-Deep-learning', 'GuitarLSTM', 'GeometricFlux.jl', 'arc-robot-vision', 'adaptdl', 'gordon_cnn', 'MIScnn', 'Clustering-with-Deep-learning', 'GuitarLSTM', 'GeometricFlux.jl', 'arc-robot-vision', 'adaptdl', 'gordon_cnn', 'MIScnn', 'Clustering-with-Deep-learning', 'GuitarLSTM', 'GeometricFlux.jl', 'arc-robot-vision', 'adaptdl', 'gordon_cnn', 'MIScnn', 'Clustering-with-Deep-learning', 'GuitarLSTM', 'GeometricFlux.jl', 'arc-robot-vision', 'adaptdl', 'gordon_cnn', 'MIScnn', 'Clustering-with-Deep-learning', 'GuitarLSTM', 'GeometricFlux.jl', 'arc-robot-vision', 'adaptdl', 'gordon_cnn', 'MIScnn', 'Clustering-with-Deep-learning', 'GuitarLSTM', 'GeometricFlux.jl', 'arc-robot-vision', 'adaptdl', 'gordon_cnn', 'MIScnn', 'Clustering-with-Deep-learning', 'GuitarLSTM', 'GeometricFlux.jl', 'arc-robot-vision', 'adaptdl', 'gordon_cnn', 'MIScnn', 'Clustering-with-Deep-learning', 'GuitarLSTM', 'GeometricFlux.jl', 'arc-robot-vision', 'adaptdl', 'gordon_cnn', 'MIScnn', 'Clustering-with-Deep-learning', 'GuitarLSTM', 'GeometricFlux.jl', 'arc-robot-vision', 'adaptdl', 'gordon_cnn', 'MIScnn', 'Clustering-with-Deep-learning', 'GuitarLSTM', 'GeometricFlux.jl', 'arc-robot-vision', 'adaptdl', 'gordon_cnn', 'MIScnn', 'Clustering-with-Deep-learning', 'GuitarLSTM', 'GeometricFlux.jl', 'arc-robot-vision', 'adaptdl', 'gordon_cnn', 'MIScnn', 'Clustering-with-Deep-learning', 'GuitarLSTM', 'GeometricFlux.jl', 'arc-robot-vision', 'adaptdl', 'gordon_cnn', 'MIScnn', 'Clustering-with-Deep-learning', 'GuitarLSTM', 'GeometricFlux.jl', 'arc-robot-vision', 'adaptdl', 'gordon_cnn', 'MIScnn', 'Clustering-with-Deep-learning', 'GuitarLSTM', 'GeometricFlux.jl', 'arc-robot-vision', 'adaptdl', 'gordon_cnn', 'MIScnn', 'Clustering-with-Deep-learning', 'GuitarLSTM', 'GeometricFlux.jl', 'arc-robot-vision', 'adaptdl', 'gordon_cnn', 'MIScnn', 'Clustering-with-Deep-learning', 'GuitarLSTM', 'GeometricFlux.jl', 'arc-robot-vision', 'adaptdl', 'gordon_cnn', 'MIScnn', 'Clustering-with-Deep-learning', 'GuitarLSTM', 'GeometricFlux.jl', 'arc-robot-vision', 'adaptdl', 'gordon_cnn', 'MIScnn', 'Clustering-with-Deep-learning', 'GuitarLSTM', 'GeometricFlux.jl', 'arc-robot-vision', 'adaptdl', 'gordon_cnn', 'MIScnn', 'Clustering-with-Deep-learning', 'GuitarLSTM', 'GeometricFlux.jl', 'arc-robot-vision', 'adaptdl', 'gordon_cnn', 'MIScnn', 'Clustering-with-Deep-learning', 'GuitarLSTM', 'GeometricFlux.jl', 'arc-robot-vision', 'adaptdl', 'gordon_cnn', 'MIScnn', 'Clustering-with-Deep-learning', 'GuitarLSTM', 'GeometricFlux.jl', 'arc-robot-vision', 'adaptdl', 'gordon_cnn', 'MIScnn', 'Clustering-with-Deep-learning', 'GuitarLSTM', 'GeometricFlux.jl', 'arc-robot-vision', 'adaptdl', 'gordon_cnn', 'MIScnn', 'Clustering-with-Deep-learning', 'GuitarLSTM', 'GeometricFlux.jl', 'arc-robot-vision', 'adaptdl', 'gordon_cnn', 'MIScnn', 'Clustering-with-Deep-learning', 'GuitarLSTM', 'GeometricFlux.jl', 'arc-robot-vision', 'adaptdl', 'gordon_cnn', 'MIScnn', 'Clustering-with-Deep-learning', 'GuitarLSTM', 'GeometricFlux.jl', 'arc-robot-vision', 'adaptdl', 'gordon_cnn', 'MIScnn', 'Clustering-with-Deep-learning', 'GuitarLSTM', 'GeometricFlux.jl', 'arc-robot-vision', 'adaptdl', 'gordon_cnn', 'MIScnn', 'Clustering-with-Deep-learning', 'GuitarLSTM', 'GeometricFlux.jl', 'arc-robot-vision', 'adaptdl', 'gordon_cnn', 'MIScnn', 'Clustering-with-Deep-learning', 'GuitarLSTM', 'GeometricFlux.jl', 'arc-robot-vision', 'adaptdl', 'gordon_cnn', 'MIScnn', 'Clustering-with-Deep-learning', 'GuitarLSTM', 'GeometricFlux.jl', 'arc-robot-vision', 'adaptdl', 'gordon_cnn', 'MIScnn', 'Clustering-with-Deep-learning', 'GuitarLSTM', 'GeometricFlux.jl', 'arc-robot-vision', 'adaptdl', 'gordon_cnn', 'MIScnn', 'Clustering-with-Deep-learning', 'GuitarLSTM', 'GeometricFlux.jl', 'arc-robot-vision', 'adaptdl', 'gordon_cnn', 'MIScnn', 'Clustering-with-Deep-learning', 'GuitarLSTM', 'GeometricFlux.jl', 'arc-robot-vision', 'adaptdl', 'gordon_cnn', 'MIScnn', 'Clustering-with-Deep-learning', 'GuitarLSTM', 'GeometricFlux.jl', 'arc-robot-vision', 'adaptdl', 'gordon_cnn', 'MIScnn', 'Clustering-with-Deep-learning', 'GuitarLSTM', 'GeometricFlux.jl', 'arc-robot-vision', 'adaptdl', 'gordon_cnn', 'MIScnn', 'Clustering-with-Deep-learning', 'GuitarLSTM', 'GeometricFlux.jl', 'arc-robot-vision', 'adaptdl', 'gordon_cnn', 'MIScnn', 'Clustering-with-Deep-learning', 'GuitarLSTM', 'GeometricFlux.jl', 'arc-robot-vision', 'adaptdl', 'gordon_cnn', 'MIScnn', 'Clustering-with-Deep-learning', 'GuitarLSTM', 'GeometricFlux.jl', 'arc-robot-vision', 'adaptdl', 'gordon_cnn', 'MIScnn', 'Clustering-with-Deep-learning', 'GuitarLSTM', 'GeometricFlux.jl', 'arc-robot-vision', 'adaptdl', 'gordon_cnn', 'MIScnn', 'Clustering-with-Deep-learning', 'GuitarLSTM', 'GeometricFlux.jl', 'arc-robot-vision', 'adaptdl', 'gordon_cnn', 'MIScnn', 'Clustering-with-Deep-learning', 'GuitarLSTM', 'GeometricFlux.jl', 'arc-robot-vision', 'adaptdl', 'gordon_cnn', 'MIScnn', 'Clustering-with-Deep-learning', 'GuitarLSTM', 'GeometricFlux.jl', 'arc-robot-vision', 'adaptdl', 'gordon_cnn', 'MIScnn', 'Clustering-with-Deep-learning', 'GuitarLSTM', 'GeometricFlux.jl', 'arc-robot-vision', 'adaptdl', 'gordon_cnn', 'MIScnn', 'Clustering-with-Deep-learning', 'GuitarLSTM', 'GeometricFlux.jl', 'arc-robot-vision', 'adaptdl', 'gordon_cnn', 'MIScnn', 'Clustering-with-Deep-learning', 'GuitarLSTM', 'GeometricFlux.jl', 'arc-robot-vision', 'adaptdl', 'gordon_cnn', 'MIScnn', 'Clustering-with-Deep-learning', 'GuitarLSTM', 'GeometricFlux.jl', 'arc-robot-vision', 'adaptdl', 'gordon_cnn', 'MIScnn', 'Clustering-with-Deep-learning', 'GuitarLSTM', 'GeometricFlux.jl', 'arc-robot-vision', 'adaptdl', 'gordon_cnn', 'MIScnn', 'Clustering-with-Deep-learning', 'GuitarLSTM', 'GeometricFlux.jl', 'arc-robot-vision', 'adaptdl', 'gordon_cnn', 'MIScnn', 'Clustering-with-Deep-learning', 'GuitarLSTM', 'GeometricFlux.jl', 'arc-robot-vision', 'adaptdl', 'gordon_cnn', 'MIScnn', 'Clustering-with-Deep-learning', 'GuitarLSTM', 'GeometricFlux.jl', 'arc-robot-vision', 'adaptdl', 'gordon_cnn', 'MIScnn', 'Clustering-with-Deep-learning', 'GuitarLSTM', 'GeometricFlux.jl', 'arc-robot-vision', 'adaptdl', 'gordon_cnn', 'MIScnn', 'Clustering-with-Deep-learning', 'GuitarLSTM', 'GeometricFlux.jl', 'arc-robot-vision', 'adaptdl', 'gordon_cnn', 'MIScnn', 'Clustering-with-Deep-learning', 'GuitarLSTM', 'GeometricFlux.jl', 'arc-robot-vision', 'adaptdl', 'gordon_cnn', 'MIScnn', 'Clustering-with-Deep-learning', 'GuitarLSTM', 'GeometricFlux.jl', 'arc-robot-vision', 'adaptdl', 'gordon_cnn', 'MIScnn', 'Clustering-with-Deep-learning', 'GuitarLSTM', 'GeometricFlux.jl', 'arc-robot-vision', 'adaptdl', 'gordon_cnn', 'MIScnn', 'Clustering-with-Deep-learning', 'GuitarLSTM', 'GeometricFlux.jl', 'arc-robot-vision', 'adaptdl', 'gordon_cnn', 'MIScnn', 'Clustering-with-Deep-learning', 'GuitarLSTM', 'GeometricFlux.jl', 'arc-robot-vision', 'adaptdl', 'gordon_cnn', 'MIScnn', 'Clustering-with-Deep-learning', 'GuitarLSTM', 'GeometricFlux.jl', 'arc-robot-vision', 'adaptdl', 'gordon_cnn', 'MIScnn', 'Clustering-with-Deep-learning', 'GuitarLSTM', 'GeometricFlux.jl', 'arc-robot-vision', 'adaptdl', 'gordon_cnn', 'MIScnn', 'Clustering-with-Deep-learning', 'GuitarLSTM', 'GeometricFlux.jl', 'arc-robot-vision', 'adaptdl', 'gordon_cnn', 'MIScnn', 'Clustering-with-Deep-learning', 'GuitarLSTM', 'GeometricFlux.jl', 'arc-robot-vision', 'adaptdl', 'gordon_cnn', 'MIScnn', 'Clustering-with-Deep-learning', 'GuitarLSTM', 'GeometricFlux.jl', 'arc-robot-vision', 'adaptdl', 'gordon_cnn', 'MIScnn', 'Clustering-with-Deep-learning', 'GuitarLSTM', 'GeometricFlux.jl', 'arc-robot-vision', 'adaptdl', 'gordon_cnn', 'MIScnn', 'Clustering-with-Deep-learning', 'GuitarLSTM', 'GeometricFlux.jl', 'arc-robot-vision', 'adaptdl', 'gordon_cnn', 'MIScnn', 'Clustering-with-Deep-learning', 'GuitarLSTM', 'GeometricFlux.jl', 'arc-robot-vision', 'adaptdl', 'gordon_cnn', 'MIScnn', 'Clustering-with-Deep-learning', 'GuitarLSTM', 'GeometricFlux.jl', 'arc-robot-vision', 'adaptdl', 'gordon_cnn', 'MIScnn', 'Clustering-with-Deep-learning', 'GuitarLSTM', 'GeometricFlux.jl', 'arc-robot-vision', 'adaptdl', 'gordon_cnn', 'MIScnn', 'Clustering-with-Deep-learning', 'GuitarLSTM', 'GeometricFlux.jl', 'arc-robot-vision', 'adaptdl', 'gordon_cnn', 'MIScnn', 'Clustering-with-Deep-learning', 'GuitarLSTM', 'GeometricFlux.jl', 'arc-robot-vision', 'adaptdl', 'gordon_cnn', 'MIScnn', 'Clustering-with-Deep-learning', 'GuitarLSTM', 'GeometricFlux.jl', 'arc-robot-vision', 'adaptdl', 'gordon_cnn', 'MIScnn', 'Clustering-with-Deep-learning', 'GuitarLSTM', 'GeometricFlux.jl', 'arc-robot-vision', 'adaptdl', 'gordon_cnn', 'MIScnn', 'Clustering-with-Deep-learning', 'GuitarLSTM', 'GeometricFlux.jl', 'arc-robot-vision', 'adaptdl', 'gordon_cnn', 'MIScnn', 'Clustering-with-Deep-learning', 'GuitarLSTM', 'GeometricFlux.jl', 'arc-robot-vision', 'adaptdl', 'gordon_cnn', 'MIScnn', 'Clustering-with-Deep-learning', 'GuitarLSTM', 'GeometricFlux.jl', 'arc-robot-vision', 'adaptdl', 'gordon_cnn']</t>
+  </si>
+  <si>
+    <t>['dgl', 'models', 'mace', 'dlwpt-code', 'Artificial-Intelligence-Deep-Learning-Machine-Learning-Tutorials', 'deep-learning-book', 'Deep-Learning-for-Tracking-and-Detection', 'Deep-Learning', 'chainerrl', 'btgym', 'PyTorch-RL', 'DL-NLP-Readings', 'dcscn-super-resolution', 'deep-learning-book', 'Deep-Metric-Learning-Baselines', 'IRCNN', 'DeepPurpose', 'PyTorch', 'deep-learning-traffic-lights', 'torchdistill', 'deer', 'deep-learning-from-scratch-3', 'bayes-nn', 'deep-learning-wizard', 'deepstock', 'deepdow', 'cheetah', 'dl_tutorials_10weeks', 'interactive-machine-learning-list', 'ConvNetSharp', 'DRBox', 'gdrl', 'deep-learning-localization-mapping', 'OpenLearning4DeepRecsys', '3D-Reconstruction-with-Deep-Learning-Methods', 'deepsnap', 'Tetris-deep-Q-learning-pytorch', 'magnet', 'Deep-Learning', 'powerful-benchmarker', 'rl4j', 'hyperboard', 'dlcampjeju', 'deep-diamond', 'models', 'framework-determinism', 'vime', 'Awesome-Distributed-Deep-Learning', 'keras-multiprocess-image-data-generator', 'tensorflow-image-detection', 'pytorch-dqn', 'awesome-deep-rl', 'tensorflow-gpu-install-ubuntu-16.04', 'L2C', 'deeplearning.ai-notes', 'end2end-all-conv', 'DeepResearch', 'remote-sensing-deep-learning', 'wildcat.pytorch', 'tensor', 'deeplearning.ai-notes', 'end2end-all-conv', 'DeCLUTR', 'DeepResearch', 'remote-sensing-deep-learning', 'wildcat.pytorch', 'tensor', 'deeplearning.ai-notes', 'end2end-all-conv', 'DeepResearch', 'remote-sensing-deep-learning', 'wildcat.pytorch', 'tensor', 'deeplearning.ai-notes', 'end2end-all-conv', 'DeCLUTR', 'DeepResearch', 'remote-sensing-deep-learning', 'wildcat.pytorch', 'tensor', 'deeplearning.ai-notes', 'end2end-all-conv', 'DeepResearch', 'remote-sensing-deep-learning', 'wildcat.pytorch', 'tensor', 'deeplearning.ai-notes', 'end2end-all-conv', 'DeCLUTR', 'DeepResearch', 'remote-sensing-deep-learning', 'wildcat.pytorch', 'tensor', 'deeplearning.ai-notes', 'end2end-all-conv', 'DeCLUTR', 'DeepResearch', 'remote-sensing-deep-learning', 'wildcat.pytorch', 'tensor', 'deeplearning.ai-notes', 'end2end-all-conv', 'DeCLUTR', 'DeepResearch', 'remote-sensing-deep-learning', 'wildcat.pytorch', 'tensor', 'deeplearning.ai-notes', 'end2end-all-conv', 'DeCLUTR', 'DeepResearch', 'remote-sensing-deep-learning', 'wildcat.pytorch', 'tensor', 'deeplearning.ai-notes', 'end2end-all-conv', 'DeCLUTR', 'DeepResearch', 'remote-sensing-deep-learning', 'wildcat.pytorch', 'tensor', 'deeplearning.ai-notes', 'end2end-all-conv', 'DeCLUTR', 'DeepResearch', 'remote-sensing-deep-learning', 'wildcat.pytorch', 'tensor', 'deeplearning.ai-notes', 'end2end-all-conv', 'DeCLUTR', 'DeepResearch', 'remote-sensing-deep-learning', 'wildcat.pytorch', 'tensor', 'deeplearning.ai-notes', 'end2end-all-conv', 'DeepResearch', 'remote-sensing-deep-learning', 'wildcat.pytorch', 'tensor', 'deeplearning.ai-notes', 'end2end-all-conv', 'DeCLUTR', 'DeepResearch', 'remote-sensing-deep-learning', 'wildcat.pytorch', 'tensor', 'deeplearning.ai-notes', 'end2end-all-conv', 'DeCLUTR', 'DeepResearch', 'remote-sensing-deep-learning', 'wildcat.pytorch', 'tensor', 'deeplearning.ai-notes', 'end2end-all-conv', 'DeCLUTR', 'DeepResearch', 'remote-sensing-deep-learning', 'wildcat.pytorch', 'tensor', 'deeplearning.ai-notes', 'end2end-all-conv', 'DeCLUTR', 'DeepResearch', 'remote-sensing-deep-learning', 'wildcat.pytorch', 'tensor', 'deeplearning.ai-notes', 'end2end-all-conv', 'DeCLUTR', 'DeepResearch', 'remote-sensing-deep-learning', 'wildcat.pytorch', 'tensor', 'deeplearning.ai-notes', 'end2end-all-conv', 'DeepResearch', 'remote-sensing-deep-learning', 'wildcat.pytorch', 'tensor', 'deeplearning.ai-notes', 'end2end-all-conv', 'DeCLUTR', 'DeepResearch', 'remote-sensing-deep-learning', 'wildcat.pytorch', 'tensor', 'deeplearning.ai-notes', 'end2end-all-conv', 'DeCLUTR', 'DeepResearch', 'remote-sensing-deep-learning', 'wildcat.pytorch', 'tensor', 'deeplearning.ai-notes', 'end2end-all-conv', 'DeCLUTR', 'DeepResearch', 'remote-sensing-deep-learning', 'wildcat.pytorch', 'tensor', 'deeplearning.ai-notes', 'end2end-all-conv', 'DeCLUTR', 'DeepResearch', 'remote-sensing-deep-learning', 'wildcat.pytorch', 'tensor', 'deeplearning.ai-notes', 'end2end-all-conv', 'DeepResearch', 'remote-sensing-deep-learning', 'wildcat.pytorch', 'tensor', 'deeplearning.ai-notes', 'end2end-all-conv', 'DeCLUTR', 'DeepResearch', 'remote-sensing-deep-learning', 'wildcat.pytorch', 'tensor', 'deeplearning.ai-notes', 'end2end-all-conv', 'DeCLUTR', 'DeepResearch', 'remote-sensing-deep-learning', 'wildcat.pytorch', 'tensor', 'deeplearning.ai-notes', 'end2end-all-conv', 'DeCLUTR', 'DeepResearch', 'remote-sensing-deep-learning', 'wildcat.pytorch', 'tensor', 'deeplearning.ai-notes', 'end2end-all-conv', 'DeCLUTR', 'DeepResearch', 'remote-sensing-deep-learning', 'wildcat.pytorch', 'tensor', 'deeplearning.ai-notes', 'end2end-all-conv', 'DeCLUTR', 'DeepResearch', 'remote-sensing-deep-learning', 'wildcat.pytorch', 'tensor', 'deeplearning.ai-notes', 'end2end-all-conv', 'DeCLUTR', 'DeepResearch', 'remote-sensing-deep-learning', 'wildcat.pytorch', 'tensor', 'deeplearning.ai-notes', 'end2end-all-conv', 'DeCLUTR', 'DeepResearch', 'remote-sensing-deep-learning', 'wildcat.pytorch', 'tensor', 'deeplearning.ai-notes', 'end2end-all-conv', 'DeCLUTR', 'DeepResearch', 'remote-sensing-deep-learning', 'wildcat.pytorch', 'tensor', 'deeplearning.ai-notes', 'end2end-all-conv', 'DeCLUTR', 'DeepResearch', 'remote-sensing-deep-learning', 'wildcat.pytorch', 'tensor', 'deeplearning.ai-notes', 'end2end-all-conv', 'DeCLUTR', 'DeepResearch', 'remote-sensing-deep-learning', 'wildcat.pytorch', 'tensor', 'deeplearning.ai-notes', 'end2end-all-conv', 'DeCLUTR', 'DeepResearch', 'remote-sensing-deep-learning', 'wildcat.pytorch', 'tensor', 'deeplearning.ai-notes', 'end2end-all-conv', 'DeCLUTR', 'DeepResearch', 'remote-sensing-deep-learning', 'wildcat.pytorch', 'tensor', 'deeplearning.ai-notes', 'end2end-all-conv', 'DeCLUTR', 'DeepResearch', 'remote-sensing-deep-learning', 'wildcat.pytorch', 'tensor', 'deeplearning.ai-notes', 'end2end-all-conv', 'DeCLUTR', 'DeepResearch', 'remote-sensing-deep-learning', 'wildcat.pytorch', 'tensor', 'deeplearning.ai-notes', 'end2end-all-conv', 'DeCLUTR', 'DeepResearch', 'remote-sensing-deep-learning', 'wildcat.pytorch', 'tensor', 'deeplearning.ai-notes', 'end2end-all-conv', 'DeepResearch', 'remote-sensing-deep-learning', 'wildcat.pytorch', 'tensor', 'deeplearning.ai-notes', 'end2end-all-conv', 'DeCLUTR', 'DeepResearch', 'remote-sensing-deep-learning', 'wildcat.pytorch', 'tensor', 'deeplearning.ai-notes', 'end2end-all-conv', 'DeCLUTR', 'DeepResearch', 'remote-sensing-deep-learning', 'wildcat.pytorch', 'tensor', 'deeplearning.ai-notes', 'end2end-all-conv', 'DeCLUTR', 'DeepResearch', 'remote-sensing-deep-learning', 'wildcat.pytorch', 'tensor', 'deeplearning.ai-notes', 'end2end-all-conv', 'DeepResearch', 'remote-sensing-deep-learning', 'wildcat.pytorch', 'tensor', 'deeplearning.ai-notes', 'end2end-all-conv', 'DeCLUTR', 'DeepResearch', 'remote-sensing-deep-learning', 'wildcat.pytorch', 'tensor', 'deeplearning.ai-notes', 'end2end-all-conv', 'DeCLUTR', 'DeepResearch', 'remote-sensing-deep-learning', 'wildcat.pytorch', 'tensor', 'deeplearning.ai-notes', 'end2end-all-conv', 'DeCLUTR', 'DeepResearch', 'remote-sensing-deep-learning', 'wildcat.pytorch', 'tensor', 'deeplearning.ai-notes', 'end2end-all-conv', 'DeepResearch', 'remote-sensing-deep-learning', 'wildcat.pytorch', 'tensor', 'deeplearning.ai-notes', 'end2end-all-conv', 'DeCLUTR', 'DeepResearch', 'remote-sensing-deep-learning', 'wildcat.pytorch', 'tensor', 'deeplearning.ai-notes', 'end2end-all-conv', 'DeCLUTR', 'DeepResearch', 'remote-sensing-deep-learning', 'wildcat.pytorch', 'tensor', 'deeplearning.ai-notes', 'end2end-all-conv', 'DeCLUTR', 'DeepResearch', 'remote-sensing-deep-learning', 'wildcat.pytorch', 'tensor', 'deeplearning.ai-notes', 'end2end-all-conv', 'DeCLUTR', 'DeepResearch', 'remote-sensing-deep-learning', 'wildcat.pytorch', 'tensor', 'deeplearning.ai-notes', 'end2end-all-conv', 'DeCLUTR', 'DeepResearch', 'remote-sensing-deep-learning', 'wildcat.pytorch', 'tensor', 'deeplearning.ai-notes', 'end2end-all-conv', 'DeCLUTR', 'DeepResearch', 'remote-sensing-deep-learning', 'wildcat.pytorch', 'tensor', 'deeplearning.ai-notes', 'end2end-all-conv', 'DeCLUTR', 'DeepResearch', 'remote-sensing-deep-learning', 'wildcat.pytorch', 'tensor', 'deeplearning.ai-notes', 'end2end-all-conv', 'DeCLUTR', 'DeepResearch', 'remote-sensing-deep-learning', 'wildcat.pytorch', 'tensor', 'deeplearning.ai-notes', 'end2end-all-conv', 'DeCLUTR', 'DeepResearch', 'remote-sensing-deep-learning', 'wildcat.pytorch', 'tensor', 'deeplearning.ai-notes', 'end2end-all-conv', 'DeCLUTR', 'DeepResearch', 'remote-sensing-deep-learning', 'wildcat.pytorch', 'tensor', 'deeplearning.ai-notes', 'end2end-all-conv', 'DeCLUTR', 'DeepResearch', 'remote-sensing-deep-learning', 'wildcat.pytorch', 'tensor', 'deeplearning.ai-notes', 'end2end-all-conv', 'DeCLUTR', 'DeepResearch', 'remote-sensing-deep-learning', 'wildcat.pytorch', 'tensor', 'deeplearning.ai-notes', 'end2end-all-conv', 'DeCLUTR', 'DeepResearch', 'remote-sensing-deep-learning', 'wildcat.pytorch', 'tensor', 'deeplearning.ai-notes', 'end2end-all-conv', 'DeCLUTR', 'DeepResearch', 'remote-sensing-deep-learning', 'wildcat.pytorch', 'tensor', 'deeplearning.ai-notes', 'end2end-all-conv', 'DeCLUTR', 'DeepResearch', 'remote-sensing-deep-learning', 'wildcat.pytorch', 'tensor', 'deeplearning.ai-notes', 'end2end-all-conv', 'DeepResearch', 'remote-sensing-deep-learning', 'wildcat.pytorch', 'tensor', 'deeplearning.ai-notes', 'end2end-all-conv', 'DeCLUTR', 'DeepResearch', 'remote-sensing-deep-learning', 'wildcat.pytorch', 'tensor', 'deeplearning.ai-notes', 'end2end-all-conv', 'DeCLUTR', 'DeepResearch', 'remote-sensing-deep-learning', 'wildcat.pytorch', 'tensor', 'deeplearning.ai-notes', 'end2end-all-conv', 'DeCLUTR', 'DeepResearch', 'remote-sensing-deep-learning', 'wildcat.pytorch', 'tensor', 'deeplearning.ai-notes', 'end2end-all-conv', 'DeCLUTR', 'DeepResearch', 'remote-sensing-deep-learning', 'wildcat.pytorch', 'tensor', 'deeplearning.ai-notes', 'end2end-all-conv', 'DeCLUTR', 'DeepResearch', 'remote-sensing-deep-learning', 'wildcat.pytorch', 'tensor', 'deeplearning.ai-notes', 'end2end-all-conv', 'DeepResearch', 'remote-sensing-deep-learning', 'wildcat.pytorch', 'tensor', 'deeplearning.ai-notes', 'end2end-all-conv', 'DeCLUTR', 'DeepResearch', 'remote-sensing-deep-learning', 'wildcat.pytorch', 'tensor', 'deeplearning.ai-notes', 'end2end-all-conv', 'DeCLUTR', 'DeepResearch', 'remote-sensing-deep-learning', 'wildcat.pytorch', 'tensor', 'deeplearning.ai-notes', 'end2end-all-conv', 'DeCLUTR', 'DeepResearch', 'remote-sensing-deep-learning', 'wildcat.pytorch', 'tensor', 'deeplearning.ai-notes', 'end2end-all-conv', 'DeepResearch', 'remote-sensing-deep-learning', 'wildcat.pytorch', 'tensor', 'deeplearning.ai-notes', 'end2end-all-conv', 'DeCLUTR', 'DeepResearch', 'remote-sensing-deep-learning', 'wildcat.pytorch', 'tensor', 'deeplearning.ai-notes', 'end2end-all-conv', 'DeepResearch', 'remote-sensing-deep-learning', 'wildcat.pytorch', 'tensor', 'deeplearning.ai-notes', 'end2end-all-conv', 'DeCLUTR', 'DeepResearch', 'remote-sensing-deep-learning', 'wildcat.pytorch', 'tensor', 'deeplearning.ai-notes', 'end2end-all-conv', 'DeCLUTR', 'DeepResearch', 'remote-sensing-deep-learning', 'wildcat.pytorch', 'tensor', 'deeplearning.ai-notes', 'end2end-all-conv', 'DeCLUTR', 'DeepResearch', 'remote-sensing-deep-learning', 'wildcat.pytorch', 'tensor', 'deeplearning.ai-notes', 'end2end-all-conv', 'DeCLUTR', 'DeepResearch', 'remote-sensing-deep-learning', 'wildcat.pytorch', 'tensor', 'deeplearning.ai-notes', 'end2end-all-conv', 'DeCLUTR', 'DeepResearch', 'remote-sensing-deep-learning', 'wildcat.pytorch', 'tensor', 'deeplearning.ai-notes', 'end2end-all-conv', 'DeCLUTR', 'DeepResearch', 'remote-sensing-deep-learning', 'wildcat.pytorch', 'tensor', 'deeplearning.ai-notes', 'end2end-all-conv', 'DeCLUTR', 'DeepResearch', 'remote-sensing-deep-learning', 'wildcat.pytorch', 'tensor', 'deeplearning.ai-notes', 'end2end-all-conv', 'DeCLUTR', 'DeepResearch', 'remote-sensing-deep-learning', 'wildcat.pytorch', 'tensor', 'deeplearning.ai-notes', 'end2end-all-conv', 'DeCLUTR', 'DeepResearch', 'remote-sensing-deep-learning', 'wildcat.pytorch', 'tensor', 'deeplearning.ai-notes', 'end2end-all-conv', 'DeCLUTR', 'DeepResearch', 'remote-sensing-deep-learning', 'wildcat.pytorch', 'tensor', 'deeplearning.ai-notes', 'end2end-all-conv', 'DeCLUTR', 'DeepResearch', 'remote-sensing-deep-learning', 'wildcat.pytorch', 'tensor', 'deeplearning.ai-notes', 'end2end-all-conv', 'DeepResearch', 'remote-sensing-deep-learning', 'wildcat.pytorch', 'tensor', 'deeplearning.ai-notes', 'end2end-all-conv', 'DeCLUTR', 'DeepResearch', 'remote-sensing-deep-learning', 'wildcat.pytorch', 'tensor', 'deeplearning.ai-notes', 'end2end-all-conv', 'DeepResearch', 'remote-sensing-deep-learning', 'wildcat.pytorch', 'tensor', 'deeplearning.ai-notes', 'end2end-all-conv', 'DeCLUTR', 'DeepResearch', 'remote-sensing-deep-learning', 'wildcat.pytorch', 'tensor']</t>
+  </si>
+  <si>
+    <t>[('deep-learning', 728), ('tensorflow', 273), ('computer-vision', 182), ('machinelearning', 182), ('neural', 182), ('arm', 91), ('arm-compute-library', 91), ('arm-gpu', 91), ('arm-neon', 91), ('artificial-intelligence', 91), ('caffe', 91), ('cnn', 91), ('dnn', 91), ('deepmind', 91), ('dqn', 91)]</t>
+  </si>
+  <si>
+    <t>[('deep-learning', 637), ('machinelearning', 364), ('neural', 273), ('computer-vision', 182), ('pytorch', 182), ('tensorflow', 182), ('keras', 182), ('code-server', 91), ('cuda', 91), ('cudnn', 91), ('docker', 91), ('jupyter', 91), ('dqn', 91), ('drl', 91), ('self-driving-car', 91)]</t>
+  </si>
+  <si>
+    <t>[('deep-learning', 378), ('pytorch', 364), ('iccv2019', 91), ('patchmatch', 91), ('real-time', 91), ('stereo-matching', 91), ('stereo-vision', 91), ('cnn-for-visual-recognition', 91), ('gans', 91), ('rnn-pytorch', 91), ('word2vec', 91), ('car-physics', 91), ('mlagent', 91), ('mlagents', 91), ('reinforcement-learning', 91)]</t>
+  </si>
+  <si>
+    <t>[('deep-learning', 623), ('python', 455), ('machinelearning', 364), ('reinforcement-learning', 182), ('quantization', 182), ('change-detection', 91), ('image', 91), ('multi-temporal', 91), ('remote-sensing', 91), ('agent', 91), ('data', 91), ('deep', 91), ('examples', 91), ('learning', 91), ('multiagent-reinforcement-learning', 91)]</t>
+  </si>
+  <si>
+    <t>[('deep-learning', 637), ('machinelearning', 364), ('tensorflow', 182), ('neural', 182), ('python', 182), ('pytorch', 182), ('alpr', 91), ('android', 91), ('anpr', 91), ('anpr-sdk', 91), ('artificial-intelligence', 91), ('jetson', 91), ('jetson-nano', 91), ('jetson-tx2', 91), ('license-plate', 91)]</t>
+  </si>
+  <si>
+    <t>[('deep-learning', 775), ('machinelearning', 322), ('neural', 253), ('tensorflow', 148), ('pytorch', 145), ('convolutional-neural-networks', 119), ('cnn', 117), ('rnn', 107), ('lstm', 104), ('python', 103), ('learning', 101), ('deep', 97), ('system', 95), ('cudnn', 95), ('robotics', 94)]</t>
+  </si>
+  <si>
+    <t>[('deep-learning', 364), ('machinelearning', 182), ('neural', 182), ('convolutional-neural-networks', 91), ('python', 91), ('pytorch', 91), ('reinforcement-learning', 91), ('android', 91), ('linux', 91), ('ubuntu', 91), ('backpropagation', 91), ('gradient-descent', 91), ('least-squares', 91), ('linear-regression', 91), ('mnist', 91)]</t>
+  </si>
+  <si>
+    <t>[('deep-learning', 364), ('artificial-intelligence', 182), ('machinelearning', 182), ('reinforcement-learning', 182), ('ai', 91), ('data', 91), ('gpu', 91), ('model-management', 91), ('python', 91), ('bioinformatics', 91), ('gat', 91), ('gcn', 91), ('graph-sampling', 91), ('graphsage', 91), ('iclr', 91)]</t>
+  </si>
+  <si>
+    <t>[('deep-learning', 637), ('machinelearning', 364), ('computer-vision', 182), ('clinical-decision-support', 91), ('convolutional-neural-networks', 91), ('framework', 91), ('healthcare-imaging', 91), ('medical-image-analysis', 91), ('medical-image-processing', 91), ('medical-image-segmentation', 91), ('medical-imaging', 91), ('neural', 91), ('pip', 91), ('segmentation', 91), ('tensorflow', 91)]</t>
+  </si>
+  <si>
+    <t>[('deep-learning', 685), ('machinelearning', 382), ('tensorflow', 195), ('detection', 186), ('pytorch', 185), ('nlp', 174), ('neural', 108), ('python', 105), ('computer-vision', 97), ('keras', 93), ('segmentation', 92), ('hacktoberfest', 92), ('image-classification', 92), ('nueral-networks', 92), ('hyperparameter-tuning', 92)]</t>
   </si>
 </sst>
 </file>
@@ -471,7 +471,7 @@
         <v>4</v>
       </c>
       <c r="C2">
-        <v>455</v>
+        <v>728</v>
       </c>
       <c r="D2" t="s">
         <v>14</v>
@@ -485,7 +485,7 @@
         <v>5</v>
       </c>
       <c r="C3">
-        <v>1024</v>
+        <v>728</v>
       </c>
       <c r="D3" t="s">
         <v>15</v>
@@ -499,7 +499,7 @@
         <v>6</v>
       </c>
       <c r="C4">
-        <v>754</v>
+        <v>651</v>
       </c>
       <c r="D4" t="s">
         <v>16</v>
@@ -513,7 +513,7 @@
         <v>7</v>
       </c>
       <c r="C5">
-        <v>637</v>
+        <v>896</v>
       </c>
       <c r="D5" t="s">
         <v>17</v>
@@ -527,7 +527,7 @@
         <v>8</v>
       </c>
       <c r="C6">
-        <v>814</v>
+        <v>637</v>
       </c>
       <c r="D6" t="s">
         <v>18</v>
@@ -541,7 +541,7 @@
         <v>9</v>
       </c>
       <c r="C7">
-        <v>364</v>
+        <v>971</v>
       </c>
       <c r="D7" t="s">
         <v>19</v>
@@ -555,7 +555,7 @@
         <v>10</v>
       </c>
       <c r="C8">
-        <v>637</v>
+        <v>455</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
@@ -569,7 +569,7 @@
         <v>11</v>
       </c>
       <c r="C9">
-        <v>734</v>
+        <v>470</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
@@ -583,7 +583,7 @@
         <v>12</v>
       </c>
       <c r="C10">
-        <v>793</v>
+        <v>637</v>
       </c>
       <c r="D10" t="s">
         <v>22</v>
@@ -597,7 +597,7 @@
         <v>13</v>
       </c>
       <c r="C11">
-        <v>637</v>
+        <v>676</v>
       </c>
       <c r="D11" t="s">
         <v>23</v>
